--- a/Projeto_analise/Analise/apf-projeto.xlsx
+++ b/Projeto_analise/Analise/apf-projeto.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18229"/>
   <workbookPr codeName="EstaPasta_de_trabalho"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\André\workspace\EITS_PROJETO\Projeto_analise\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\André\workspace\EITS_PROJETO\Projeto_analise\Analise\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -18,9 +18,9 @@
     <sheet name="PFs por Sprint" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">Funções!$A$1:$V$119</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">Funções!$A$1:$V$121</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">Sumário!$A$1:$L$59</definedName>
-    <definedName name="CF">Funções!$K$8:$K$60</definedName>
+    <definedName name="CF">Funções!$K$8:$K$62</definedName>
     <definedName name="Data">Contagem!$X$7</definedName>
     <definedName name="Projeto">Contagem!$F$6</definedName>
     <definedName name="Responsável">Contagem!$F$7</definedName>
@@ -482,7 +482,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="121">
   <si>
     <t>Identificação da Contagem</t>
   </si>
@@ -823,19 +823,28 @@
     <t>«Functional» RFU0013 - Inserir cadastro de equipamento</t>
   </si>
   <si>
-    <t>Inserir sub equipamentos</t>
+    <t>Associar localização principal</t>
   </si>
   <si>
-    <t>i</t>
+    <t>Listar sub localizações</t>
   </si>
   <si>
-    <t xml:space="preserve">«Functional» RFU0016 - Inserir Sub equipamentos (componentes)  </t>
+    <t>«Functional» RFU0029 - Associar localização principal</t>
   </si>
   <si>
-    <t>Inserir sub localizações</t>
+    <t>«Functional» RFU0032 - Listar sub localizações</t>
   </si>
   <si>
-    <t>«Functional» RFU0029 - Inserir Sub localização</t>
+    <t>«Functional» RFU0016 - Associar equipamento principal</t>
+  </si>
+  <si>
+    <t>Associar equipamento principal</t>
+  </si>
+  <si>
+    <t>Listar sub equipamentos</t>
+  </si>
+  <si>
+    <t>«Functional» RFU0030 - Listar sub equipamentos</t>
   </si>
 </sst>
 </file>
@@ -1559,7 +1568,7 @@
     <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="165" fontId="14" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="143">
+  <cellXfs count="145">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1743,19 +1752,46 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1771,56 +1807,8 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1846,11 +1834,41 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="9" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
@@ -1876,17 +1894,11 @@
     <xf numFmtId="0" fontId="4" fillId="8" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1900,8 +1912,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -2439,16 +2454,16 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.42253521126760563</c:v>
+                  <c:v>0.43835616438356162</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.28169014084507044</c:v>
+                  <c:v>0.27397260273972601</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.29577464788732394</c:v>
+                  <c:v>0.28767123287671231</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -2908,7 +2923,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -2952,7 +2967,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -2994,487 +3009,487 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="95" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="95"/>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
-      <c r="F1" s="95"/>
-      <c r="G1" s="95"/>
-      <c r="H1" s="95"/>
-      <c r="I1" s="95"/>
-      <c r="J1" s="95"/>
-      <c r="K1" s="95"/>
-      <c r="L1" s="95"/>
-      <c r="M1" s="95"/>
-      <c r="N1" s="95"/>
-      <c r="O1" s="95"/>
-      <c r="P1" s="95"/>
-      <c r="Q1" s="95"/>
-      <c r="R1" s="95"/>
-      <c r="S1" s="95"/>
-      <c r="T1" s="95"/>
-      <c r="U1" s="95"/>
-      <c r="V1" s="95"/>
-      <c r="W1" s="95"/>
-      <c r="X1" s="95"/>
-      <c r="Y1" s="95"/>
-      <c r="Z1" s="95"/>
-      <c r="AA1" s="95"/>
-      <c r="AB1" s="95"/>
+      <c r="A1" s="104" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="104"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="104"/>
+      <c r="E1" s="104"/>
+      <c r="F1" s="104"/>
+      <c r="G1" s="104"/>
+      <c r="H1" s="104"/>
+      <c r="I1" s="104"/>
+      <c r="J1" s="104"/>
+      <c r="K1" s="104"/>
+      <c r="L1" s="104"/>
+      <c r="M1" s="104"/>
+      <c r="N1" s="104"/>
+      <c r="O1" s="104"/>
+      <c r="P1" s="104"/>
+      <c r="Q1" s="104"/>
+      <c r="R1" s="104"/>
+      <c r="S1" s="104"/>
+      <c r="T1" s="104"/>
+      <c r="U1" s="104"/>
+      <c r="V1" s="104"/>
+      <c r="W1" s="104"/>
+      <c r="X1" s="104"/>
+      <c r="Y1" s="104"/>
+      <c r="Z1" s="104"/>
+      <c r="AA1" s="104"/>
+      <c r="AB1" s="104"/>
     </row>
     <row r="2" spans="1:30" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="95"/>
-      <c r="B2" s="95"/>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="95"/>
-      <c r="F2" s="95"/>
-      <c r="G2" s="95"/>
-      <c r="H2" s="95"/>
-      <c r="I2" s="95"/>
-      <c r="J2" s="95"/>
-      <c r="K2" s="95"/>
-      <c r="L2" s="95"/>
-      <c r="M2" s="95"/>
-      <c r="N2" s="95"/>
-      <c r="O2" s="95"/>
-      <c r="P2" s="95"/>
-      <c r="Q2" s="95"/>
-      <c r="R2" s="95"/>
-      <c r="S2" s="95"/>
-      <c r="T2" s="95"/>
-      <c r="U2" s="95"/>
-      <c r="V2" s="95"/>
-      <c r="W2" s="95"/>
-      <c r="X2" s="95"/>
-      <c r="Y2" s="95"/>
-      <c r="Z2" s="95"/>
-      <c r="AA2" s="95"/>
-      <c r="AB2" s="95"/>
+      <c r="A2" s="104"/>
+      <c r="B2" s="104"/>
+      <c r="C2" s="104"/>
+      <c r="D2" s="104"/>
+      <c r="E2" s="104"/>
+      <c r="F2" s="104"/>
+      <c r="G2" s="104"/>
+      <c r="H2" s="104"/>
+      <c r="I2" s="104"/>
+      <c r="J2" s="104"/>
+      <c r="K2" s="104"/>
+      <c r="L2" s="104"/>
+      <c r="M2" s="104"/>
+      <c r="N2" s="104"/>
+      <c r="O2" s="104"/>
+      <c r="P2" s="104"/>
+      <c r="Q2" s="104"/>
+      <c r="R2" s="104"/>
+      <c r="S2" s="104"/>
+      <c r="T2" s="104"/>
+      <c r="U2" s="104"/>
+      <c r="V2" s="104"/>
+      <c r="W2" s="104"/>
+      <c r="X2" s="104"/>
+      <c r="Y2" s="104"/>
+      <c r="Z2" s="104"/>
+      <c r="AA2" s="104"/>
+      <c r="AB2" s="104"/>
     </row>
     <row r="3" spans="1:30" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="95"/>
-      <c r="B3" s="95"/>
-      <c r="C3" s="95"/>
-      <c r="D3" s="95"/>
-      <c r="E3" s="95"/>
-      <c r="F3" s="95"/>
-      <c r="G3" s="95"/>
-      <c r="H3" s="95"/>
-      <c r="I3" s="95"/>
-      <c r="J3" s="95"/>
-      <c r="K3" s="95"/>
-      <c r="L3" s="95"/>
-      <c r="M3" s="95"/>
-      <c r="N3" s="95"/>
-      <c r="O3" s="95"/>
-      <c r="P3" s="95"/>
-      <c r="Q3" s="95"/>
-      <c r="R3" s="95"/>
-      <c r="S3" s="95"/>
-      <c r="T3" s="95"/>
-      <c r="U3" s="95"/>
-      <c r="V3" s="95"/>
-      <c r="W3" s="95"/>
-      <c r="X3" s="95"/>
-      <c r="Y3" s="95"/>
-      <c r="Z3" s="95"/>
-      <c r="AA3" s="95"/>
-      <c r="AB3" s="95"/>
+      <c r="A3" s="104"/>
+      <c r="B3" s="104"/>
+      <c r="C3" s="104"/>
+      <c r="D3" s="104"/>
+      <c r="E3" s="104"/>
+      <c r="F3" s="104"/>
+      <c r="G3" s="104"/>
+      <c r="H3" s="104"/>
+      <c r="I3" s="104"/>
+      <c r="J3" s="104"/>
+      <c r="K3" s="104"/>
+      <c r="L3" s="104"/>
+      <c r="M3" s="104"/>
+      <c r="N3" s="104"/>
+      <c r="O3" s="104"/>
+      <c r="P3" s="104"/>
+      <c r="Q3" s="104"/>
+      <c r="R3" s="104"/>
+      <c r="S3" s="104"/>
+      <c r="T3" s="104"/>
+      <c r="U3" s="104"/>
+      <c r="V3" s="104"/>
+      <c r="W3" s="104"/>
+      <c r="X3" s="104"/>
+      <c r="Y3" s="104"/>
+      <c r="Z3" s="104"/>
+      <c r="AA3" s="104"/>
+      <c r="AB3" s="104"/>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A4" s="90" t="s">
+      <c r="A4" s="102" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="90"/>
-      <c r="C4" s="90"/>
-      <c r="D4" s="90"/>
-      <c r="E4" s="90"/>
-      <c r="F4" s="96" t="s">
+      <c r="B4" s="102"/>
+      <c r="C4" s="102"/>
+      <c r="D4" s="102"/>
+      <c r="E4" s="102"/>
+      <c r="F4" s="105" t="s">
         <v>92</v>
       </c>
-      <c r="G4" s="97"/>
-      <c r="H4" s="97"/>
-      <c r="I4" s="97"/>
-      <c r="J4" s="97"/>
-      <c r="K4" s="97"/>
-      <c r="L4" s="97"/>
-      <c r="M4" s="97"/>
-      <c r="N4" s="97"/>
-      <c r="O4" s="97"/>
-      <c r="P4" s="97"/>
-      <c r="Q4" s="98"/>
-      <c r="R4" s="93" t="s">
+      <c r="G4" s="106"/>
+      <c r="H4" s="106"/>
+      <c r="I4" s="106"/>
+      <c r="J4" s="106"/>
+      <c r="K4" s="106"/>
+      <c r="L4" s="106"/>
+      <c r="M4" s="106"/>
+      <c r="N4" s="106"/>
+      <c r="O4" s="106"/>
+      <c r="P4" s="106"/>
+      <c r="Q4" s="107"/>
+      <c r="R4" s="94" t="s">
         <v>2</v>
       </c>
-      <c r="S4" s="93"/>
+      <c r="S4" s="94"/>
       <c r="T4" s="64">
         <v>0</v>
       </c>
-      <c r="U4" s="93" t="s">
+      <c r="U4" s="94" t="s">
         <v>3</v>
       </c>
-      <c r="V4" s="93"/>
-      <c r="W4" s="92">
+      <c r="V4" s="94"/>
+      <c r="W4" s="108">
         <f>W5*T4</f>
         <v>0</v>
       </c>
-      <c r="X4" s="92"/>
-      <c r="Y4" s="92"/>
-      <c r="Z4" s="92"/>
-      <c r="AA4" s="92"/>
-      <c r="AB4" s="92"/>
+      <c r="X4" s="108"/>
+      <c r="Y4" s="108"/>
+      <c r="Z4" s="108"/>
+      <c r="AA4" s="108"/>
+      <c r="AB4" s="108"/>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A5" s="90" t="s">
+      <c r="A5" s="102" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="90"/>
-      <c r="C5" s="90"/>
-      <c r="D5" s="90"/>
-      <c r="E5" s="90"/>
-      <c r="F5" s="91" t="s">
+      <c r="B5" s="102"/>
+      <c r="C5" s="102"/>
+      <c r="D5" s="102"/>
+      <c r="E5" s="102"/>
+      <c r="F5" s="103" t="s">
         <v>93</v>
       </c>
-      <c r="G5" s="91"/>
-      <c r="H5" s="91"/>
-      <c r="I5" s="91"/>
-      <c r="J5" s="91"/>
-      <c r="K5" s="91"/>
-      <c r="L5" s="91"/>
-      <c r="M5" s="91"/>
-      <c r="N5" s="91"/>
-      <c r="O5" s="91"/>
-      <c r="P5" s="91"/>
-      <c r="Q5" s="91"/>
-      <c r="R5" s="91"/>
-      <c r="S5" s="91"/>
-      <c r="T5" s="91"/>
-      <c r="U5" s="93" t="s">
+      <c r="G5" s="103"/>
+      <c r="H5" s="103"/>
+      <c r="I5" s="103"/>
+      <c r="J5" s="103"/>
+      <c r="K5" s="103"/>
+      <c r="L5" s="103"/>
+      <c r="M5" s="103"/>
+      <c r="N5" s="103"/>
+      <c r="O5" s="103"/>
+      <c r="P5" s="103"/>
+      <c r="Q5" s="103"/>
+      <c r="R5" s="103"/>
+      <c r="S5" s="103"/>
+      <c r="T5" s="103"/>
+      <c r="U5" s="94" t="s">
         <v>5</v>
       </c>
-      <c r="V5" s="93"/>
-      <c r="W5" s="94">
+      <c r="V5" s="94"/>
+      <c r="W5" s="95">
         <f>Funções!U6</f>
-        <v>79</v>
-      </c>
-      <c r="X5" s="94"/>
-      <c r="Y5" s="94"/>
-      <c r="Z5" s="94"/>
-      <c r="AA5" s="94"/>
-      <c r="AB5" s="94"/>
+        <v>73</v>
+      </c>
+      <c r="X5" s="95"/>
+      <c r="Y5" s="95"/>
+      <c r="Z5" s="95"/>
+      <c r="AA5" s="95"/>
+      <c r="AB5" s="95"/>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A6" s="90" t="s">
+      <c r="A6" s="102" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="90"/>
-      <c r="C6" s="90"/>
-      <c r="D6" s="90"/>
-      <c r="E6" s="90"/>
-      <c r="F6" s="91" t="s">
+      <c r="B6" s="102"/>
+      <c r="C6" s="102"/>
+      <c r="D6" s="102"/>
+      <c r="E6" s="102"/>
+      <c r="F6" s="103" t="s">
         <v>93</v>
       </c>
-      <c r="G6" s="91"/>
-      <c r="H6" s="91"/>
-      <c r="I6" s="91"/>
-      <c r="J6" s="91"/>
-      <c r="K6" s="91"/>
-      <c r="L6" s="91"/>
-      <c r="M6" s="91"/>
-      <c r="N6" s="91"/>
-      <c r="O6" s="91"/>
-      <c r="P6" s="91"/>
-      <c r="Q6" s="91"/>
-      <c r="R6" s="91"/>
-      <c r="S6" s="91"/>
-      <c r="T6" s="91"/>
-      <c r="U6" s="91"/>
-      <c r="V6" s="91"/>
-      <c r="W6" s="91"/>
-      <c r="X6" s="91"/>
-      <c r="Y6" s="91"/>
-      <c r="Z6" s="91"/>
-      <c r="AA6" s="91"/>
-      <c r="AB6" s="91"/>
+      <c r="G6" s="103"/>
+      <c r="H6" s="103"/>
+      <c r="I6" s="103"/>
+      <c r="J6" s="103"/>
+      <c r="K6" s="103"/>
+      <c r="L6" s="103"/>
+      <c r="M6" s="103"/>
+      <c r="N6" s="103"/>
+      <c r="O6" s="103"/>
+      <c r="P6" s="103"/>
+      <c r="Q6" s="103"/>
+      <c r="R6" s="103"/>
+      <c r="S6" s="103"/>
+      <c r="T6" s="103"/>
+      <c r="U6" s="103"/>
+      <c r="V6" s="103"/>
+      <c r="W6" s="103"/>
+      <c r="X6" s="103"/>
+      <c r="Y6" s="103"/>
+      <c r="Z6" s="103"/>
+      <c r="AA6" s="103"/>
+      <c r="AB6" s="103"/>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A7" s="90" t="s">
+      <c r="A7" s="102" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="90"/>
-      <c r="C7" s="90"/>
-      <c r="D7" s="90"/>
-      <c r="E7" s="90"/>
-      <c r="F7" s="91" t="s">
+      <c r="B7" s="102"/>
+      <c r="C7" s="102"/>
+      <c r="D7" s="102"/>
+      <c r="E7" s="102"/>
+      <c r="F7" s="103" t="s">
         <v>92</v>
       </c>
-      <c r="G7" s="91"/>
-      <c r="H7" s="91"/>
-      <c r="I7" s="91"/>
-      <c r="J7" s="91"/>
-      <c r="K7" s="91"/>
-      <c r="L7" s="91"/>
-      <c r="M7" s="91"/>
-      <c r="N7" s="91"/>
-      <c r="O7" s="91"/>
-      <c r="P7" s="91"/>
-      <c r="Q7" s="91"/>
-      <c r="R7" s="91"/>
-      <c r="S7" s="91"/>
-      <c r="T7" s="91"/>
-      <c r="U7" s="99" t="s">
+      <c r="G7" s="103"/>
+      <c r="H7" s="103"/>
+      <c r="I7" s="103"/>
+      <c r="J7" s="103"/>
+      <c r="K7" s="103"/>
+      <c r="L7" s="103"/>
+      <c r="M7" s="103"/>
+      <c r="N7" s="103"/>
+      <c r="O7" s="103"/>
+      <c r="P7" s="103"/>
+      <c r="Q7" s="103"/>
+      <c r="R7" s="103"/>
+      <c r="S7" s="103"/>
+      <c r="T7" s="103"/>
+      <c r="U7" s="100" t="s">
         <v>8</v>
       </c>
-      <c r="V7" s="99"/>
-      <c r="W7" s="99"/>
-      <c r="X7" s="100" t="s">
+      <c r="V7" s="100"/>
+      <c r="W7" s="100"/>
+      <c r="X7" s="101" t="s">
         <v>92</v>
       </c>
-      <c r="Y7" s="100"/>
-      <c r="Z7" s="100"/>
-      <c r="AA7" s="100"/>
-      <c r="AB7" s="100"/>
+      <c r="Y7" s="101"/>
+      <c r="Z7" s="101"/>
+      <c r="AA7" s="101"/>
+      <c r="AB7" s="101"/>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A8" s="90" t="s">
+      <c r="A8" s="102" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="90"/>
-      <c r="C8" s="90"/>
-      <c r="D8" s="90"/>
-      <c r="E8" s="90"/>
-      <c r="F8" s="91" t="s">
+      <c r="B8" s="102"/>
+      <c r="C8" s="102"/>
+      <c r="D8" s="102"/>
+      <c r="E8" s="102"/>
+      <c r="F8" s="103" t="s">
         <v>92</v>
       </c>
-      <c r="G8" s="91"/>
-      <c r="H8" s="91"/>
-      <c r="I8" s="91"/>
-      <c r="J8" s="91"/>
-      <c r="K8" s="91"/>
-      <c r="L8" s="91"/>
-      <c r="M8" s="91"/>
-      <c r="N8" s="91"/>
-      <c r="O8" s="91"/>
-      <c r="P8" s="91"/>
-      <c r="Q8" s="91"/>
-      <c r="R8" s="91"/>
-      <c r="S8" s="91"/>
-      <c r="T8" s="91"/>
-      <c r="U8" s="99" t="s">
+      <c r="G8" s="103"/>
+      <c r="H8" s="103"/>
+      <c r="I8" s="103"/>
+      <c r="J8" s="103"/>
+      <c r="K8" s="103"/>
+      <c r="L8" s="103"/>
+      <c r="M8" s="103"/>
+      <c r="N8" s="103"/>
+      <c r="O8" s="103"/>
+      <c r="P8" s="103"/>
+      <c r="Q8" s="103"/>
+      <c r="R8" s="103"/>
+      <c r="S8" s="103"/>
+      <c r="T8" s="103"/>
+      <c r="U8" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="V8" s="99"/>
-      <c r="W8" s="99"/>
-      <c r="X8" s="100" t="s">
+      <c r="V8" s="100"/>
+      <c r="W8" s="100"/>
+      <c r="X8" s="101" t="s">
         <v>92</v>
       </c>
-      <c r="Y8" s="100"/>
-      <c r="Z8" s="100"/>
-      <c r="AA8" s="100"/>
-      <c r="AB8" s="100"/>
+      <c r="Y8" s="101"/>
+      <c r="Z8" s="101"/>
+      <c r="AA8" s="101"/>
+      <c r="AB8" s="101"/>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9" s="65"/>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A10" s="104" t="s">
+      <c r="A10" s="98" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="104"/>
-      <c r="C10" s="105"/>
-      <c r="D10" s="105"/>
-      <c r="E10" s="105"/>
-      <c r="F10" s="105"/>
-      <c r="G10" s="105"/>
-      <c r="H10" s="105"/>
-      <c r="I10" s="105"/>
-      <c r="J10" s="105"/>
-      <c r="K10" s="105"/>
+      <c r="B10" s="98"/>
+      <c r="C10" s="91"/>
+      <c r="D10" s="91"/>
+      <c r="E10" s="91"/>
+      <c r="F10" s="91"/>
+      <c r="G10" s="91"/>
+      <c r="H10" s="91"/>
+      <c r="I10" s="91"/>
+      <c r="J10" s="91"/>
+      <c r="K10" s="91"/>
       <c r="L10" s="2"/>
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
-      <c r="O10" s="106" t="s">
+      <c r="O10" s="99" t="s">
         <v>13</v>
       </c>
-      <c r="P10" s="106"/>
-      <c r="Q10" s="93" t="s">
+      <c r="P10" s="99"/>
+      <c r="Q10" s="94" t="s">
         <v>59</v>
       </c>
-      <c r="R10" s="93"/>
-      <c r="S10" s="93"/>
-      <c r="T10" s="93"/>
-      <c r="U10" s="93" t="s">
+      <c r="R10" s="94"/>
+      <c r="S10" s="94"/>
+      <c r="T10" s="94"/>
+      <c r="U10" s="94" t="s">
         <v>14</v>
       </c>
-      <c r="V10" s="93"/>
-      <c r="W10" s="93"/>
-      <c r="X10" s="93"/>
-      <c r="Y10" s="93" t="s">
+      <c r="V10" s="94"/>
+      <c r="W10" s="94"/>
+      <c r="X10" s="94"/>
+      <c r="Y10" s="94" t="s">
         <v>57</v>
       </c>
-      <c r="Z10" s="93"/>
-      <c r="AA10" s="93"/>
-      <c r="AB10" s="93"/>
+      <c r="Z10" s="94"/>
+      <c r="AA10" s="94"/>
+      <c r="AB10" s="94"/>
       <c r="AC10" s="4"/>
       <c r="AD10" s="4"/>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A11" s="104"/>
-      <c r="B11" s="104"/>
-      <c r="C11" s="105" t="s">
+      <c r="A11" s="98"/>
+      <c r="B11" s="98"/>
+      <c r="C11" s="91" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="105"/>
-      <c r="E11" s="105"/>
-      <c r="F11" s="105"/>
-      <c r="G11" s="105"/>
-      <c r="H11" s="105"/>
-      <c r="I11" s="105"/>
-      <c r="J11" s="105"/>
-      <c r="K11" s="105"/>
+      <c r="D11" s="91"/>
+      <c r="E11" s="91"/>
+      <c r="F11" s="91"/>
+      <c r="G11" s="91"/>
+      <c r="H11" s="91"/>
+      <c r="I11" s="91"/>
+      <c r="J11" s="91"/>
+      <c r="K11" s="91"/>
       <c r="L11" s="2" t="s">
         <v>94</v>
       </c>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-      <c r="O11" s="106"/>
-      <c r="P11" s="106"/>
-      <c r="Q11" s="99" t="s">
+      <c r="O11" s="99"/>
+      <c r="P11" s="99"/>
+      <c r="Q11" s="100" t="s">
         <v>16</v>
       </c>
-      <c r="R11" s="99"/>
-      <c r="S11" s="94">
+      <c r="R11" s="100"/>
+      <c r="S11" s="95">
         <f>Sumário!E55</f>
-        <v>79</v>
-      </c>
-      <c r="T11" s="94"/>
-      <c r="U11" s="102">
+        <v>73</v>
+      </c>
+      <c r="T11" s="95"/>
+      <c r="U11" s="97">
         <v>1</v>
       </c>
-      <c r="V11" s="102"/>
-      <c r="W11" s="102"/>
-      <c r="X11" s="102"/>
-      <c r="Y11" s="94">
+      <c r="V11" s="97"/>
+      <c r="W11" s="97"/>
+      <c r="X11" s="97"/>
+      <c r="Y11" s="95">
         <f>S11*U11</f>
-        <v>79</v>
-      </c>
-      <c r="Z11" s="94"/>
-      <c r="AA11" s="94"/>
-      <c r="AB11" s="94"/>
+        <v>73</v>
+      </c>
+      <c r="Z11" s="95"/>
+      <c r="AA11" s="95"/>
+      <c r="AB11" s="95"/>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A12" s="104"/>
-      <c r="B12" s="104"/>
-      <c r="C12" s="105" t="s">
+      <c r="A12" s="98"/>
+      <c r="B12" s="98"/>
+      <c r="C12" s="91" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="105"/>
-      <c r="E12" s="105"/>
-      <c r="F12" s="105"/>
-      <c r="G12" s="105"/>
-      <c r="H12" s="105"/>
-      <c r="I12" s="105"/>
-      <c r="J12" s="105"/>
-      <c r="K12" s="105"/>
+      <c r="D12" s="91"/>
+      <c r="E12" s="91"/>
+      <c r="F12" s="91"/>
+      <c r="G12" s="91"/>
+      <c r="H12" s="91"/>
+      <c r="I12" s="91"/>
+      <c r="J12" s="91"/>
+      <c r="K12" s="91"/>
       <c r="L12" s="2"/>
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
-      <c r="O12" s="106"/>
-      <c r="P12" s="106"/>
-      <c r="Q12" s="103" t="s">
+      <c r="O12" s="99"/>
+      <c r="P12" s="99"/>
+      <c r="Q12" s="96" t="s">
         <v>18</v>
       </c>
-      <c r="R12" s="103"/>
-      <c r="S12" s="94">
+      <c r="R12" s="96"/>
+      <c r="S12" s="95">
         <f>Sumário!E56</f>
         <v>0</v>
       </c>
-      <c r="T12" s="94"/>
-      <c r="U12" s="102">
+      <c r="T12" s="95"/>
+      <c r="U12" s="97">
         <v>0.5</v>
       </c>
-      <c r="V12" s="102"/>
-      <c r="W12" s="102"/>
-      <c r="X12" s="102"/>
-      <c r="Y12" s="94">
+      <c r="V12" s="97"/>
+      <c r="W12" s="97"/>
+      <c r="X12" s="97"/>
+      <c r="Y12" s="95">
         <f>S12*U12</f>
         <v>0</v>
       </c>
-      <c r="Z12" s="94"/>
-      <c r="AA12" s="94"/>
-      <c r="AB12" s="94"/>
+      <c r="Z12" s="95"/>
+      <c r="AA12" s="95"/>
+      <c r="AB12" s="95"/>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A13" s="104"/>
-      <c r="B13" s="104"/>
-      <c r="C13" s="105" t="s">
+      <c r="A13" s="98"/>
+      <c r="B13" s="98"/>
+      <c r="C13" s="91" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="105"/>
-      <c r="E13" s="105"/>
-      <c r="F13" s="105"/>
-      <c r="G13" s="105"/>
-      <c r="H13" s="105"/>
-      <c r="I13" s="105"/>
-      <c r="J13" s="105"/>
-      <c r="K13" s="105"/>
+      <c r="D13" s="91"/>
+      <c r="E13" s="91"/>
+      <c r="F13" s="91"/>
+      <c r="G13" s="91"/>
+      <c r="H13" s="91"/>
+      <c r="I13" s="91"/>
+      <c r="J13" s="91"/>
+      <c r="K13" s="91"/>
       <c r="L13" s="2"/>
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
-      <c r="O13" s="106"/>
-      <c r="P13" s="106"/>
-      <c r="Q13" s="103" t="s">
+      <c r="O13" s="99"/>
+      <c r="P13" s="99"/>
+      <c r="Q13" s="96" t="s">
         <v>20</v>
       </c>
-      <c r="R13" s="103"/>
-      <c r="S13" s="94">
+      <c r="R13" s="96"/>
+      <c r="S13" s="95">
         <f>Sumário!E57</f>
         <v>0</v>
       </c>
-      <c r="T13" s="94"/>
-      <c r="U13" s="102">
+      <c r="T13" s="95"/>
+      <c r="U13" s="97">
         <v>0.4</v>
       </c>
-      <c r="V13" s="102"/>
-      <c r="W13" s="102"/>
-      <c r="X13" s="102"/>
-      <c r="Y13" s="94">
+      <c r="V13" s="97"/>
+      <c r="W13" s="97"/>
+      <c r="X13" s="97"/>
+      <c r="Y13" s="95">
         <f>S13*U13</f>
         <v>0</v>
       </c>
-      <c r="Z13" s="94"/>
-      <c r="AA13" s="94"/>
-      <c r="AB13" s="94"/>
+      <c r="Z13" s="95"/>
+      <c r="AA13" s="95"/>
+      <c r="AB13" s="95"/>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A14" s="104"/>
-      <c r="B14" s="104"/>
+      <c r="A14" s="98"/>
+      <c r="B14" s="98"/>
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
-      <c r="O14" s="106"/>
-      <c r="P14" s="106"/>
-      <c r="Q14" s="103"/>
-      <c r="R14" s="103"/>
-      <c r="S14" s="94">
+      <c r="O14" s="99"/>
+      <c r="P14" s="99"/>
+      <c r="Q14" s="96"/>
+      <c r="R14" s="96"/>
+      <c r="S14" s="95">
         <f>Sumário!E58</f>
         <v>0</v>
       </c>
-      <c r="T14" s="94"/>
-      <c r="U14" s="102"/>
-      <c r="V14" s="102"/>
-      <c r="W14" s="102"/>
-      <c r="X14" s="102"/>
-      <c r="Y14" s="94">
+      <c r="T14" s="95"/>
+      <c r="U14" s="97"/>
+      <c r="V14" s="97"/>
+      <c r="W14" s="97"/>
+      <c r="X14" s="97"/>
+      <c r="Y14" s="95">
         <f>S14*U14</f>
         <v>0</v>
       </c>
-      <c r="Z14" s="94"/>
-      <c r="AA14" s="94"/>
-      <c r="AB14" s="94"/>
+      <c r="Z14" s="95"/>
+      <c r="AA14" s="95"/>
+      <c r="AB14" s="95"/>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A15" s="76"/>
@@ -3517,21 +3532,21 @@
       <c r="AB16" s="76"/>
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A17" s="104" t="s">
+      <c r="A17" s="98" t="s">
         <v>71</v>
       </c>
-      <c r="B17" s="104"/>
-      <c r="C17" s="105" t="s">
+      <c r="B17" s="98"/>
+      <c r="C17" s="91" t="s">
         <v>72</v>
       </c>
-      <c r="D17" s="105"/>
-      <c r="E17" s="105"/>
-      <c r="F17" s="105"/>
-      <c r="G17" s="105"/>
-      <c r="H17" s="105"/>
-      <c r="I17" s="105"/>
-      <c r="J17" s="105"/>
-      <c r="K17" s="105"/>
+      <c r="D17" s="91"/>
+      <c r="E17" s="91"/>
+      <c r="F17" s="91"/>
+      <c r="G17" s="91"/>
+      <c r="H17" s="91"/>
+      <c r="I17" s="91"/>
+      <c r="J17" s="91"/>
+      <c r="K17" s="91"/>
       <c r="L17" s="2"/>
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
@@ -3551,19 +3566,19 @@
       <c r="AB17" s="76"/>
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A18" s="104"/>
-      <c r="B18" s="104"/>
-      <c r="C18" s="105" t="s">
+      <c r="A18" s="98"/>
+      <c r="B18" s="98"/>
+      <c r="C18" s="91" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="105"/>
-      <c r="E18" s="105"/>
-      <c r="F18" s="105"/>
-      <c r="G18" s="105"/>
-      <c r="H18" s="105"/>
-      <c r="I18" s="105"/>
-      <c r="J18" s="105"/>
-      <c r="K18" s="105"/>
+      <c r="D18" s="91"/>
+      <c r="E18" s="91"/>
+      <c r="F18" s="91"/>
+      <c r="G18" s="91"/>
+      <c r="H18" s="91"/>
+      <c r="I18" s="91"/>
+      <c r="J18" s="91"/>
+      <c r="K18" s="91"/>
       <c r="L18" s="2"/>
       <c r="M18" s="3"/>
       <c r="N18" s="3"/>
@@ -3583,19 +3598,19 @@
       <c r="AB18" s="76"/>
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A19" s="104"/>
-      <c r="B19" s="104"/>
-      <c r="C19" s="105" t="s">
+      <c r="A19" s="98"/>
+      <c r="B19" s="98"/>
+      <c r="C19" s="91" t="s">
         <v>73</v>
       </c>
-      <c r="D19" s="105"/>
-      <c r="E19" s="105"/>
-      <c r="F19" s="105"/>
-      <c r="G19" s="105"/>
-      <c r="H19" s="105"/>
-      <c r="I19" s="105"/>
-      <c r="J19" s="105"/>
-      <c r="K19" s="105"/>
+      <c r="D19" s="91"/>
+      <c r="E19" s="91"/>
+      <c r="F19" s="91"/>
+      <c r="G19" s="91"/>
+      <c r="H19" s="91"/>
+      <c r="I19" s="91"/>
+      <c r="J19" s="91"/>
+      <c r="K19" s="91"/>
       <c r="L19" s="2" t="s">
         <v>94</v>
       </c>
@@ -3617,17 +3632,17 @@
       <c r="AB19" s="76"/>
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A20" s="104"/>
-      <c r="B20" s="104"/>
-      <c r="C20" s="105"/>
-      <c r="D20" s="105"/>
-      <c r="E20" s="105"/>
-      <c r="F20" s="105"/>
-      <c r="G20" s="105"/>
-      <c r="H20" s="105"/>
-      <c r="I20" s="105"/>
-      <c r="J20" s="105"/>
-      <c r="K20" s="105"/>
+      <c r="A20" s="98"/>
+      <c r="B20" s="98"/>
+      <c r="C20" s="91"/>
+      <c r="D20" s="91"/>
+      <c r="E20" s="91"/>
+      <c r="F20" s="91"/>
+      <c r="G20" s="91"/>
+      <c r="H20" s="91"/>
+      <c r="I20" s="91"/>
+      <c r="J20" s="91"/>
+      <c r="K20" s="91"/>
       <c r="L20" s="2"/>
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
@@ -3647,8 +3662,8 @@
       <c r="AB20" s="76"/>
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A21" s="104"/>
-      <c r="B21" s="104"/>
+      <c r="A21" s="98"/>
+      <c r="B21" s="98"/>
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
       <c r="O21" s="76"/>
@@ -3691,677 +3706,677 @@
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
       <c r="J23" s="6"/>
-      <c r="K23" s="107" t="s">
+      <c r="K23" s="92" t="s">
         <v>21</v>
       </c>
-      <c r="L23" s="107"/>
-      <c r="M23" s="107"/>
-      <c r="N23" s="107"/>
-      <c r="O23" s="107"/>
-      <c r="P23" s="107"/>
-      <c r="Q23" s="107"/>
-      <c r="R23" s="107"/>
-      <c r="S23" s="107"/>
+      <c r="L23" s="92"/>
+      <c r="M23" s="92"/>
+      <c r="N23" s="92"/>
+      <c r="O23" s="92"/>
+      <c r="P23" s="92"/>
+      <c r="Q23" s="92"/>
+      <c r="R23" s="92"/>
+      <c r="S23" s="92"/>
     </row>
     <row r="24" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="101"/>
-      <c r="B24" s="101"/>
-      <c r="C24" s="101"/>
-      <c r="D24" s="101"/>
-      <c r="E24" s="101"/>
-      <c r="F24" s="101"/>
-      <c r="G24" s="101"/>
-      <c r="H24" s="101"/>
-      <c r="I24" s="101"/>
-      <c r="J24" s="101"/>
-      <c r="K24" s="101"/>
-      <c r="L24" s="101"/>
-      <c r="M24" s="101"/>
-      <c r="N24" s="101"/>
-      <c r="O24" s="101"/>
-      <c r="P24" s="101"/>
-      <c r="Q24" s="101"/>
-      <c r="R24" s="101"/>
-      <c r="S24" s="101"/>
-      <c r="T24" s="101"/>
-      <c r="U24" s="101"/>
-      <c r="V24" s="101"/>
-      <c r="W24" s="101"/>
-      <c r="X24" s="101"/>
-      <c r="Y24" s="101"/>
-      <c r="Z24" s="101"/>
-      <c r="AA24" s="101"/>
-      <c r="AB24" s="101"/>
+      <c r="A24" s="93"/>
+      <c r="B24" s="93"/>
+      <c r="C24" s="93"/>
+      <c r="D24" s="93"/>
+      <c r="E24" s="93"/>
+      <c r="F24" s="93"/>
+      <c r="G24" s="93"/>
+      <c r="H24" s="93"/>
+      <c r="I24" s="93"/>
+      <c r="J24" s="93"/>
+      <c r="K24" s="93"/>
+      <c r="L24" s="93"/>
+      <c r="M24" s="93"/>
+      <c r="N24" s="93"/>
+      <c r="O24" s="93"/>
+      <c r="P24" s="93"/>
+      <c r="Q24" s="93"/>
+      <c r="R24" s="93"/>
+      <c r="S24" s="93"/>
+      <c r="T24" s="93"/>
+      <c r="U24" s="93"/>
+      <c r="V24" s="93"/>
+      <c r="W24" s="93"/>
+      <c r="X24" s="93"/>
+      <c r="Y24" s="93"/>
+      <c r="Z24" s="93"/>
+      <c r="AA24" s="93"/>
+      <c r="AB24" s="93"/>
     </row>
     <row r="25" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="101"/>
-      <c r="B25" s="101"/>
-      <c r="C25" s="101"/>
-      <c r="D25" s="101"/>
-      <c r="E25" s="101"/>
-      <c r="F25" s="101"/>
-      <c r="G25" s="101"/>
-      <c r="H25" s="101"/>
-      <c r="I25" s="101"/>
-      <c r="J25" s="101"/>
-      <c r="K25" s="101"/>
-      <c r="L25" s="101"/>
-      <c r="M25" s="101"/>
-      <c r="N25" s="101"/>
-      <c r="O25" s="101"/>
-      <c r="P25" s="101"/>
-      <c r="Q25" s="101"/>
-      <c r="R25" s="101"/>
-      <c r="S25" s="101"/>
-      <c r="T25" s="101"/>
-      <c r="U25" s="101"/>
-      <c r="V25" s="101"/>
-      <c r="W25" s="101"/>
-      <c r="X25" s="101"/>
-      <c r="Y25" s="101"/>
-      <c r="Z25" s="101"/>
-      <c r="AA25" s="101"/>
-      <c r="AB25" s="101"/>
+      <c r="A25" s="93"/>
+      <c r="B25" s="93"/>
+      <c r="C25" s="93"/>
+      <c r="D25" s="93"/>
+      <c r="E25" s="93"/>
+      <c r="F25" s="93"/>
+      <c r="G25" s="93"/>
+      <c r="H25" s="93"/>
+      <c r="I25" s="93"/>
+      <c r="J25" s="93"/>
+      <c r="K25" s="93"/>
+      <c r="L25" s="93"/>
+      <c r="M25" s="93"/>
+      <c r="N25" s="93"/>
+      <c r="O25" s="93"/>
+      <c r="P25" s="93"/>
+      <c r="Q25" s="93"/>
+      <c r="R25" s="93"/>
+      <c r="S25" s="93"/>
+      <c r="T25" s="93"/>
+      <c r="U25" s="93"/>
+      <c r="V25" s="93"/>
+      <c r="W25" s="93"/>
+      <c r="X25" s="93"/>
+      <c r="Y25" s="93"/>
+      <c r="Z25" s="93"/>
+      <c r="AA25" s="93"/>
+      <c r="AB25" s="93"/>
     </row>
     <row r="26" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="101"/>
-      <c r="B26" s="101"/>
-      <c r="C26" s="101"/>
-      <c r="D26" s="101"/>
-      <c r="E26" s="101"/>
-      <c r="F26" s="101"/>
-      <c r="G26" s="101"/>
-      <c r="H26" s="101"/>
-      <c r="I26" s="101"/>
-      <c r="J26" s="101"/>
-      <c r="K26" s="101"/>
-      <c r="L26" s="101"/>
-      <c r="M26" s="101"/>
-      <c r="N26" s="101"/>
-      <c r="O26" s="101"/>
-      <c r="P26" s="101"/>
-      <c r="Q26" s="101"/>
-      <c r="R26" s="101"/>
-      <c r="S26" s="101"/>
-      <c r="T26" s="101"/>
-      <c r="U26" s="101"/>
-      <c r="V26" s="101"/>
-      <c r="W26" s="101"/>
-      <c r="X26" s="101"/>
-      <c r="Y26" s="101"/>
-      <c r="Z26" s="101"/>
-      <c r="AA26" s="101"/>
-      <c r="AB26" s="101"/>
+      <c r="A26" s="93"/>
+      <c r="B26" s="93"/>
+      <c r="C26" s="93"/>
+      <c r="D26" s="93"/>
+      <c r="E26" s="93"/>
+      <c r="F26" s="93"/>
+      <c r="G26" s="93"/>
+      <c r="H26" s="93"/>
+      <c r="I26" s="93"/>
+      <c r="J26" s="93"/>
+      <c r="K26" s="93"/>
+      <c r="L26" s="93"/>
+      <c r="M26" s="93"/>
+      <c r="N26" s="93"/>
+      <c r="O26" s="93"/>
+      <c r="P26" s="93"/>
+      <c r="Q26" s="93"/>
+      <c r="R26" s="93"/>
+      <c r="S26" s="93"/>
+      <c r="T26" s="93"/>
+      <c r="U26" s="93"/>
+      <c r="V26" s="93"/>
+      <c r="W26" s="93"/>
+      <c r="X26" s="93"/>
+      <c r="Y26" s="93"/>
+      <c r="Z26" s="93"/>
+      <c r="AA26" s="93"/>
+      <c r="AB26" s="93"/>
     </row>
     <row r="27" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="101"/>
-      <c r="B27" s="101"/>
-      <c r="C27" s="101"/>
-      <c r="D27" s="101"/>
-      <c r="E27" s="101"/>
-      <c r="F27" s="101"/>
-      <c r="G27" s="101"/>
-      <c r="H27" s="101"/>
-      <c r="I27" s="101"/>
-      <c r="J27" s="101"/>
-      <c r="K27" s="101"/>
-      <c r="L27" s="101"/>
-      <c r="M27" s="101"/>
-      <c r="N27" s="101"/>
-      <c r="O27" s="101"/>
-      <c r="P27" s="101"/>
-      <c r="Q27" s="101"/>
-      <c r="R27" s="101"/>
-      <c r="S27" s="101"/>
-      <c r="T27" s="101"/>
-      <c r="U27" s="101"/>
-      <c r="V27" s="101"/>
-      <c r="W27" s="101"/>
-      <c r="X27" s="101"/>
-      <c r="Y27" s="101"/>
-      <c r="Z27" s="101"/>
-      <c r="AA27" s="101"/>
-      <c r="AB27" s="101"/>
+      <c r="A27" s="93"/>
+      <c r="B27" s="93"/>
+      <c r="C27" s="93"/>
+      <c r="D27" s="93"/>
+      <c r="E27" s="93"/>
+      <c r="F27" s="93"/>
+      <c r="G27" s="93"/>
+      <c r="H27" s="93"/>
+      <c r="I27" s="93"/>
+      <c r="J27" s="93"/>
+      <c r="K27" s="93"/>
+      <c r="L27" s="93"/>
+      <c r="M27" s="93"/>
+      <c r="N27" s="93"/>
+      <c r="O27" s="93"/>
+      <c r="P27" s="93"/>
+      <c r="Q27" s="93"/>
+      <c r="R27" s="93"/>
+      <c r="S27" s="93"/>
+      <c r="T27" s="93"/>
+      <c r="U27" s="93"/>
+      <c r="V27" s="93"/>
+      <c r="W27" s="93"/>
+      <c r="X27" s="93"/>
+      <c r="Y27" s="93"/>
+      <c r="Z27" s="93"/>
+      <c r="AA27" s="93"/>
+      <c r="AB27" s="93"/>
     </row>
     <row r="28" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="101"/>
-      <c r="B28" s="101"/>
-      <c r="C28" s="101"/>
-      <c r="D28" s="101"/>
-      <c r="E28" s="101"/>
-      <c r="F28" s="101"/>
-      <c r="G28" s="101"/>
-      <c r="H28" s="101"/>
-      <c r="I28" s="101"/>
-      <c r="J28" s="101"/>
-      <c r="K28" s="101"/>
-      <c r="L28" s="101"/>
-      <c r="M28" s="101"/>
-      <c r="N28" s="101"/>
-      <c r="O28" s="101"/>
-      <c r="P28" s="101"/>
-      <c r="Q28" s="101"/>
-      <c r="R28" s="101"/>
-      <c r="S28" s="101"/>
-      <c r="T28" s="101"/>
-      <c r="U28" s="101"/>
-      <c r="V28" s="101"/>
-      <c r="W28" s="101"/>
-      <c r="X28" s="101"/>
-      <c r="Y28" s="101"/>
-      <c r="Z28" s="101"/>
-      <c r="AA28" s="101"/>
-      <c r="AB28" s="101"/>
+      <c r="A28" s="93"/>
+      <c r="B28" s="93"/>
+      <c r="C28" s="93"/>
+      <c r="D28" s="93"/>
+      <c r="E28" s="93"/>
+      <c r="F28" s="93"/>
+      <c r="G28" s="93"/>
+      <c r="H28" s="93"/>
+      <c r="I28" s="93"/>
+      <c r="J28" s="93"/>
+      <c r="K28" s="93"/>
+      <c r="L28" s="93"/>
+      <c r="M28" s="93"/>
+      <c r="N28" s="93"/>
+      <c r="O28" s="93"/>
+      <c r="P28" s="93"/>
+      <c r="Q28" s="93"/>
+      <c r="R28" s="93"/>
+      <c r="S28" s="93"/>
+      <c r="T28" s="93"/>
+      <c r="U28" s="93"/>
+      <c r="V28" s="93"/>
+      <c r="W28" s="93"/>
+      <c r="X28" s="93"/>
+      <c r="Y28" s="93"/>
+      <c r="Z28" s="93"/>
+      <c r="AA28" s="93"/>
+      <c r="AB28" s="93"/>
     </row>
     <row r="29" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="101"/>
-      <c r="B29" s="101"/>
-      <c r="C29" s="101"/>
-      <c r="D29" s="101"/>
-      <c r="E29" s="101"/>
-      <c r="F29" s="101"/>
-      <c r="G29" s="101"/>
-      <c r="H29" s="101"/>
-      <c r="I29" s="101"/>
-      <c r="J29" s="101"/>
-      <c r="K29" s="101"/>
-      <c r="L29" s="101"/>
-      <c r="M29" s="101"/>
-      <c r="N29" s="101"/>
-      <c r="O29" s="101"/>
-      <c r="P29" s="101"/>
-      <c r="Q29" s="101"/>
-      <c r="R29" s="101"/>
-      <c r="S29" s="101"/>
-      <c r="T29" s="101"/>
-      <c r="U29" s="101"/>
-      <c r="V29" s="101"/>
-      <c r="W29" s="101"/>
-      <c r="X29" s="101"/>
-      <c r="Y29" s="101"/>
-      <c r="Z29" s="101"/>
-      <c r="AA29" s="101"/>
-      <c r="AB29" s="101"/>
+      <c r="A29" s="93"/>
+      <c r="B29" s="93"/>
+      <c r="C29" s="93"/>
+      <c r="D29" s="93"/>
+      <c r="E29" s="93"/>
+      <c r="F29" s="93"/>
+      <c r="G29" s="93"/>
+      <c r="H29" s="93"/>
+      <c r="I29" s="93"/>
+      <c r="J29" s="93"/>
+      <c r="K29" s="93"/>
+      <c r="L29" s="93"/>
+      <c r="M29" s="93"/>
+      <c r="N29" s="93"/>
+      <c r="O29" s="93"/>
+      <c r="P29" s="93"/>
+      <c r="Q29" s="93"/>
+      <c r="R29" s="93"/>
+      <c r="S29" s="93"/>
+      <c r="T29" s="93"/>
+      <c r="U29" s="93"/>
+      <c r="V29" s="93"/>
+      <c r="W29" s="93"/>
+      <c r="X29" s="93"/>
+      <c r="Y29" s="93"/>
+      <c r="Z29" s="93"/>
+      <c r="AA29" s="93"/>
+      <c r="AB29" s="93"/>
     </row>
     <row r="30" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="101"/>
-      <c r="B30" s="101"/>
-      <c r="C30" s="101"/>
-      <c r="D30" s="101"/>
-      <c r="E30" s="101"/>
-      <c r="F30" s="101"/>
-      <c r="G30" s="101"/>
-      <c r="H30" s="101"/>
-      <c r="I30" s="101"/>
-      <c r="J30" s="101"/>
-      <c r="K30" s="101"/>
-      <c r="L30" s="101"/>
-      <c r="M30" s="101"/>
-      <c r="N30" s="101"/>
-      <c r="O30" s="101"/>
-      <c r="P30" s="101"/>
-      <c r="Q30" s="101"/>
-      <c r="R30" s="101"/>
-      <c r="S30" s="101"/>
-      <c r="T30" s="101"/>
-      <c r="U30" s="101"/>
-      <c r="V30" s="101"/>
-      <c r="W30" s="101"/>
-      <c r="X30" s="101"/>
-      <c r="Y30" s="101"/>
-      <c r="Z30" s="101"/>
-      <c r="AA30" s="101"/>
-      <c r="AB30" s="101"/>
+      <c r="A30" s="93"/>
+      <c r="B30" s="93"/>
+      <c r="C30" s="93"/>
+      <c r="D30" s="93"/>
+      <c r="E30" s="93"/>
+      <c r="F30" s="93"/>
+      <c r="G30" s="93"/>
+      <c r="H30" s="93"/>
+      <c r="I30" s="93"/>
+      <c r="J30" s="93"/>
+      <c r="K30" s="93"/>
+      <c r="L30" s="93"/>
+      <c r="M30" s="93"/>
+      <c r="N30" s="93"/>
+      <c r="O30" s="93"/>
+      <c r="P30" s="93"/>
+      <c r="Q30" s="93"/>
+      <c r="R30" s="93"/>
+      <c r="S30" s="93"/>
+      <c r="T30" s="93"/>
+      <c r="U30" s="93"/>
+      <c r="V30" s="93"/>
+      <c r="W30" s="93"/>
+      <c r="X30" s="93"/>
+      <c r="Y30" s="93"/>
+      <c r="Z30" s="93"/>
+      <c r="AA30" s="93"/>
+      <c r="AB30" s="93"/>
     </row>
     <row r="31" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="101"/>
-      <c r="B31" s="101"/>
-      <c r="C31" s="101"/>
-      <c r="D31" s="101"/>
-      <c r="E31" s="101"/>
-      <c r="F31" s="101"/>
-      <c r="G31" s="101"/>
-      <c r="H31" s="101"/>
-      <c r="I31" s="101"/>
-      <c r="J31" s="101"/>
-      <c r="K31" s="101"/>
-      <c r="L31" s="101"/>
-      <c r="M31" s="101"/>
-      <c r="N31" s="101"/>
-      <c r="O31" s="101"/>
-      <c r="P31" s="101"/>
-      <c r="Q31" s="101"/>
-      <c r="R31" s="101"/>
-      <c r="S31" s="101"/>
-      <c r="T31" s="101"/>
-      <c r="U31" s="101"/>
-      <c r="V31" s="101"/>
-      <c r="W31" s="101"/>
-      <c r="X31" s="101"/>
-      <c r="Y31" s="101"/>
-      <c r="Z31" s="101"/>
-      <c r="AA31" s="101"/>
-      <c r="AB31" s="101"/>
+      <c r="A31" s="93"/>
+      <c r="B31" s="93"/>
+      <c r="C31" s="93"/>
+      <c r="D31" s="93"/>
+      <c r="E31" s="93"/>
+      <c r="F31" s="93"/>
+      <c r="G31" s="93"/>
+      <c r="H31" s="93"/>
+      <c r="I31" s="93"/>
+      <c r="J31" s="93"/>
+      <c r="K31" s="93"/>
+      <c r="L31" s="93"/>
+      <c r="M31" s="93"/>
+      <c r="N31" s="93"/>
+      <c r="O31" s="93"/>
+      <c r="P31" s="93"/>
+      <c r="Q31" s="93"/>
+      <c r="R31" s="93"/>
+      <c r="S31" s="93"/>
+      <c r="T31" s="93"/>
+      <c r="U31" s="93"/>
+      <c r="V31" s="93"/>
+      <c r="W31" s="93"/>
+      <c r="X31" s="93"/>
+      <c r="Y31" s="93"/>
+      <c r="Z31" s="93"/>
+      <c r="AA31" s="93"/>
+      <c r="AB31" s="93"/>
     </row>
     <row r="32" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="101"/>
-      <c r="B32" s="101"/>
-      <c r="C32" s="101"/>
-      <c r="D32" s="101"/>
-      <c r="E32" s="101"/>
-      <c r="F32" s="101"/>
-      <c r="G32" s="101"/>
-      <c r="H32" s="101"/>
-      <c r="I32" s="101"/>
-      <c r="J32" s="101"/>
-      <c r="K32" s="101"/>
-      <c r="L32" s="101"/>
-      <c r="M32" s="101"/>
-      <c r="N32" s="101"/>
-      <c r="O32" s="101"/>
-      <c r="P32" s="101"/>
-      <c r="Q32" s="101"/>
-      <c r="R32" s="101"/>
-      <c r="S32" s="101"/>
-      <c r="T32" s="101"/>
-      <c r="U32" s="101"/>
-      <c r="V32" s="101"/>
-      <c r="W32" s="101"/>
-      <c r="X32" s="101"/>
-      <c r="Y32" s="101"/>
-      <c r="Z32" s="101"/>
-      <c r="AA32" s="101"/>
-      <c r="AB32" s="101"/>
+      <c r="A32" s="93"/>
+      <c r="B32" s="93"/>
+      <c r="C32" s="93"/>
+      <c r="D32" s="93"/>
+      <c r="E32" s="93"/>
+      <c r="F32" s="93"/>
+      <c r="G32" s="93"/>
+      <c r="H32" s="93"/>
+      <c r="I32" s="93"/>
+      <c r="J32" s="93"/>
+      <c r="K32" s="93"/>
+      <c r="L32" s="93"/>
+      <c r="M32" s="93"/>
+      <c r="N32" s="93"/>
+      <c r="O32" s="93"/>
+      <c r="P32" s="93"/>
+      <c r="Q32" s="93"/>
+      <c r="R32" s="93"/>
+      <c r="S32" s="93"/>
+      <c r="T32" s="93"/>
+      <c r="U32" s="93"/>
+      <c r="V32" s="93"/>
+      <c r="W32" s="93"/>
+      <c r="X32" s="93"/>
+      <c r="Y32" s="93"/>
+      <c r="Z32" s="93"/>
+      <c r="AA32" s="93"/>
+      <c r="AB32" s="93"/>
     </row>
     <row r="33" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="101"/>
-      <c r="B33" s="101"/>
-      <c r="C33" s="101"/>
-      <c r="D33" s="101"/>
-      <c r="E33" s="101"/>
-      <c r="F33" s="101"/>
-      <c r="G33" s="101"/>
-      <c r="H33" s="101"/>
-      <c r="I33" s="101"/>
-      <c r="J33" s="101"/>
-      <c r="K33" s="101"/>
-      <c r="L33" s="101"/>
-      <c r="M33" s="101"/>
-      <c r="N33" s="101"/>
-      <c r="O33" s="101"/>
-      <c r="P33" s="101"/>
-      <c r="Q33" s="101"/>
-      <c r="R33" s="101"/>
-      <c r="S33" s="101"/>
-      <c r="T33" s="101"/>
-      <c r="U33" s="101"/>
-      <c r="V33" s="101"/>
-      <c r="W33" s="101"/>
-      <c r="X33" s="101"/>
-      <c r="Y33" s="101"/>
-      <c r="Z33" s="101"/>
-      <c r="AA33" s="101"/>
-      <c r="AB33" s="101"/>
+      <c r="A33" s="93"/>
+      <c r="B33" s="93"/>
+      <c r="C33" s="93"/>
+      <c r="D33" s="93"/>
+      <c r="E33" s="93"/>
+      <c r="F33" s="93"/>
+      <c r="G33" s="93"/>
+      <c r="H33" s="93"/>
+      <c r="I33" s="93"/>
+      <c r="J33" s="93"/>
+      <c r="K33" s="93"/>
+      <c r="L33" s="93"/>
+      <c r="M33" s="93"/>
+      <c r="N33" s="93"/>
+      <c r="O33" s="93"/>
+      <c r="P33" s="93"/>
+      <c r="Q33" s="93"/>
+      <c r="R33" s="93"/>
+      <c r="S33" s="93"/>
+      <c r="T33" s="93"/>
+      <c r="U33" s="93"/>
+      <c r="V33" s="93"/>
+      <c r="W33" s="93"/>
+      <c r="X33" s="93"/>
+      <c r="Y33" s="93"/>
+      <c r="Z33" s="93"/>
+      <c r="AA33" s="93"/>
+      <c r="AB33" s="93"/>
     </row>
     <row r="34" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="101"/>
-      <c r="B34" s="101"/>
-      <c r="C34" s="101"/>
-      <c r="D34" s="101"/>
-      <c r="E34" s="101"/>
-      <c r="F34" s="101"/>
-      <c r="G34" s="101"/>
-      <c r="H34" s="101"/>
-      <c r="I34" s="101"/>
-      <c r="J34" s="101"/>
-      <c r="K34" s="101"/>
-      <c r="L34" s="101"/>
-      <c r="M34" s="101"/>
-      <c r="N34" s="101"/>
-      <c r="O34" s="101"/>
-      <c r="P34" s="101"/>
-      <c r="Q34" s="101"/>
-      <c r="R34" s="101"/>
-      <c r="S34" s="101"/>
-      <c r="T34" s="101"/>
-      <c r="U34" s="101"/>
-      <c r="V34" s="101"/>
-      <c r="W34" s="101"/>
-      <c r="X34" s="101"/>
-      <c r="Y34" s="101"/>
-      <c r="Z34" s="101"/>
-      <c r="AA34" s="101"/>
-      <c r="AB34" s="101"/>
+      <c r="A34" s="93"/>
+      <c r="B34" s="93"/>
+      <c r="C34" s="93"/>
+      <c r="D34" s="93"/>
+      <c r="E34" s="93"/>
+      <c r="F34" s="93"/>
+      <c r="G34" s="93"/>
+      <c r="H34" s="93"/>
+      <c r="I34" s="93"/>
+      <c r="J34" s="93"/>
+      <c r="K34" s="93"/>
+      <c r="L34" s="93"/>
+      <c r="M34" s="93"/>
+      <c r="N34" s="93"/>
+      <c r="O34" s="93"/>
+      <c r="P34" s="93"/>
+      <c r="Q34" s="93"/>
+      <c r="R34" s="93"/>
+      <c r="S34" s="93"/>
+      <c r="T34" s="93"/>
+      <c r="U34" s="93"/>
+      <c r="V34" s="93"/>
+      <c r="W34" s="93"/>
+      <c r="X34" s="93"/>
+      <c r="Y34" s="93"/>
+      <c r="Z34" s="93"/>
+      <c r="AA34" s="93"/>
+      <c r="AB34" s="93"/>
     </row>
     <row r="35" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="101"/>
-      <c r="B35" s="101"/>
-      <c r="C35" s="101"/>
-      <c r="D35" s="101"/>
-      <c r="E35" s="101"/>
-      <c r="F35" s="101"/>
-      <c r="G35" s="101"/>
-      <c r="H35" s="101"/>
-      <c r="I35" s="101"/>
-      <c r="J35" s="101"/>
-      <c r="K35" s="101"/>
-      <c r="L35" s="101"/>
-      <c r="M35" s="101"/>
-      <c r="N35" s="101"/>
-      <c r="O35" s="101"/>
-      <c r="P35" s="101"/>
-      <c r="Q35" s="101"/>
-      <c r="R35" s="101"/>
-      <c r="S35" s="101"/>
-      <c r="T35" s="101"/>
-      <c r="U35" s="101"/>
-      <c r="V35" s="101"/>
-      <c r="W35" s="101"/>
-      <c r="X35" s="101"/>
-      <c r="Y35" s="101"/>
-      <c r="Z35" s="101"/>
-      <c r="AA35" s="101"/>
-      <c r="AB35" s="101"/>
+      <c r="A35" s="93"/>
+      <c r="B35" s="93"/>
+      <c r="C35" s="93"/>
+      <c r="D35" s="93"/>
+      <c r="E35" s="93"/>
+      <c r="F35" s="93"/>
+      <c r="G35" s="93"/>
+      <c r="H35" s="93"/>
+      <c r="I35" s="93"/>
+      <c r="J35" s="93"/>
+      <c r="K35" s="93"/>
+      <c r="L35" s="93"/>
+      <c r="M35" s="93"/>
+      <c r="N35" s="93"/>
+      <c r="O35" s="93"/>
+      <c r="P35" s="93"/>
+      <c r="Q35" s="93"/>
+      <c r="R35" s="93"/>
+      <c r="S35" s="93"/>
+      <c r="T35" s="93"/>
+      <c r="U35" s="93"/>
+      <c r="V35" s="93"/>
+      <c r="W35" s="93"/>
+      <c r="X35" s="93"/>
+      <c r="Y35" s="93"/>
+      <c r="Z35" s="93"/>
+      <c r="AA35" s="93"/>
+      <c r="AB35" s="93"/>
     </row>
     <row r="36" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="101"/>
-      <c r="B36" s="101"/>
-      <c r="C36" s="101"/>
-      <c r="D36" s="101"/>
-      <c r="E36" s="101"/>
-      <c r="F36" s="101"/>
-      <c r="G36" s="101"/>
-      <c r="H36" s="101"/>
-      <c r="I36" s="101"/>
-      <c r="J36" s="101"/>
-      <c r="K36" s="101"/>
-      <c r="L36" s="101"/>
-      <c r="M36" s="101"/>
-      <c r="N36" s="101"/>
-      <c r="O36" s="101"/>
-      <c r="P36" s="101"/>
-      <c r="Q36" s="101"/>
-      <c r="R36" s="101"/>
-      <c r="S36" s="101"/>
-      <c r="T36" s="101"/>
-      <c r="U36" s="101"/>
-      <c r="V36" s="101"/>
-      <c r="W36" s="101"/>
-      <c r="X36" s="101"/>
-      <c r="Y36" s="101"/>
-      <c r="Z36" s="101"/>
-      <c r="AA36" s="101"/>
-      <c r="AB36" s="101"/>
+      <c r="A36" s="93"/>
+      <c r="B36" s="93"/>
+      <c r="C36" s="93"/>
+      <c r="D36" s="93"/>
+      <c r="E36" s="93"/>
+      <c r="F36" s="93"/>
+      <c r="G36" s="93"/>
+      <c r="H36" s="93"/>
+      <c r="I36" s="93"/>
+      <c r="J36" s="93"/>
+      <c r="K36" s="93"/>
+      <c r="L36" s="93"/>
+      <c r="M36" s="93"/>
+      <c r="N36" s="93"/>
+      <c r="O36" s="93"/>
+      <c r="P36" s="93"/>
+      <c r="Q36" s="93"/>
+      <c r="R36" s="93"/>
+      <c r="S36" s="93"/>
+      <c r="T36" s="93"/>
+      <c r="U36" s="93"/>
+      <c r="V36" s="93"/>
+      <c r="W36" s="93"/>
+      <c r="X36" s="93"/>
+      <c r="Y36" s="93"/>
+      <c r="Z36" s="93"/>
+      <c r="AA36" s="93"/>
+      <c r="AB36" s="93"/>
     </row>
     <row r="37" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="101"/>
-      <c r="B37" s="101"/>
-      <c r="C37" s="101"/>
-      <c r="D37" s="101"/>
-      <c r="E37" s="101"/>
-      <c r="F37" s="101"/>
-      <c r="G37" s="101"/>
-      <c r="H37" s="101"/>
-      <c r="I37" s="101"/>
-      <c r="J37" s="101"/>
-      <c r="K37" s="101"/>
-      <c r="L37" s="101"/>
-      <c r="M37" s="101"/>
-      <c r="N37" s="101"/>
-      <c r="O37" s="101"/>
-      <c r="P37" s="101"/>
-      <c r="Q37" s="101"/>
-      <c r="R37" s="101"/>
-      <c r="S37" s="101"/>
-      <c r="T37" s="101"/>
-      <c r="U37" s="101"/>
-      <c r="V37" s="101"/>
-      <c r="W37" s="101"/>
-      <c r="X37" s="101"/>
-      <c r="Y37" s="101"/>
-      <c r="Z37" s="101"/>
-      <c r="AA37" s="101"/>
-      <c r="AB37" s="101"/>
+      <c r="A37" s="93"/>
+      <c r="B37" s="93"/>
+      <c r="C37" s="93"/>
+      <c r="D37" s="93"/>
+      <c r="E37" s="93"/>
+      <c r="F37" s="93"/>
+      <c r="G37" s="93"/>
+      <c r="H37" s="93"/>
+      <c r="I37" s="93"/>
+      <c r="J37" s="93"/>
+      <c r="K37" s="93"/>
+      <c r="L37" s="93"/>
+      <c r="M37" s="93"/>
+      <c r="N37" s="93"/>
+      <c r="O37" s="93"/>
+      <c r="P37" s="93"/>
+      <c r="Q37" s="93"/>
+      <c r="R37" s="93"/>
+      <c r="S37" s="93"/>
+      <c r="T37" s="93"/>
+      <c r="U37" s="93"/>
+      <c r="V37" s="93"/>
+      <c r="W37" s="93"/>
+      <c r="X37" s="93"/>
+      <c r="Y37" s="93"/>
+      <c r="Z37" s="93"/>
+      <c r="AA37" s="93"/>
+      <c r="AB37" s="93"/>
     </row>
     <row r="38" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="101"/>
-      <c r="B38" s="101"/>
-      <c r="C38" s="101"/>
-      <c r="D38" s="101"/>
-      <c r="E38" s="101"/>
-      <c r="F38" s="101"/>
-      <c r="G38" s="101"/>
-      <c r="H38" s="101"/>
-      <c r="I38" s="101"/>
-      <c r="J38" s="101"/>
-      <c r="K38" s="101"/>
-      <c r="L38" s="101"/>
-      <c r="M38" s="101"/>
-      <c r="N38" s="101"/>
-      <c r="O38" s="101"/>
-      <c r="P38" s="101"/>
-      <c r="Q38" s="101"/>
-      <c r="R38" s="101"/>
-      <c r="S38" s="101"/>
-      <c r="T38" s="101"/>
-      <c r="U38" s="101"/>
-      <c r="V38" s="101"/>
-      <c r="W38" s="101"/>
-      <c r="X38" s="101"/>
-      <c r="Y38" s="101"/>
-      <c r="Z38" s="101"/>
-      <c r="AA38" s="101"/>
-      <c r="AB38" s="101"/>
+      <c r="A38" s="93"/>
+      <c r="B38" s="93"/>
+      <c r="C38" s="93"/>
+      <c r="D38" s="93"/>
+      <c r="E38" s="93"/>
+      <c r="F38" s="93"/>
+      <c r="G38" s="93"/>
+      <c r="H38" s="93"/>
+      <c r="I38" s="93"/>
+      <c r="J38" s="93"/>
+      <c r="K38" s="93"/>
+      <c r="L38" s="93"/>
+      <c r="M38" s="93"/>
+      <c r="N38" s="93"/>
+      <c r="O38" s="93"/>
+      <c r="P38" s="93"/>
+      <c r="Q38" s="93"/>
+      <c r="R38" s="93"/>
+      <c r="S38" s="93"/>
+      <c r="T38" s="93"/>
+      <c r="U38" s="93"/>
+      <c r="V38" s="93"/>
+      <c r="W38" s="93"/>
+      <c r="X38" s="93"/>
+      <c r="Y38" s="93"/>
+      <c r="Z38" s="93"/>
+      <c r="AA38" s="93"/>
+      <c r="AB38" s="93"/>
     </row>
     <row r="39" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="101"/>
-      <c r="B39" s="101"/>
-      <c r="C39" s="101"/>
-      <c r="D39" s="101"/>
-      <c r="E39" s="101"/>
-      <c r="F39" s="101"/>
-      <c r="G39" s="101"/>
-      <c r="H39" s="101"/>
-      <c r="I39" s="101"/>
-      <c r="J39" s="101"/>
-      <c r="K39" s="101"/>
-      <c r="L39" s="101"/>
-      <c r="M39" s="101"/>
-      <c r="N39" s="101"/>
-      <c r="O39" s="101"/>
-      <c r="P39" s="101"/>
-      <c r="Q39" s="101"/>
-      <c r="R39" s="101"/>
-      <c r="S39" s="101"/>
-      <c r="T39" s="101"/>
-      <c r="U39" s="101"/>
-      <c r="V39" s="101"/>
-      <c r="W39" s="101"/>
-      <c r="X39" s="101"/>
-      <c r="Y39" s="101"/>
-      <c r="Z39" s="101"/>
-      <c r="AA39" s="101"/>
-      <c r="AB39" s="101"/>
+      <c r="A39" s="93"/>
+      <c r="B39" s="93"/>
+      <c r="C39" s="93"/>
+      <c r="D39" s="93"/>
+      <c r="E39" s="93"/>
+      <c r="F39" s="93"/>
+      <c r="G39" s="93"/>
+      <c r="H39" s="93"/>
+      <c r="I39" s="93"/>
+      <c r="J39" s="93"/>
+      <c r="K39" s="93"/>
+      <c r="L39" s="93"/>
+      <c r="M39" s="93"/>
+      <c r="N39" s="93"/>
+      <c r="O39" s="93"/>
+      <c r="P39" s="93"/>
+      <c r="Q39" s="93"/>
+      <c r="R39" s="93"/>
+      <c r="S39" s="93"/>
+      <c r="T39" s="93"/>
+      <c r="U39" s="93"/>
+      <c r="V39" s="93"/>
+      <c r="W39" s="93"/>
+      <c r="X39" s="93"/>
+      <c r="Y39" s="93"/>
+      <c r="Z39" s="93"/>
+      <c r="AA39" s="93"/>
+      <c r="AB39" s="93"/>
     </row>
     <row r="40" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="101"/>
-      <c r="B40" s="101"/>
-      <c r="C40" s="101"/>
-      <c r="D40" s="101"/>
-      <c r="E40" s="101"/>
-      <c r="F40" s="101"/>
-      <c r="G40" s="101"/>
-      <c r="H40" s="101"/>
-      <c r="I40" s="101"/>
-      <c r="J40" s="101"/>
-      <c r="K40" s="101"/>
-      <c r="L40" s="101"/>
-      <c r="M40" s="101"/>
-      <c r="N40" s="101"/>
-      <c r="O40" s="101"/>
-      <c r="P40" s="101"/>
-      <c r="Q40" s="101"/>
-      <c r="R40" s="101"/>
-      <c r="S40" s="101"/>
-      <c r="T40" s="101"/>
-      <c r="U40" s="101"/>
-      <c r="V40" s="101"/>
-      <c r="W40" s="101"/>
-      <c r="X40" s="101"/>
-      <c r="Y40" s="101"/>
-      <c r="Z40" s="101"/>
-      <c r="AA40" s="101"/>
-      <c r="AB40" s="101"/>
+      <c r="A40" s="93"/>
+      <c r="B40" s="93"/>
+      <c r="C40" s="93"/>
+      <c r="D40" s="93"/>
+      <c r="E40" s="93"/>
+      <c r="F40" s="93"/>
+      <c r="G40" s="93"/>
+      <c r="H40" s="93"/>
+      <c r="I40" s="93"/>
+      <c r="J40" s="93"/>
+      <c r="K40" s="93"/>
+      <c r="L40" s="93"/>
+      <c r="M40" s="93"/>
+      <c r="N40" s="93"/>
+      <c r="O40" s="93"/>
+      <c r="P40" s="93"/>
+      <c r="Q40" s="93"/>
+      <c r="R40" s="93"/>
+      <c r="S40" s="93"/>
+      <c r="T40" s="93"/>
+      <c r="U40" s="93"/>
+      <c r="V40" s="93"/>
+      <c r="W40" s="93"/>
+      <c r="X40" s="93"/>
+      <c r="Y40" s="93"/>
+      <c r="Z40" s="93"/>
+      <c r="AA40" s="93"/>
+      <c r="AB40" s="93"/>
     </row>
     <row r="41" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="101"/>
-      <c r="B41" s="101"/>
-      <c r="C41" s="101"/>
-      <c r="D41" s="101"/>
-      <c r="E41" s="101"/>
-      <c r="F41" s="101"/>
-      <c r="G41" s="101"/>
-      <c r="H41" s="101"/>
-      <c r="I41" s="101"/>
-      <c r="J41" s="101"/>
-      <c r="K41" s="101"/>
-      <c r="L41" s="101"/>
-      <c r="M41" s="101"/>
-      <c r="N41" s="101"/>
-      <c r="O41" s="101"/>
-      <c r="P41" s="101"/>
-      <c r="Q41" s="101"/>
-      <c r="R41" s="101"/>
-      <c r="S41" s="101"/>
-      <c r="T41" s="101"/>
-      <c r="U41" s="101"/>
-      <c r="V41" s="101"/>
-      <c r="W41" s="101"/>
-      <c r="X41" s="101"/>
-      <c r="Y41" s="101"/>
-      <c r="Z41" s="101"/>
-      <c r="AA41" s="101"/>
-      <c r="AB41" s="101"/>
+      <c r="A41" s="93"/>
+      <c r="B41" s="93"/>
+      <c r="C41" s="93"/>
+      <c r="D41" s="93"/>
+      <c r="E41" s="93"/>
+      <c r="F41" s="93"/>
+      <c r="G41" s="93"/>
+      <c r="H41" s="93"/>
+      <c r="I41" s="93"/>
+      <c r="J41" s="93"/>
+      <c r="K41" s="93"/>
+      <c r="L41" s="93"/>
+      <c r="M41" s="93"/>
+      <c r="N41" s="93"/>
+      <c r="O41" s="93"/>
+      <c r="P41" s="93"/>
+      <c r="Q41" s="93"/>
+      <c r="R41" s="93"/>
+      <c r="S41" s="93"/>
+      <c r="T41" s="93"/>
+      <c r="U41" s="93"/>
+      <c r="V41" s="93"/>
+      <c r="W41" s="93"/>
+      <c r="X41" s="93"/>
+      <c r="Y41" s="93"/>
+      <c r="Z41" s="93"/>
+      <c r="AA41" s="93"/>
+      <c r="AB41" s="93"/>
     </row>
     <row r="42" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="101"/>
-      <c r="B42" s="101"/>
-      <c r="C42" s="101"/>
-      <c r="D42" s="101"/>
-      <c r="E42" s="101"/>
-      <c r="F42" s="101"/>
-      <c r="G42" s="101"/>
-      <c r="H42" s="101"/>
-      <c r="I42" s="101"/>
-      <c r="J42" s="101"/>
-      <c r="K42" s="101"/>
-      <c r="L42" s="101"/>
-      <c r="M42" s="101"/>
-      <c r="N42" s="101"/>
-      <c r="O42" s="101"/>
-      <c r="P42" s="101"/>
-      <c r="Q42" s="101"/>
-      <c r="R42" s="101"/>
-      <c r="S42" s="101"/>
-      <c r="T42" s="101"/>
-      <c r="U42" s="101"/>
-      <c r="V42" s="101"/>
-      <c r="W42" s="101"/>
-      <c r="X42" s="101"/>
-      <c r="Y42" s="101"/>
-      <c r="Z42" s="101"/>
-      <c r="AA42" s="101"/>
-      <c r="AB42" s="101"/>
+      <c r="A42" s="93"/>
+      <c r="B42" s="93"/>
+      <c r="C42" s="93"/>
+      <c r="D42" s="93"/>
+      <c r="E42" s="93"/>
+      <c r="F42" s="93"/>
+      <c r="G42" s="93"/>
+      <c r="H42" s="93"/>
+      <c r="I42" s="93"/>
+      <c r="J42" s="93"/>
+      <c r="K42" s="93"/>
+      <c r="L42" s="93"/>
+      <c r="M42" s="93"/>
+      <c r="N42" s="93"/>
+      <c r="O42" s="93"/>
+      <c r="P42" s="93"/>
+      <c r="Q42" s="93"/>
+      <c r="R42" s="93"/>
+      <c r="S42" s="93"/>
+      <c r="T42" s="93"/>
+      <c r="U42" s="93"/>
+      <c r="V42" s="93"/>
+      <c r="W42" s="93"/>
+      <c r="X42" s="93"/>
+      <c r="Y42" s="93"/>
+      <c r="Z42" s="93"/>
+      <c r="AA42" s="93"/>
+      <c r="AB42" s="93"/>
     </row>
     <row r="43" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="101"/>
-      <c r="B43" s="101"/>
-      <c r="C43" s="101"/>
-      <c r="D43" s="101"/>
-      <c r="E43" s="101"/>
-      <c r="F43" s="101"/>
-      <c r="G43" s="101"/>
-      <c r="H43" s="101"/>
-      <c r="I43" s="101"/>
-      <c r="J43" s="101"/>
-      <c r="K43" s="101"/>
-      <c r="L43" s="101"/>
-      <c r="M43" s="101"/>
-      <c r="N43" s="101"/>
-      <c r="O43" s="101"/>
-      <c r="P43" s="101"/>
-      <c r="Q43" s="101"/>
-      <c r="R43" s="101"/>
-      <c r="S43" s="101"/>
-      <c r="T43" s="101"/>
-      <c r="U43" s="101"/>
-      <c r="V43" s="101"/>
-      <c r="W43" s="101"/>
-      <c r="X43" s="101"/>
-      <c r="Y43" s="101"/>
-      <c r="Z43" s="101"/>
-      <c r="AA43" s="101"/>
-      <c r="AB43" s="101"/>
+      <c r="A43" s="93"/>
+      <c r="B43" s="93"/>
+      <c r="C43" s="93"/>
+      <c r="D43" s="93"/>
+      <c r="E43" s="93"/>
+      <c r="F43" s="93"/>
+      <c r="G43" s="93"/>
+      <c r="H43" s="93"/>
+      <c r="I43" s="93"/>
+      <c r="J43" s="93"/>
+      <c r="K43" s="93"/>
+      <c r="L43" s="93"/>
+      <c r="M43" s="93"/>
+      <c r="N43" s="93"/>
+      <c r="O43" s="93"/>
+      <c r="P43" s="93"/>
+      <c r="Q43" s="93"/>
+      <c r="R43" s="93"/>
+      <c r="S43" s="93"/>
+      <c r="T43" s="93"/>
+      <c r="U43" s="93"/>
+      <c r="V43" s="93"/>
+      <c r="W43" s="93"/>
+      <c r="X43" s="93"/>
+      <c r="Y43" s="93"/>
+      <c r="Z43" s="93"/>
+      <c r="AA43" s="93"/>
+      <c r="AB43" s="93"/>
     </row>
     <row r="44" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="101"/>
-      <c r="B44" s="101"/>
-      <c r="C44" s="101"/>
-      <c r="D44" s="101"/>
-      <c r="E44" s="101"/>
-      <c r="F44" s="101"/>
-      <c r="G44" s="101"/>
-      <c r="H44" s="101"/>
-      <c r="I44" s="101"/>
-      <c r="J44" s="101"/>
-      <c r="K44" s="101"/>
-      <c r="L44" s="101"/>
-      <c r="M44" s="101"/>
-      <c r="N44" s="101"/>
-      <c r="O44" s="101"/>
-      <c r="P44" s="101"/>
-      <c r="Q44" s="101"/>
-      <c r="R44" s="101"/>
-      <c r="S44" s="101"/>
-      <c r="T44" s="101"/>
-      <c r="U44" s="101"/>
-      <c r="V44" s="101"/>
-      <c r="W44" s="101"/>
-      <c r="X44" s="101"/>
-      <c r="Y44" s="101"/>
-      <c r="Z44" s="101"/>
-      <c r="AA44" s="101"/>
-      <c r="AB44" s="101"/>
+      <c r="A44" s="93"/>
+      <c r="B44" s="93"/>
+      <c r="C44" s="93"/>
+      <c r="D44" s="93"/>
+      <c r="E44" s="93"/>
+      <c r="F44" s="93"/>
+      <c r="G44" s="93"/>
+      <c r="H44" s="93"/>
+      <c r="I44" s="93"/>
+      <c r="J44" s="93"/>
+      <c r="K44" s="93"/>
+      <c r="L44" s="93"/>
+      <c r="M44" s="93"/>
+      <c r="N44" s="93"/>
+      <c r="O44" s="93"/>
+      <c r="P44" s="93"/>
+      <c r="Q44" s="93"/>
+      <c r="R44" s="93"/>
+      <c r="S44" s="93"/>
+      <c r="T44" s="93"/>
+      <c r="U44" s="93"/>
+      <c r="V44" s="93"/>
+      <c r="W44" s="93"/>
+      <c r="X44" s="93"/>
+      <c r="Y44" s="93"/>
+      <c r="Z44" s="93"/>
+      <c r="AA44" s="93"/>
+      <c r="AB44" s="93"/>
     </row>
     <row r="45" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="101"/>
-      <c r="B45" s="101"/>
-      <c r="C45" s="101"/>
-      <c r="D45" s="101"/>
-      <c r="E45" s="101"/>
-      <c r="F45" s="101"/>
-      <c r="G45" s="101"/>
-      <c r="H45" s="101"/>
-      <c r="I45" s="101"/>
-      <c r="J45" s="101"/>
-      <c r="K45" s="101"/>
-      <c r="L45" s="101"/>
-      <c r="M45" s="101"/>
-      <c r="N45" s="101"/>
-      <c r="O45" s="101"/>
-      <c r="P45" s="101"/>
-      <c r="Q45" s="101"/>
-      <c r="R45" s="101"/>
-      <c r="S45" s="101"/>
-      <c r="T45" s="101"/>
-      <c r="U45" s="101"/>
-      <c r="V45" s="101"/>
-      <c r="W45" s="101"/>
-      <c r="X45" s="101"/>
-      <c r="Y45" s="101"/>
-      <c r="Z45" s="101"/>
-      <c r="AA45" s="101"/>
-      <c r="AB45" s="101"/>
+      <c r="A45" s="93"/>
+      <c r="B45" s="93"/>
+      <c r="C45" s="93"/>
+      <c r="D45" s="93"/>
+      <c r="E45" s="93"/>
+      <c r="F45" s="93"/>
+      <c r="G45" s="93"/>
+      <c r="H45" s="93"/>
+      <c r="I45" s="93"/>
+      <c r="J45" s="93"/>
+      <c r="K45" s="93"/>
+      <c r="L45" s="93"/>
+      <c r="M45" s="93"/>
+      <c r="N45" s="93"/>
+      <c r="O45" s="93"/>
+      <c r="P45" s="93"/>
+      <c r="Q45" s="93"/>
+      <c r="R45" s="93"/>
+      <c r="S45" s="93"/>
+      <c r="T45" s="93"/>
+      <c r="U45" s="93"/>
+      <c r="V45" s="93"/>
+      <c r="W45" s="93"/>
+      <c r="X45" s="93"/>
+      <c r="Y45" s="93"/>
+      <c r="Z45" s="93"/>
+      <c r="AA45" s="93"/>
+      <c r="AB45" s="93"/>
     </row>
     <row r="46" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="6"/>
@@ -4386,617 +4401,617 @@
       <c r="H47" s="6"/>
       <c r="I47" s="6"/>
       <c r="J47" s="6"/>
-      <c r="K47" s="107" t="s">
+      <c r="K47" s="92" t="s">
         <v>22</v>
       </c>
-      <c r="L47" s="107"/>
-      <c r="M47" s="107"/>
-      <c r="N47" s="107"/>
-      <c r="O47" s="107"/>
-      <c r="P47" s="107"/>
-      <c r="Q47" s="107"/>
-      <c r="R47" s="107"/>
-      <c r="S47" s="107"/>
+      <c r="L47" s="92"/>
+      <c r="M47" s="92"/>
+      <c r="N47" s="92"/>
+      <c r="O47" s="92"/>
+      <c r="P47" s="92"/>
+      <c r="Q47" s="92"/>
+      <c r="R47" s="92"/>
+      <c r="S47" s="92"/>
     </row>
     <row r="48" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="101"/>
-      <c r="B48" s="101"/>
-      <c r="C48" s="101"/>
-      <c r="D48" s="101"/>
-      <c r="E48" s="101"/>
-      <c r="F48" s="101"/>
-      <c r="G48" s="101"/>
-      <c r="H48" s="101"/>
-      <c r="I48" s="101"/>
-      <c r="J48" s="101"/>
-      <c r="K48" s="101"/>
-      <c r="L48" s="101"/>
-      <c r="M48" s="101"/>
-      <c r="N48" s="101"/>
-      <c r="O48" s="101"/>
-      <c r="P48" s="101"/>
-      <c r="Q48" s="101"/>
-      <c r="R48" s="101"/>
-      <c r="S48" s="101"/>
-      <c r="T48" s="101"/>
-      <c r="U48" s="101"/>
-      <c r="V48" s="101"/>
-      <c r="W48" s="101"/>
-      <c r="X48" s="101"/>
-      <c r="Y48" s="101"/>
-      <c r="Z48" s="101"/>
-      <c r="AA48" s="101"/>
-      <c r="AB48" s="101"/>
+      <c r="A48" s="93"/>
+      <c r="B48" s="93"/>
+      <c r="C48" s="93"/>
+      <c r="D48" s="93"/>
+      <c r="E48" s="93"/>
+      <c r="F48" s="93"/>
+      <c r="G48" s="93"/>
+      <c r="H48" s="93"/>
+      <c r="I48" s="93"/>
+      <c r="J48" s="93"/>
+      <c r="K48" s="93"/>
+      <c r="L48" s="93"/>
+      <c r="M48" s="93"/>
+      <c r="N48" s="93"/>
+      <c r="O48" s="93"/>
+      <c r="P48" s="93"/>
+      <c r="Q48" s="93"/>
+      <c r="R48" s="93"/>
+      <c r="S48" s="93"/>
+      <c r="T48" s="93"/>
+      <c r="U48" s="93"/>
+      <c r="V48" s="93"/>
+      <c r="W48" s="93"/>
+      <c r="X48" s="93"/>
+      <c r="Y48" s="93"/>
+      <c r="Z48" s="93"/>
+      <c r="AA48" s="93"/>
+      <c r="AB48" s="93"/>
     </row>
     <row r="49" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="101"/>
-      <c r="B49" s="101"/>
-      <c r="C49" s="101"/>
-      <c r="D49" s="101"/>
-      <c r="E49" s="101"/>
-      <c r="F49" s="101"/>
-      <c r="G49" s="101"/>
-      <c r="H49" s="101"/>
-      <c r="I49" s="101"/>
-      <c r="J49" s="101"/>
-      <c r="K49" s="101"/>
-      <c r="L49" s="101"/>
-      <c r="M49" s="101"/>
-      <c r="N49" s="101"/>
-      <c r="O49" s="101"/>
-      <c r="P49" s="101"/>
-      <c r="Q49" s="101"/>
-      <c r="R49" s="101"/>
-      <c r="S49" s="101"/>
-      <c r="T49" s="101"/>
-      <c r="U49" s="101"/>
-      <c r="V49" s="101"/>
-      <c r="W49" s="101"/>
-      <c r="X49" s="101"/>
-      <c r="Y49" s="101"/>
-      <c r="Z49" s="101"/>
-      <c r="AA49" s="101"/>
-      <c r="AB49" s="101"/>
+      <c r="A49" s="93"/>
+      <c r="B49" s="93"/>
+      <c r="C49" s="93"/>
+      <c r="D49" s="93"/>
+      <c r="E49" s="93"/>
+      <c r="F49" s="93"/>
+      <c r="G49" s="93"/>
+      <c r="H49" s="93"/>
+      <c r="I49" s="93"/>
+      <c r="J49" s="93"/>
+      <c r="K49" s="93"/>
+      <c r="L49" s="93"/>
+      <c r="M49" s="93"/>
+      <c r="N49" s="93"/>
+      <c r="O49" s="93"/>
+      <c r="P49" s="93"/>
+      <c r="Q49" s="93"/>
+      <c r="R49" s="93"/>
+      <c r="S49" s="93"/>
+      <c r="T49" s="93"/>
+      <c r="U49" s="93"/>
+      <c r="V49" s="93"/>
+      <c r="W49" s="93"/>
+      <c r="X49" s="93"/>
+      <c r="Y49" s="93"/>
+      <c r="Z49" s="93"/>
+      <c r="AA49" s="93"/>
+      <c r="AB49" s="93"/>
     </row>
     <row r="50" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="101"/>
-      <c r="B50" s="101"/>
-      <c r="C50" s="101"/>
-      <c r="D50" s="101"/>
-      <c r="E50" s="101"/>
-      <c r="F50" s="101"/>
-      <c r="G50" s="101"/>
-      <c r="H50" s="101"/>
-      <c r="I50" s="101"/>
-      <c r="J50" s="101"/>
-      <c r="K50" s="101"/>
-      <c r="L50" s="101"/>
-      <c r="M50" s="101"/>
-      <c r="N50" s="101"/>
-      <c r="O50" s="101"/>
-      <c r="P50" s="101"/>
-      <c r="Q50" s="101"/>
-      <c r="R50" s="101"/>
-      <c r="S50" s="101"/>
-      <c r="T50" s="101"/>
-      <c r="U50" s="101"/>
-      <c r="V50" s="101"/>
-      <c r="W50" s="101"/>
-      <c r="X50" s="101"/>
-      <c r="Y50" s="101"/>
-      <c r="Z50" s="101"/>
-      <c r="AA50" s="101"/>
-      <c r="AB50" s="101"/>
+      <c r="A50" s="93"/>
+      <c r="B50" s="93"/>
+      <c r="C50" s="93"/>
+      <c r="D50" s="93"/>
+      <c r="E50" s="93"/>
+      <c r="F50" s="93"/>
+      <c r="G50" s="93"/>
+      <c r="H50" s="93"/>
+      <c r="I50" s="93"/>
+      <c r="J50" s="93"/>
+      <c r="K50" s="93"/>
+      <c r="L50" s="93"/>
+      <c r="M50" s="93"/>
+      <c r="N50" s="93"/>
+      <c r="O50" s="93"/>
+      <c r="P50" s="93"/>
+      <c r="Q50" s="93"/>
+      <c r="R50" s="93"/>
+      <c r="S50" s="93"/>
+      <c r="T50" s="93"/>
+      <c r="U50" s="93"/>
+      <c r="V50" s="93"/>
+      <c r="W50" s="93"/>
+      <c r="X50" s="93"/>
+      <c r="Y50" s="93"/>
+      <c r="Z50" s="93"/>
+      <c r="AA50" s="93"/>
+      <c r="AB50" s="93"/>
     </row>
     <row r="51" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="101"/>
-      <c r="B51" s="101"/>
-      <c r="C51" s="101"/>
-      <c r="D51" s="101"/>
-      <c r="E51" s="101"/>
-      <c r="F51" s="101"/>
-      <c r="G51" s="101"/>
-      <c r="H51" s="101"/>
-      <c r="I51" s="101"/>
-      <c r="J51" s="101"/>
-      <c r="K51" s="101"/>
-      <c r="L51" s="101"/>
-      <c r="M51" s="101"/>
-      <c r="N51" s="101"/>
-      <c r="O51" s="101"/>
-      <c r="P51" s="101"/>
-      <c r="Q51" s="101"/>
-      <c r="R51" s="101"/>
-      <c r="S51" s="101"/>
-      <c r="T51" s="101"/>
-      <c r="U51" s="101"/>
-      <c r="V51" s="101"/>
-      <c r="W51" s="101"/>
-      <c r="X51" s="101"/>
-      <c r="Y51" s="101"/>
-      <c r="Z51" s="101"/>
-      <c r="AA51" s="101"/>
-      <c r="AB51" s="101"/>
+      <c r="A51" s="93"/>
+      <c r="B51" s="93"/>
+      <c r="C51" s="93"/>
+      <c r="D51" s="93"/>
+      <c r="E51" s="93"/>
+      <c r="F51" s="93"/>
+      <c r="G51" s="93"/>
+      <c r="H51" s="93"/>
+      <c r="I51" s="93"/>
+      <c r="J51" s="93"/>
+      <c r="K51" s="93"/>
+      <c r="L51" s="93"/>
+      <c r="M51" s="93"/>
+      <c r="N51" s="93"/>
+      <c r="O51" s="93"/>
+      <c r="P51" s="93"/>
+      <c r="Q51" s="93"/>
+      <c r="R51" s="93"/>
+      <c r="S51" s="93"/>
+      <c r="T51" s="93"/>
+      <c r="U51" s="93"/>
+      <c r="V51" s="93"/>
+      <c r="W51" s="93"/>
+      <c r="X51" s="93"/>
+      <c r="Y51" s="93"/>
+      <c r="Z51" s="93"/>
+      <c r="AA51" s="93"/>
+      <c r="AB51" s="93"/>
     </row>
     <row r="52" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="101"/>
-      <c r="B52" s="101"/>
-      <c r="C52" s="101"/>
-      <c r="D52" s="101"/>
-      <c r="E52" s="101"/>
-      <c r="F52" s="101"/>
-      <c r="G52" s="101"/>
-      <c r="H52" s="101"/>
-      <c r="I52" s="101"/>
-      <c r="J52" s="101"/>
-      <c r="K52" s="101"/>
-      <c r="L52" s="101"/>
-      <c r="M52" s="101"/>
-      <c r="N52" s="101"/>
-      <c r="O52" s="101"/>
-      <c r="P52" s="101"/>
-      <c r="Q52" s="101"/>
-      <c r="R52" s="101"/>
-      <c r="S52" s="101"/>
-      <c r="T52" s="101"/>
-      <c r="U52" s="101"/>
-      <c r="V52" s="101"/>
-      <c r="W52" s="101"/>
-      <c r="X52" s="101"/>
-      <c r="Y52" s="101"/>
-      <c r="Z52" s="101"/>
-      <c r="AA52" s="101"/>
-      <c r="AB52" s="101"/>
+      <c r="A52" s="93"/>
+      <c r="B52" s="93"/>
+      <c r="C52" s="93"/>
+      <c r="D52" s="93"/>
+      <c r="E52" s="93"/>
+      <c r="F52" s="93"/>
+      <c r="G52" s="93"/>
+      <c r="H52" s="93"/>
+      <c r="I52" s="93"/>
+      <c r="J52" s="93"/>
+      <c r="K52" s="93"/>
+      <c r="L52" s="93"/>
+      <c r="M52" s="93"/>
+      <c r="N52" s="93"/>
+      <c r="O52" s="93"/>
+      <c r="P52" s="93"/>
+      <c r="Q52" s="93"/>
+      <c r="R52" s="93"/>
+      <c r="S52" s="93"/>
+      <c r="T52" s="93"/>
+      <c r="U52" s="93"/>
+      <c r="V52" s="93"/>
+      <c r="W52" s="93"/>
+      <c r="X52" s="93"/>
+      <c r="Y52" s="93"/>
+      <c r="Z52" s="93"/>
+      <c r="AA52" s="93"/>
+      <c r="AB52" s="93"/>
     </row>
     <row r="53" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="101"/>
-      <c r="B53" s="101"/>
-      <c r="C53" s="101"/>
-      <c r="D53" s="101"/>
-      <c r="E53" s="101"/>
-      <c r="F53" s="101"/>
-      <c r="G53" s="101"/>
-      <c r="H53" s="101"/>
-      <c r="I53" s="101"/>
-      <c r="J53" s="101"/>
-      <c r="K53" s="101"/>
-      <c r="L53" s="101"/>
-      <c r="M53" s="101"/>
-      <c r="N53" s="101"/>
-      <c r="O53" s="101"/>
-      <c r="P53" s="101"/>
-      <c r="Q53" s="101"/>
-      <c r="R53" s="101"/>
-      <c r="S53" s="101"/>
-      <c r="T53" s="101"/>
-      <c r="U53" s="101"/>
-      <c r="V53" s="101"/>
-      <c r="W53" s="101"/>
-      <c r="X53" s="101"/>
-      <c r="Y53" s="101"/>
-      <c r="Z53" s="101"/>
-      <c r="AA53" s="101"/>
-      <c r="AB53" s="101"/>
+      <c r="A53" s="93"/>
+      <c r="B53" s="93"/>
+      <c r="C53" s="93"/>
+      <c r="D53" s="93"/>
+      <c r="E53" s="93"/>
+      <c r="F53" s="93"/>
+      <c r="G53" s="93"/>
+      <c r="H53" s="93"/>
+      <c r="I53" s="93"/>
+      <c r="J53" s="93"/>
+      <c r="K53" s="93"/>
+      <c r="L53" s="93"/>
+      <c r="M53" s="93"/>
+      <c r="N53" s="93"/>
+      <c r="O53" s="93"/>
+      <c r="P53" s="93"/>
+      <c r="Q53" s="93"/>
+      <c r="R53" s="93"/>
+      <c r="S53" s="93"/>
+      <c r="T53" s="93"/>
+      <c r="U53" s="93"/>
+      <c r="V53" s="93"/>
+      <c r="W53" s="93"/>
+      <c r="X53" s="93"/>
+      <c r="Y53" s="93"/>
+      <c r="Z53" s="93"/>
+      <c r="AA53" s="93"/>
+      <c r="AB53" s="93"/>
     </row>
     <row r="54" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="101"/>
-      <c r="B54" s="101"/>
-      <c r="C54" s="101"/>
-      <c r="D54" s="101"/>
-      <c r="E54" s="101"/>
-      <c r="F54" s="101"/>
-      <c r="G54" s="101"/>
-      <c r="H54" s="101"/>
-      <c r="I54" s="101"/>
-      <c r="J54" s="101"/>
-      <c r="K54" s="101"/>
-      <c r="L54" s="101"/>
-      <c r="M54" s="101"/>
-      <c r="N54" s="101"/>
-      <c r="O54" s="101"/>
-      <c r="P54" s="101"/>
-      <c r="Q54" s="101"/>
-      <c r="R54" s="101"/>
-      <c r="S54" s="101"/>
-      <c r="T54" s="101"/>
-      <c r="U54" s="101"/>
-      <c r="V54" s="101"/>
-      <c r="W54" s="101"/>
-      <c r="X54" s="101"/>
-      <c r="Y54" s="101"/>
-      <c r="Z54" s="101"/>
-      <c r="AA54" s="101"/>
-      <c r="AB54" s="101"/>
+      <c r="A54" s="93"/>
+      <c r="B54" s="93"/>
+      <c r="C54" s="93"/>
+      <c r="D54" s="93"/>
+      <c r="E54" s="93"/>
+      <c r="F54" s="93"/>
+      <c r="G54" s="93"/>
+      <c r="H54" s="93"/>
+      <c r="I54" s="93"/>
+      <c r="J54" s="93"/>
+      <c r="K54" s="93"/>
+      <c r="L54" s="93"/>
+      <c r="M54" s="93"/>
+      <c r="N54" s="93"/>
+      <c r="O54" s="93"/>
+      <c r="P54" s="93"/>
+      <c r="Q54" s="93"/>
+      <c r="R54" s="93"/>
+      <c r="S54" s="93"/>
+      <c r="T54" s="93"/>
+      <c r="U54" s="93"/>
+      <c r="V54" s="93"/>
+      <c r="W54" s="93"/>
+      <c r="X54" s="93"/>
+      <c r="Y54" s="93"/>
+      <c r="Z54" s="93"/>
+      <c r="AA54" s="93"/>
+      <c r="AB54" s="93"/>
     </row>
     <row r="55" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="101"/>
-      <c r="B55" s="101"/>
-      <c r="C55" s="101"/>
-      <c r="D55" s="101"/>
-      <c r="E55" s="101"/>
-      <c r="F55" s="101"/>
-      <c r="G55" s="101"/>
-      <c r="H55" s="101"/>
-      <c r="I55" s="101"/>
-      <c r="J55" s="101"/>
-      <c r="K55" s="101"/>
-      <c r="L55" s="101"/>
-      <c r="M55" s="101"/>
-      <c r="N55" s="101"/>
-      <c r="O55" s="101"/>
-      <c r="P55" s="101"/>
-      <c r="Q55" s="101"/>
-      <c r="R55" s="101"/>
-      <c r="S55" s="101"/>
-      <c r="T55" s="101"/>
-      <c r="U55" s="101"/>
-      <c r="V55" s="101"/>
-      <c r="W55" s="101"/>
-      <c r="X55" s="101"/>
-      <c r="Y55" s="101"/>
-      <c r="Z55" s="101"/>
-      <c r="AA55" s="101"/>
-      <c r="AB55" s="101"/>
+      <c r="A55" s="93"/>
+      <c r="B55" s="93"/>
+      <c r="C55" s="93"/>
+      <c r="D55" s="93"/>
+      <c r="E55" s="93"/>
+      <c r="F55" s="93"/>
+      <c r="G55" s="93"/>
+      <c r="H55" s="93"/>
+      <c r="I55" s="93"/>
+      <c r="J55" s="93"/>
+      <c r="K55" s="93"/>
+      <c r="L55" s="93"/>
+      <c r="M55" s="93"/>
+      <c r="N55" s="93"/>
+      <c r="O55" s="93"/>
+      <c r="P55" s="93"/>
+      <c r="Q55" s="93"/>
+      <c r="R55" s="93"/>
+      <c r="S55" s="93"/>
+      <c r="T55" s="93"/>
+      <c r="U55" s="93"/>
+      <c r="V55" s="93"/>
+      <c r="W55" s="93"/>
+      <c r="X55" s="93"/>
+      <c r="Y55" s="93"/>
+      <c r="Z55" s="93"/>
+      <c r="AA55" s="93"/>
+      <c r="AB55" s="93"/>
     </row>
     <row r="56" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="101"/>
-      <c r="B56" s="101"/>
-      <c r="C56" s="101"/>
-      <c r="D56" s="101"/>
-      <c r="E56" s="101"/>
-      <c r="F56" s="101"/>
-      <c r="G56" s="101"/>
-      <c r="H56" s="101"/>
-      <c r="I56" s="101"/>
-      <c r="J56" s="101"/>
-      <c r="K56" s="101"/>
-      <c r="L56" s="101"/>
-      <c r="M56" s="101"/>
-      <c r="N56" s="101"/>
-      <c r="O56" s="101"/>
-      <c r="P56" s="101"/>
-      <c r="Q56" s="101"/>
-      <c r="R56" s="101"/>
-      <c r="S56" s="101"/>
-      <c r="T56" s="101"/>
-      <c r="U56" s="101"/>
-      <c r="V56" s="101"/>
-      <c r="W56" s="101"/>
-      <c r="X56" s="101"/>
-      <c r="Y56" s="101"/>
-      <c r="Z56" s="101"/>
-      <c r="AA56" s="101"/>
-      <c r="AB56" s="101"/>
+      <c r="A56" s="93"/>
+      <c r="B56" s="93"/>
+      <c r="C56" s="93"/>
+      <c r="D56" s="93"/>
+      <c r="E56" s="93"/>
+      <c r="F56" s="93"/>
+      <c r="G56" s="93"/>
+      <c r="H56" s="93"/>
+      <c r="I56" s="93"/>
+      <c r="J56" s="93"/>
+      <c r="K56" s="93"/>
+      <c r="L56" s="93"/>
+      <c r="M56" s="93"/>
+      <c r="N56" s="93"/>
+      <c r="O56" s="93"/>
+      <c r="P56" s="93"/>
+      <c r="Q56" s="93"/>
+      <c r="R56" s="93"/>
+      <c r="S56" s="93"/>
+      <c r="T56" s="93"/>
+      <c r="U56" s="93"/>
+      <c r="V56" s="93"/>
+      <c r="W56" s="93"/>
+      <c r="X56" s="93"/>
+      <c r="Y56" s="93"/>
+      <c r="Z56" s="93"/>
+      <c r="AA56" s="93"/>
+      <c r="AB56" s="93"/>
     </row>
     <row r="57" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="101"/>
-      <c r="B57" s="101"/>
-      <c r="C57" s="101"/>
-      <c r="D57" s="101"/>
-      <c r="E57" s="101"/>
-      <c r="F57" s="101"/>
-      <c r="G57" s="101"/>
-      <c r="H57" s="101"/>
-      <c r="I57" s="101"/>
-      <c r="J57" s="101"/>
-      <c r="K57" s="101"/>
-      <c r="L57" s="101"/>
-      <c r="M57" s="101"/>
-      <c r="N57" s="101"/>
-      <c r="O57" s="101"/>
-      <c r="P57" s="101"/>
-      <c r="Q57" s="101"/>
-      <c r="R57" s="101"/>
-      <c r="S57" s="101"/>
-      <c r="T57" s="101"/>
-      <c r="U57" s="101"/>
-      <c r="V57" s="101"/>
-      <c r="W57" s="101"/>
-      <c r="X57" s="101"/>
-      <c r="Y57" s="101"/>
-      <c r="Z57" s="101"/>
-      <c r="AA57" s="101"/>
-      <c r="AB57" s="101"/>
+      <c r="A57" s="93"/>
+      <c r="B57" s="93"/>
+      <c r="C57" s="93"/>
+      <c r="D57" s="93"/>
+      <c r="E57" s="93"/>
+      <c r="F57" s="93"/>
+      <c r="G57" s="93"/>
+      <c r="H57" s="93"/>
+      <c r="I57" s="93"/>
+      <c r="J57" s="93"/>
+      <c r="K57" s="93"/>
+      <c r="L57" s="93"/>
+      <c r="M57" s="93"/>
+      <c r="N57" s="93"/>
+      <c r="O57" s="93"/>
+      <c r="P57" s="93"/>
+      <c r="Q57" s="93"/>
+      <c r="R57" s="93"/>
+      <c r="S57" s="93"/>
+      <c r="T57" s="93"/>
+      <c r="U57" s="93"/>
+      <c r="V57" s="93"/>
+      <c r="W57" s="93"/>
+      <c r="X57" s="93"/>
+      <c r="Y57" s="93"/>
+      <c r="Z57" s="93"/>
+      <c r="AA57" s="93"/>
+      <c r="AB57" s="93"/>
     </row>
     <row r="58" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="101"/>
-      <c r="B58" s="101"/>
-      <c r="C58" s="101"/>
-      <c r="D58" s="101"/>
-      <c r="E58" s="101"/>
-      <c r="F58" s="101"/>
-      <c r="G58" s="101"/>
-      <c r="H58" s="101"/>
-      <c r="I58" s="101"/>
-      <c r="J58" s="101"/>
-      <c r="K58" s="101"/>
-      <c r="L58" s="101"/>
-      <c r="M58" s="101"/>
-      <c r="N58" s="101"/>
-      <c r="O58" s="101"/>
-      <c r="P58" s="101"/>
-      <c r="Q58" s="101"/>
-      <c r="R58" s="101"/>
-      <c r="S58" s="101"/>
-      <c r="T58" s="101"/>
-      <c r="U58" s="101"/>
-      <c r="V58" s="101"/>
-      <c r="W58" s="101"/>
-      <c r="X58" s="101"/>
-      <c r="Y58" s="101"/>
-      <c r="Z58" s="101"/>
-      <c r="AA58" s="101"/>
-      <c r="AB58" s="101"/>
+      <c r="A58" s="93"/>
+      <c r="B58" s="93"/>
+      <c r="C58" s="93"/>
+      <c r="D58" s="93"/>
+      <c r="E58" s="93"/>
+      <c r="F58" s="93"/>
+      <c r="G58" s="93"/>
+      <c r="H58" s="93"/>
+      <c r="I58" s="93"/>
+      <c r="J58" s="93"/>
+      <c r="K58" s="93"/>
+      <c r="L58" s="93"/>
+      <c r="M58" s="93"/>
+      <c r="N58" s="93"/>
+      <c r="O58" s="93"/>
+      <c r="P58" s="93"/>
+      <c r="Q58" s="93"/>
+      <c r="R58" s="93"/>
+      <c r="S58" s="93"/>
+      <c r="T58" s="93"/>
+      <c r="U58" s="93"/>
+      <c r="V58" s="93"/>
+      <c r="W58" s="93"/>
+      <c r="X58" s="93"/>
+      <c r="Y58" s="93"/>
+      <c r="Z58" s="93"/>
+      <c r="AA58" s="93"/>
+      <c r="AB58" s="93"/>
     </row>
     <row r="59" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="101"/>
-      <c r="B59" s="101"/>
-      <c r="C59" s="101"/>
-      <c r="D59" s="101"/>
-      <c r="E59" s="101"/>
-      <c r="F59" s="101"/>
-      <c r="G59" s="101"/>
-      <c r="H59" s="101"/>
-      <c r="I59" s="101"/>
-      <c r="J59" s="101"/>
-      <c r="K59" s="101"/>
-      <c r="L59" s="101"/>
-      <c r="M59" s="101"/>
-      <c r="N59" s="101"/>
-      <c r="O59" s="101"/>
-      <c r="P59" s="101"/>
-      <c r="Q59" s="101"/>
-      <c r="R59" s="101"/>
-      <c r="S59" s="101"/>
-      <c r="T59" s="101"/>
-      <c r="U59" s="101"/>
-      <c r="V59" s="101"/>
-      <c r="W59" s="101"/>
-      <c r="X59" s="101"/>
-      <c r="Y59" s="101"/>
-      <c r="Z59" s="101"/>
-      <c r="AA59" s="101"/>
-      <c r="AB59" s="101"/>
+      <c r="A59" s="93"/>
+      <c r="B59" s="93"/>
+      <c r="C59" s="93"/>
+      <c r="D59" s="93"/>
+      <c r="E59" s="93"/>
+      <c r="F59" s="93"/>
+      <c r="G59" s="93"/>
+      <c r="H59" s="93"/>
+      <c r="I59" s="93"/>
+      <c r="J59" s="93"/>
+      <c r="K59" s="93"/>
+      <c r="L59" s="93"/>
+      <c r="M59" s="93"/>
+      <c r="N59" s="93"/>
+      <c r="O59" s="93"/>
+      <c r="P59" s="93"/>
+      <c r="Q59" s="93"/>
+      <c r="R59" s="93"/>
+      <c r="S59" s="93"/>
+      <c r="T59" s="93"/>
+      <c r="U59" s="93"/>
+      <c r="V59" s="93"/>
+      <c r="W59" s="93"/>
+      <c r="X59" s="93"/>
+      <c r="Y59" s="93"/>
+      <c r="Z59" s="93"/>
+      <c r="AA59" s="93"/>
+      <c r="AB59" s="93"/>
     </row>
     <row r="60" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="101"/>
-      <c r="B60" s="101"/>
-      <c r="C60" s="101"/>
-      <c r="D60" s="101"/>
-      <c r="E60" s="101"/>
-      <c r="F60" s="101"/>
-      <c r="G60" s="101"/>
-      <c r="H60" s="101"/>
-      <c r="I60" s="101"/>
-      <c r="J60" s="101"/>
-      <c r="K60" s="101"/>
-      <c r="L60" s="101"/>
-      <c r="M60" s="101"/>
-      <c r="N60" s="101"/>
-      <c r="O60" s="101"/>
-      <c r="P60" s="101"/>
-      <c r="Q60" s="101"/>
-      <c r="R60" s="101"/>
-      <c r="S60" s="101"/>
-      <c r="T60" s="101"/>
-      <c r="U60" s="101"/>
-      <c r="V60" s="101"/>
-      <c r="W60" s="101"/>
-      <c r="X60" s="101"/>
-      <c r="Y60" s="101"/>
-      <c r="Z60" s="101"/>
-      <c r="AA60" s="101"/>
-      <c r="AB60" s="101"/>
+      <c r="A60" s="93"/>
+      <c r="B60" s="93"/>
+      <c r="C60" s="93"/>
+      <c r="D60" s="93"/>
+      <c r="E60" s="93"/>
+      <c r="F60" s="93"/>
+      <c r="G60" s="93"/>
+      <c r="H60" s="93"/>
+      <c r="I60" s="93"/>
+      <c r="J60" s="93"/>
+      <c r="K60" s="93"/>
+      <c r="L60" s="93"/>
+      <c r="M60" s="93"/>
+      <c r="N60" s="93"/>
+      <c r="O60" s="93"/>
+      <c r="P60" s="93"/>
+      <c r="Q60" s="93"/>
+      <c r="R60" s="93"/>
+      <c r="S60" s="93"/>
+      <c r="T60" s="93"/>
+      <c r="U60" s="93"/>
+      <c r="V60" s="93"/>
+      <c r="W60" s="93"/>
+      <c r="X60" s="93"/>
+      <c r="Y60" s="93"/>
+      <c r="Z60" s="93"/>
+      <c r="AA60" s="93"/>
+      <c r="AB60" s="93"/>
     </row>
     <row r="61" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="101"/>
-      <c r="B61" s="101"/>
-      <c r="C61" s="101"/>
-      <c r="D61" s="101"/>
-      <c r="E61" s="101"/>
-      <c r="F61" s="101"/>
-      <c r="G61" s="101"/>
-      <c r="H61" s="101"/>
-      <c r="I61" s="101"/>
-      <c r="J61" s="101"/>
-      <c r="K61" s="101"/>
-      <c r="L61" s="101"/>
-      <c r="M61" s="101"/>
-      <c r="N61" s="101"/>
-      <c r="O61" s="101"/>
-      <c r="P61" s="101"/>
-      <c r="Q61" s="101"/>
-      <c r="R61" s="101"/>
-      <c r="S61" s="101"/>
-      <c r="T61" s="101"/>
-      <c r="U61" s="101"/>
-      <c r="V61" s="101"/>
-      <c r="W61" s="101"/>
-      <c r="X61" s="101"/>
-      <c r="Y61" s="101"/>
-      <c r="Z61" s="101"/>
-      <c r="AA61" s="101"/>
-      <c r="AB61" s="101"/>
+      <c r="A61" s="93"/>
+      <c r="B61" s="93"/>
+      <c r="C61" s="93"/>
+      <c r="D61" s="93"/>
+      <c r="E61" s="93"/>
+      <c r="F61" s="93"/>
+      <c r="G61" s="93"/>
+      <c r="H61" s="93"/>
+      <c r="I61" s="93"/>
+      <c r="J61" s="93"/>
+      <c r="K61" s="93"/>
+      <c r="L61" s="93"/>
+      <c r="M61" s="93"/>
+      <c r="N61" s="93"/>
+      <c r="O61" s="93"/>
+      <c r="P61" s="93"/>
+      <c r="Q61" s="93"/>
+      <c r="R61" s="93"/>
+      <c r="S61" s="93"/>
+      <c r="T61" s="93"/>
+      <c r="U61" s="93"/>
+      <c r="V61" s="93"/>
+      <c r="W61" s="93"/>
+      <c r="X61" s="93"/>
+      <c r="Y61" s="93"/>
+      <c r="Z61" s="93"/>
+      <c r="AA61" s="93"/>
+      <c r="AB61" s="93"/>
     </row>
     <row r="62" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="101"/>
-      <c r="B62" s="101"/>
-      <c r="C62" s="101"/>
-      <c r="D62" s="101"/>
-      <c r="E62" s="101"/>
-      <c r="F62" s="101"/>
-      <c r="G62" s="101"/>
-      <c r="H62" s="101"/>
-      <c r="I62" s="101"/>
-      <c r="J62" s="101"/>
-      <c r="K62" s="101"/>
-      <c r="L62" s="101"/>
-      <c r="M62" s="101"/>
-      <c r="N62" s="101"/>
-      <c r="O62" s="101"/>
-      <c r="P62" s="101"/>
-      <c r="Q62" s="101"/>
-      <c r="R62" s="101"/>
-      <c r="S62" s="101"/>
-      <c r="T62" s="101"/>
-      <c r="U62" s="101"/>
-      <c r="V62" s="101"/>
-      <c r="W62" s="101"/>
-      <c r="X62" s="101"/>
-      <c r="Y62" s="101"/>
-      <c r="Z62" s="101"/>
-      <c r="AA62" s="101"/>
-      <c r="AB62" s="101"/>
+      <c r="A62" s="93"/>
+      <c r="B62" s="93"/>
+      <c r="C62" s="93"/>
+      <c r="D62" s="93"/>
+      <c r="E62" s="93"/>
+      <c r="F62" s="93"/>
+      <c r="G62" s="93"/>
+      <c r="H62" s="93"/>
+      <c r="I62" s="93"/>
+      <c r="J62" s="93"/>
+      <c r="K62" s="93"/>
+      <c r="L62" s="93"/>
+      <c r="M62" s="93"/>
+      <c r="N62" s="93"/>
+      <c r="O62" s="93"/>
+      <c r="P62" s="93"/>
+      <c r="Q62" s="93"/>
+      <c r="R62" s="93"/>
+      <c r="S62" s="93"/>
+      <c r="T62" s="93"/>
+      <c r="U62" s="93"/>
+      <c r="V62" s="93"/>
+      <c r="W62" s="93"/>
+      <c r="X62" s="93"/>
+      <c r="Y62" s="93"/>
+      <c r="Z62" s="93"/>
+      <c r="AA62" s="93"/>
+      <c r="AB62" s="93"/>
     </row>
     <row r="63" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="101"/>
-      <c r="B63" s="101"/>
-      <c r="C63" s="101"/>
-      <c r="D63" s="101"/>
-      <c r="E63" s="101"/>
-      <c r="F63" s="101"/>
-      <c r="G63" s="101"/>
-      <c r="H63" s="101"/>
-      <c r="I63" s="101"/>
-      <c r="J63" s="101"/>
-      <c r="K63" s="101"/>
-      <c r="L63" s="101"/>
-      <c r="M63" s="101"/>
-      <c r="N63" s="101"/>
-      <c r="O63" s="101"/>
-      <c r="P63" s="101"/>
-      <c r="Q63" s="101"/>
-      <c r="R63" s="101"/>
-      <c r="S63" s="101"/>
-      <c r="T63" s="101"/>
-      <c r="U63" s="101"/>
-      <c r="V63" s="101"/>
-      <c r="W63" s="101"/>
-      <c r="X63" s="101"/>
-      <c r="Y63" s="101"/>
-      <c r="Z63" s="101"/>
-      <c r="AA63" s="101"/>
-      <c r="AB63" s="101"/>
+      <c r="A63" s="93"/>
+      <c r="B63" s="93"/>
+      <c r="C63" s="93"/>
+      <c r="D63" s="93"/>
+      <c r="E63" s="93"/>
+      <c r="F63" s="93"/>
+      <c r="G63" s="93"/>
+      <c r="H63" s="93"/>
+      <c r="I63" s="93"/>
+      <c r="J63" s="93"/>
+      <c r="K63" s="93"/>
+      <c r="L63" s="93"/>
+      <c r="M63" s="93"/>
+      <c r="N63" s="93"/>
+      <c r="O63" s="93"/>
+      <c r="P63" s="93"/>
+      <c r="Q63" s="93"/>
+      <c r="R63" s="93"/>
+      <c r="S63" s="93"/>
+      <c r="T63" s="93"/>
+      <c r="U63" s="93"/>
+      <c r="V63" s="93"/>
+      <c r="W63" s="93"/>
+      <c r="X63" s="93"/>
+      <c r="Y63" s="93"/>
+      <c r="Z63" s="93"/>
+      <c r="AA63" s="93"/>
+      <c r="AB63" s="93"/>
     </row>
     <row r="64" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="101"/>
-      <c r="B64" s="101"/>
-      <c r="C64" s="101"/>
-      <c r="D64" s="101"/>
-      <c r="E64" s="101"/>
-      <c r="F64" s="101"/>
-      <c r="G64" s="101"/>
-      <c r="H64" s="101"/>
-      <c r="I64" s="101"/>
-      <c r="J64" s="101"/>
-      <c r="K64" s="101"/>
-      <c r="L64" s="101"/>
-      <c r="M64" s="101"/>
-      <c r="N64" s="101"/>
-      <c r="O64" s="101"/>
-      <c r="P64" s="101"/>
-      <c r="Q64" s="101"/>
-      <c r="R64" s="101"/>
-      <c r="S64" s="101"/>
-      <c r="T64" s="101"/>
-      <c r="U64" s="101"/>
-      <c r="V64" s="101"/>
-      <c r="W64" s="101"/>
-      <c r="X64" s="101"/>
-      <c r="Y64" s="101"/>
-      <c r="Z64" s="101"/>
-      <c r="AA64" s="101"/>
-      <c r="AB64" s="101"/>
+      <c r="A64" s="93"/>
+      <c r="B64" s="93"/>
+      <c r="C64" s="93"/>
+      <c r="D64" s="93"/>
+      <c r="E64" s="93"/>
+      <c r="F64" s="93"/>
+      <c r="G64" s="93"/>
+      <c r="H64" s="93"/>
+      <c r="I64" s="93"/>
+      <c r="J64" s="93"/>
+      <c r="K64" s="93"/>
+      <c r="L64" s="93"/>
+      <c r="M64" s="93"/>
+      <c r="N64" s="93"/>
+      <c r="O64" s="93"/>
+      <c r="P64" s="93"/>
+      <c r="Q64" s="93"/>
+      <c r="R64" s="93"/>
+      <c r="S64" s="93"/>
+      <c r="T64" s="93"/>
+      <c r="U64" s="93"/>
+      <c r="V64" s="93"/>
+      <c r="W64" s="93"/>
+      <c r="X64" s="93"/>
+      <c r="Y64" s="93"/>
+      <c r="Z64" s="93"/>
+      <c r="AA64" s="93"/>
+      <c r="AB64" s="93"/>
     </row>
     <row r="65" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="101"/>
-      <c r="B65" s="101"/>
-      <c r="C65" s="101"/>
-      <c r="D65" s="101"/>
-      <c r="E65" s="101"/>
-      <c r="F65" s="101"/>
-      <c r="G65" s="101"/>
-      <c r="H65" s="101"/>
-      <c r="I65" s="101"/>
-      <c r="J65" s="101"/>
-      <c r="K65" s="101"/>
-      <c r="L65" s="101"/>
-      <c r="M65" s="101"/>
-      <c r="N65" s="101"/>
-      <c r="O65" s="101"/>
-      <c r="P65" s="101"/>
-      <c r="Q65" s="101"/>
-      <c r="R65" s="101"/>
-      <c r="S65" s="101"/>
-      <c r="T65" s="101"/>
-      <c r="U65" s="101"/>
-      <c r="V65" s="101"/>
-      <c r="W65" s="101"/>
-      <c r="X65" s="101"/>
-      <c r="Y65" s="101"/>
-      <c r="Z65" s="101"/>
-      <c r="AA65" s="101"/>
-      <c r="AB65" s="101"/>
+      <c r="A65" s="93"/>
+      <c r="B65" s="93"/>
+      <c r="C65" s="93"/>
+      <c r="D65" s="93"/>
+      <c r="E65" s="93"/>
+      <c r="F65" s="93"/>
+      <c r="G65" s="93"/>
+      <c r="H65" s="93"/>
+      <c r="I65" s="93"/>
+      <c r="J65" s="93"/>
+      <c r="K65" s="93"/>
+      <c r="L65" s="93"/>
+      <c r="M65" s="93"/>
+      <c r="N65" s="93"/>
+      <c r="O65" s="93"/>
+      <c r="P65" s="93"/>
+      <c r="Q65" s="93"/>
+      <c r="R65" s="93"/>
+      <c r="S65" s="93"/>
+      <c r="T65" s="93"/>
+      <c r="U65" s="93"/>
+      <c r="V65" s="93"/>
+      <c r="W65" s="93"/>
+      <c r="X65" s="93"/>
+      <c r="Y65" s="93"/>
+      <c r="Z65" s="93"/>
+      <c r="AA65" s="93"/>
+      <c r="AB65" s="93"/>
     </row>
     <row r="66" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="101"/>
-      <c r="B66" s="101"/>
-      <c r="C66" s="101"/>
-      <c r="D66" s="101"/>
-      <c r="E66" s="101"/>
-      <c r="F66" s="101"/>
-      <c r="G66" s="101"/>
-      <c r="H66" s="101"/>
-      <c r="I66" s="101"/>
-      <c r="J66" s="101"/>
-      <c r="K66" s="101"/>
-      <c r="L66" s="101"/>
-      <c r="M66" s="101"/>
-      <c r="N66" s="101"/>
-      <c r="O66" s="101"/>
-      <c r="P66" s="101"/>
-      <c r="Q66" s="101"/>
-      <c r="R66" s="101"/>
-      <c r="S66" s="101"/>
-      <c r="T66" s="101"/>
-      <c r="U66" s="101"/>
-      <c r="V66" s="101"/>
-      <c r="W66" s="101"/>
-      <c r="X66" s="101"/>
-      <c r="Y66" s="101"/>
-      <c r="Z66" s="101"/>
-      <c r="AA66" s="101"/>
-      <c r="AB66" s="101"/>
+      <c r="A66" s="93"/>
+      <c r="B66" s="93"/>
+      <c r="C66" s="93"/>
+      <c r="D66" s="93"/>
+      <c r="E66" s="93"/>
+      <c r="F66" s="93"/>
+      <c r="G66" s="93"/>
+      <c r="H66" s="93"/>
+      <c r="I66" s="93"/>
+      <c r="J66" s="93"/>
+      <c r="K66" s="93"/>
+      <c r="L66" s="93"/>
+      <c r="M66" s="93"/>
+      <c r="N66" s="93"/>
+      <c r="O66" s="93"/>
+      <c r="P66" s="93"/>
+      <c r="Q66" s="93"/>
+      <c r="R66" s="93"/>
+      <c r="S66" s="93"/>
+      <c r="T66" s="93"/>
+      <c r="U66" s="93"/>
+      <c r="V66" s="93"/>
+      <c r="W66" s="93"/>
+      <c r="X66" s="93"/>
+      <c r="Y66" s="93"/>
+      <c r="Z66" s="93"/>
+      <c r="AA66" s="93"/>
+      <c r="AB66" s="93"/>
     </row>
     <row r="67" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="101"/>
-      <c r="B67" s="101"/>
-      <c r="C67" s="101"/>
-      <c r="D67" s="101"/>
-      <c r="E67" s="101"/>
-      <c r="F67" s="101"/>
-      <c r="G67" s="101"/>
-      <c r="H67" s="101"/>
-      <c r="I67" s="101"/>
-      <c r="J67" s="101"/>
-      <c r="K67" s="101"/>
-      <c r="L67" s="101"/>
-      <c r="M67" s="101"/>
-      <c r="N67" s="101"/>
-      <c r="O67" s="101"/>
-      <c r="P67" s="101"/>
-      <c r="Q67" s="101"/>
-      <c r="R67" s="101"/>
-      <c r="S67" s="101"/>
-      <c r="T67" s="101"/>
-      <c r="U67" s="101"/>
-      <c r="V67" s="101"/>
-      <c r="W67" s="101"/>
-      <c r="X67" s="101"/>
-      <c r="Y67" s="101"/>
-      <c r="Z67" s="101"/>
-      <c r="AA67" s="101"/>
-      <c r="AB67" s="101"/>
+      <c r="A67" s="93"/>
+      <c r="B67" s="93"/>
+      <c r="C67" s="93"/>
+      <c r="D67" s="93"/>
+      <c r="E67" s="93"/>
+      <c r="F67" s="93"/>
+      <c r="G67" s="93"/>
+      <c r="H67" s="93"/>
+      <c r="I67" s="93"/>
+      <c r="J67" s="93"/>
+      <c r="K67" s="93"/>
+      <c r="L67" s="93"/>
+      <c r="M67" s="93"/>
+      <c r="N67" s="93"/>
+      <c r="O67" s="93"/>
+      <c r="P67" s="93"/>
+      <c r="Q67" s="93"/>
+      <c r="R67" s="93"/>
+      <c r="S67" s="93"/>
+      <c r="T67" s="93"/>
+      <c r="U67" s="93"/>
+      <c r="V67" s="93"/>
+      <c r="W67" s="93"/>
+      <c r="X67" s="93"/>
+      <c r="Y67" s="93"/>
+      <c r="Z67" s="93"/>
+      <c r="AA67" s="93"/>
+      <c r="AB67" s="93"/>
     </row>
     <row r="68" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="6"/>
@@ -6450,24 +6465,26 @@
     <row r="235" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="C19:K19"/>
-    <mergeCell ref="C20:K20"/>
-    <mergeCell ref="K23:S23"/>
-    <mergeCell ref="K47:S47"/>
-    <mergeCell ref="A24:AB45"/>
-    <mergeCell ref="U10:X10"/>
-    <mergeCell ref="Y10:AB10"/>
-    <mergeCell ref="Y11:AB11"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="Y13:AB13"/>
-    <mergeCell ref="C13:K13"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="C10:K10"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="U11:X11"/>
-    <mergeCell ref="A17:B21"/>
-    <mergeCell ref="C17:K17"/>
-    <mergeCell ref="C18:K18"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="F6:AB6"/>
+    <mergeCell ref="W4:AB4"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="F5:T5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="W5:AB5"/>
+    <mergeCell ref="A1:AB3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="F4:Q4"/>
+    <mergeCell ref="R4:S4"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="U7:W7"/>
+    <mergeCell ref="X7:AB7"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="F8:T8"/>
+    <mergeCell ref="U8:W8"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="F7:T7"/>
+    <mergeCell ref="X8:AB8"/>
     <mergeCell ref="A48:AB67"/>
     <mergeCell ref="U12:X12"/>
     <mergeCell ref="Y12:AB12"/>
@@ -6484,26 +6501,24 @@
     <mergeCell ref="U13:X13"/>
     <mergeCell ref="Q10:T10"/>
     <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="U7:W7"/>
-    <mergeCell ref="X7:AB7"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="F8:T8"/>
-    <mergeCell ref="U8:W8"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="F7:T7"/>
-    <mergeCell ref="X8:AB8"/>
-    <mergeCell ref="A1:AB3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="F4:Q4"/>
-    <mergeCell ref="R4:S4"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="F6:AB6"/>
-    <mergeCell ref="W4:AB4"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="F5:T5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="W5:AB5"/>
+    <mergeCell ref="C13:K13"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="C10:K10"/>
+    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="U11:X11"/>
+    <mergeCell ref="U10:X10"/>
+    <mergeCell ref="Y10:AB10"/>
+    <mergeCell ref="Y11:AB11"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="Y13:AB13"/>
+    <mergeCell ref="C19:K19"/>
+    <mergeCell ref="C20:K20"/>
+    <mergeCell ref="K23:S23"/>
+    <mergeCell ref="K47:S47"/>
+    <mergeCell ref="A24:AB45"/>
+    <mergeCell ref="A17:B21"/>
+    <mergeCell ref="C17:K17"/>
+    <mergeCell ref="C18:K18"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="0.78749999999999998" bottom="0.78750000000000009" header="0.51180555555555562" footer="0.51180555555555562"/>
@@ -6518,11 +6533,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Plan1"/>
-  <dimension ref="A1:V119"/>
+  <dimension ref="A1:V121"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P32" sqref="P32"/>
+      <pane ySplit="7" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -6549,167 +6564,167 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="120" t="s">
+      <c r="A1" s="113" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="121"/>
-      <c r="C1" s="121"/>
-      <c r="D1" s="121"/>
-      <c r="E1" s="121"/>
-      <c r="F1" s="121"/>
-      <c r="G1" s="121"/>
-      <c r="H1" s="121"/>
-      <c r="I1" s="121"/>
-      <c r="J1" s="121"/>
-      <c r="K1" s="121"/>
-      <c r="L1" s="121"/>
-      <c r="M1" s="121"/>
-      <c r="N1" s="121"/>
-      <c r="O1" s="121"/>
-      <c r="P1" s="121"/>
-      <c r="Q1" s="121"/>
-      <c r="R1" s="121"/>
-      <c r="S1" s="121"/>
-      <c r="T1" s="121"/>
-      <c r="U1" s="121"/>
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="114"/>
+      <c r="J1" s="114"/>
+      <c r="K1" s="114"/>
+      <c r="L1" s="114"/>
+      <c r="M1" s="114"/>
+      <c r="N1" s="114"/>
+      <c r="O1" s="114"/>
+      <c r="P1" s="114"/>
+      <c r="Q1" s="114"/>
+      <c r="R1" s="114"/>
+      <c r="S1" s="114"/>
+      <c r="T1" s="114"/>
+      <c r="U1" s="114"/>
       <c r="V1" s="10"/>
     </row>
     <row r="2" spans="1:22" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="120"/>
-      <c r="B2" s="121"/>
-      <c r="C2" s="121"/>
-      <c r="D2" s="121"/>
-      <c r="E2" s="121"/>
-      <c r="F2" s="121"/>
-      <c r="G2" s="121"/>
-      <c r="H2" s="121"/>
-      <c r="I2" s="121"/>
-      <c r="J2" s="121"/>
-      <c r="K2" s="121"/>
-      <c r="L2" s="121"/>
-      <c r="M2" s="121"/>
-      <c r="N2" s="121"/>
-      <c r="O2" s="121"/>
-      <c r="P2" s="121"/>
-      <c r="Q2" s="121"/>
-      <c r="R2" s="121"/>
-      <c r="S2" s="121"/>
-      <c r="T2" s="121"/>
-      <c r="U2" s="121"/>
+      <c r="A2" s="113"/>
+      <c r="B2" s="114"/>
+      <c r="C2" s="114"/>
+      <c r="D2" s="114"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="114"/>
+      <c r="G2" s="114"/>
+      <c r="H2" s="114"/>
+      <c r="I2" s="114"/>
+      <c r="J2" s="114"/>
+      <c r="K2" s="114"/>
+      <c r="L2" s="114"/>
+      <c r="M2" s="114"/>
+      <c r="N2" s="114"/>
+      <c r="O2" s="114"/>
+      <c r="P2" s="114"/>
+      <c r="Q2" s="114"/>
+      <c r="R2" s="114"/>
+      <c r="S2" s="114"/>
+      <c r="T2" s="114"/>
+      <c r="U2" s="114"/>
       <c r="V2" s="10"/>
     </row>
     <row r="3" spans="1:22" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="122"/>
-      <c r="B3" s="107"/>
-      <c r="C3" s="107"/>
-      <c r="D3" s="107"/>
-      <c r="E3" s="107"/>
-      <c r="F3" s="107"/>
-      <c r="G3" s="107"/>
-      <c r="H3" s="107"/>
-      <c r="I3" s="107"/>
-      <c r="J3" s="107"/>
-      <c r="K3" s="107"/>
-      <c r="L3" s="107"/>
-      <c r="M3" s="107"/>
-      <c r="N3" s="107"/>
-      <c r="O3" s="107"/>
-      <c r="P3" s="107"/>
-      <c r="Q3" s="107"/>
-      <c r="R3" s="107"/>
-      <c r="S3" s="107"/>
-      <c r="T3" s="107"/>
-      <c r="U3" s="107"/>
+      <c r="A3" s="115"/>
+      <c r="B3" s="92"/>
+      <c r="C3" s="92"/>
+      <c r="D3" s="92"/>
+      <c r="E3" s="92"/>
+      <c r="F3" s="92"/>
+      <c r="G3" s="92"/>
+      <c r="H3" s="92"/>
+      <c r="I3" s="92"/>
+      <c r="J3" s="92"/>
+      <c r="K3" s="92"/>
+      <c r="L3" s="92"/>
+      <c r="M3" s="92"/>
+      <c r="N3" s="92"/>
+      <c r="O3" s="92"/>
+      <c r="P3" s="92"/>
+      <c r="Q3" s="92"/>
+      <c r="R3" s="92"/>
+      <c r="S3" s="92"/>
+      <c r="T3" s="92"/>
+      <c r="U3" s="92"/>
       <c r="V3" s="10"/>
     </row>
     <row r="4" spans="1:22" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="123" t="str">
+      <c r="A4" s="116" t="str">
         <f>Contagem!A5&amp;" : "&amp;Contagem!F5</f>
         <v>Aplicação : Eits desafio</v>
       </c>
-      <c r="B4" s="123"/>
-      <c r="C4" s="123"/>
-      <c r="D4" s="123"/>
-      <c r="E4" s="123"/>
-      <c r="F4" s="123"/>
-      <c r="G4" s="115" t="str">
+      <c r="B4" s="116"/>
+      <c r="C4" s="116"/>
+      <c r="D4" s="116"/>
+      <c r="E4" s="116"/>
+      <c r="F4" s="116"/>
+      <c r="G4" s="117" t="str">
         <f>Contagem!A6&amp;" : "&amp;Contagem!F6</f>
         <v>Projeto : Eits desafio</v>
       </c>
-      <c r="H4" s="115"/>
-      <c r="I4" s="115"/>
-      <c r="J4" s="115"/>
-      <c r="K4" s="115"/>
-      <c r="L4" s="115"/>
-      <c r="M4" s="115"/>
-      <c r="N4" s="115"/>
-      <c r="O4" s="115"/>
-      <c r="P4" s="115"/>
-      <c r="Q4" s="115"/>
-      <c r="R4" s="115"/>
-      <c r="S4" s="115"/>
-      <c r="T4" s="115"/>
-      <c r="U4" s="115"/>
-      <c r="V4" s="115"/>
+      <c r="H4" s="117"/>
+      <c r="I4" s="117"/>
+      <c r="J4" s="117"/>
+      <c r="K4" s="117"/>
+      <c r="L4" s="117"/>
+      <c r="M4" s="117"/>
+      <c r="N4" s="117"/>
+      <c r="O4" s="117"/>
+      <c r="P4" s="117"/>
+      <c r="Q4" s="117"/>
+      <c r="R4" s="117"/>
+      <c r="S4" s="117"/>
+      <c r="T4" s="117"/>
+      <c r="U4" s="117"/>
+      <c r="V4" s="117"/>
     </row>
     <row r="5" spans="1:22" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="124" t="str">
+      <c r="A5" s="118" t="str">
         <f>Contagem!A7&amp;" : "&amp;Contagem!F7</f>
         <v>Responsável : André Luiz</v>
       </c>
-      <c r="B5" s="124"/>
-      <c r="C5" s="124"/>
-      <c r="D5" s="124"/>
-      <c r="E5" s="124"/>
-      <c r="F5" s="124"/>
-      <c r="G5" s="115" t="str">
+      <c r="B5" s="118"/>
+      <c r="C5" s="118"/>
+      <c r="D5" s="118"/>
+      <c r="E5" s="118"/>
+      <c r="F5" s="118"/>
+      <c r="G5" s="117" t="str">
         <f>Contagem!A8&amp;" : "&amp;Contagem!F8</f>
         <v>Revisor : André Luiz</v>
       </c>
-      <c r="H5" s="115"/>
-      <c r="I5" s="115"/>
-      <c r="J5" s="115"/>
-      <c r="K5" s="115"/>
-      <c r="L5" s="115"/>
-      <c r="M5" s="115"/>
-      <c r="N5" s="115"/>
-      <c r="O5" s="115"/>
-      <c r="P5" s="115"/>
-      <c r="Q5" s="115"/>
-      <c r="R5" s="115"/>
-      <c r="S5" s="115"/>
-      <c r="T5" s="115"/>
-      <c r="U5" s="115"/>
-      <c r="V5" s="115"/>
+      <c r="H5" s="117"/>
+      <c r="I5" s="117"/>
+      <c r="J5" s="117"/>
+      <c r="K5" s="117"/>
+      <c r="L5" s="117"/>
+      <c r="M5" s="117"/>
+      <c r="N5" s="117"/>
+      <c r="O5" s="117"/>
+      <c r="P5" s="117"/>
+      <c r="Q5" s="117"/>
+      <c r="R5" s="117"/>
+      <c r="S5" s="117"/>
+      <c r="T5" s="117"/>
+      <c r="U5" s="117"/>
+      <c r="V5" s="117"/>
     </row>
     <row r="6" spans="1:22" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="114" t="str">
+      <c r="A6" s="126" t="str">
         <f>Contagem!A4&amp;" : "&amp;Contagem!F4</f>
         <v>Empresa : André Luiz</v>
       </c>
-      <c r="B6" s="114"/>
-      <c r="C6" s="114"/>
-      <c r="D6" s="114"/>
-      <c r="E6" s="114"/>
-      <c r="F6" s="115" t="str">
+      <c r="B6" s="126"/>
+      <c r="C6" s="126"/>
+      <c r="D6" s="126"/>
+      <c r="E6" s="126"/>
+      <c r="F6" s="117" t="str">
         <f>Contagem!R4&amp;" = "&amp;VALUE(Contagem!T4)</f>
         <v>R$/PF = 0</v>
       </c>
-      <c r="G6" s="115"/>
-      <c r="H6" s="118" t="str">
+      <c r="G6" s="117"/>
+      <c r="H6" s="111" t="str">
         <f>" Custo= "&amp;DOLLAR(Contagem!W4)</f>
         <v xml:space="preserve"> Custo= R$ 0,00</v>
       </c>
-      <c r="I6" s="118"/>
-      <c r="J6" s="118"/>
-      <c r="K6" s="118"/>
-      <c r="L6" s="118"/>
-      <c r="M6" s="118"/>
-      <c r="N6" s="119" t="str">
+      <c r="I6" s="111"/>
+      <c r="J6" s="111"/>
+      <c r="K6" s="111"/>
+      <c r="L6" s="111"/>
+      <c r="M6" s="111"/>
+      <c r="N6" s="112" t="str">
         <f>"PF  = "&amp;VALUE(Contagem!W5)</f>
-        <v>PF  = 79</v>
-      </c>
-      <c r="O6" s="119"/>
+        <v>PF  = 73</v>
+      </c>
+      <c r="O6" s="112"/>
       <c r="P6" s="87"/>
       <c r="R6" s="70"/>
       <c r="S6" s="70"/>
@@ -6719,19 +6734,19 @@
       </c>
       <c r="U6" s="86">
         <f>IF(Contagem!L17="x", Sumário!G51, IF(Contagem!L18="x", Sumário!G50, IF(Contagem!L19="x", Sumário!G49, 0)))</f>
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="V6" s="71"/>
     </row>
     <row r="7" spans="1:22" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="125" t="s">
+      <c r="A7" s="119" t="s">
         <v>65</v>
       </c>
-      <c r="B7" s="125"/>
-      <c r="C7" s="125"/>
-      <c r="D7" s="125"/>
-      <c r="E7" s="125"/>
-      <c r="F7" s="125"/>
+      <c r="B7" s="119"/>
+      <c r="C7" s="119"/>
+      <c r="D7" s="119"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="119"/>
       <c r="G7" s="66" t="s">
         <v>23</v>
       </c>
@@ -6765,21 +6780,21 @@
       <c r="Q7" s="82"/>
       <c r="R7" s="82"/>
       <c r="S7" s="82"/>
-      <c r="T7" s="116" t="s">
+      <c r="T7" s="109" t="s">
         <v>29</v>
       </c>
-      <c r="U7" s="117"/>
+      <c r="U7" s="110"/>
       <c r="V7" s="72"/>
     </row>
     <row r="8" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="108" t="s">
+      <c r="A8" s="120" t="s">
         <v>77</v>
       </c>
-      <c r="B8" s="109"/>
-      <c r="C8" s="109"/>
-      <c r="D8" s="109"/>
-      <c r="E8" s="109"/>
-      <c r="F8" s="110"/>
+      <c r="B8" s="121"/>
+      <c r="C8" s="121"/>
+      <c r="D8" s="121"/>
+      <c r="E8" s="121"/>
+      <c r="F8" s="122"/>
       <c r="G8" s="16"/>
       <c r="H8" s="16"/>
       <c r="I8" s="16"/>
@@ -6807,20 +6822,20 @@
       <c r="V8" s="14"/>
     </row>
     <row r="9" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="111" t="s">
+      <c r="A9" s="123" t="s">
         <v>78</v>
       </c>
-      <c r="B9" s="112"/>
-      <c r="C9" s="112"/>
-      <c r="D9" s="112"/>
-      <c r="E9" s="112"/>
-      <c r="F9" s="113"/>
+      <c r="B9" s="124"/>
+      <c r="C9" s="124"/>
+      <c r="D9" s="124"/>
+      <c r="E9" s="124"/>
+      <c r="F9" s="125"/>
       <c r="G9" s="16"/>
       <c r="H9" s="16"/>
       <c r="I9" s="16"/>
       <c r="J9" s="16"/>
       <c r="K9" s="16" t="str">
-        <f t="shared" ref="K9:K28" si="0">CONCATENATE(G9,L9)</f>
+        <f t="shared" ref="K9:K30" si="0">CONCATENATE(G9,L9)</f>
         <v/>
       </c>
       <c r="L9" s="17" t="str">
@@ -6828,11 +6843,11 @@
         <v/>
       </c>
       <c r="M9" s="18" t="str">
-        <f t="shared" ref="M9:M28" si="2">IF(L9="L","Baixa",IF(L9="A","Média",IF(L9="","","Alta")))</f>
+        <f t="shared" ref="M9:M30" si="2">IF(L9="L","Baixa",IF(L9="A","Média",IF(L9="","","Alta")))</f>
         <v/>
       </c>
       <c r="N9" s="19" t="str">
-        <f t="shared" ref="N9:N28" si="3">IF(ISBLANK(G9),"",IF(G9="ALI",IF(L9="L",7,IF(L9="A",10,15)),IF(G9="AIE",IF(L9="L",5,IF(L9="A",7,10)),IF(G9="SE",IF(L9="L",4,IF(L9="A",5,7)),IF(OR(G9="EE",G9="CE"),IF(L9="L",3,IF(L9="A",4,6)))))))</f>
+        <f t="shared" ref="N9:N30" si="3">IF(ISBLANK(G9),"",IF(G9="ALI",IF(L9="L",7,IF(L9="A",10,15)),IF(G9="AIE",IF(L9="L",5,IF(L9="A",7,10)),IF(G9="SE",IF(L9="L",4,IF(L9="A",5,7)),IF(OR(G9="EE",G9="CE"),IF(L9="L",3,IF(L9="A",4,6)))))))</f>
         <v/>
       </c>
       <c r="O9" s="20" t="str">
@@ -6845,11 +6860,11 @@
         <v>0.4</v>
       </c>
       <c r="R9" s="83" t="b">
-        <f t="shared" ref="R9:R28" si="4">IF(G9="ALI",35*Q9,IF(G9="AIE",15*Q9))</f>
+        <f t="shared" ref="R9:R30" si="4">IF(G9="ALI",35*Q9,IF(G9="AIE",15*Q9))</f>
         <v>0</v>
       </c>
       <c r="S9" s="14" t="b">
-        <f t="shared" ref="S9:S28" si="5">IF(OR(G9="EE",G9="CE"),IF(H9="I",4,(4*Q9)),IF(G9="SE",IF(H9="I",5, 5*Q9),IF(G9="ALI", IF(H9="I", 7, 7*Q9), IF(G9="AIE", IF(H9="I", 5, 5*Q9)))))</f>
+        <f t="shared" ref="S9:S30" si="5">IF(OR(G9="EE",G9="CE"),IF(H9="I",4,(4*Q9)),IF(G9="SE",IF(H9="I",5, 5*Q9),IF(G9="ALI", IF(H9="I", 7, 7*Q9), IF(G9="AIE", IF(H9="I", 5, 5*Q9)))))</f>
         <v>0</v>
       </c>
       <c r="T9" s="14" t="s">
@@ -7114,7 +7129,7 @@
         <v>79</v>
       </c>
       <c r="I14" s="16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J14" s="16">
         <v>1</v>
@@ -7159,14 +7174,14 @@
       <c r="V14" s="14"/>
     </row>
     <row r="15" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="111" t="s">
+      <c r="A15" s="123" t="s">
         <v>90</v>
       </c>
-      <c r="B15" s="112"/>
-      <c r="C15" s="112"/>
-      <c r="D15" s="112"/>
-      <c r="E15" s="112"/>
-      <c r="F15" s="113"/>
+      <c r="B15" s="124"/>
+      <c r="C15" s="124"/>
+      <c r="D15" s="124"/>
+      <c r="E15" s="124"/>
+      <c r="F15" s="125"/>
       <c r="G15" s="16"/>
       <c r="H15" s="16"/>
       <c r="I15" s="16"/>
@@ -7226,7 +7241,7 @@
         <v>79</v>
       </c>
       <c r="I16" s="16">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J16" s="16">
         <v>2</v>
@@ -7236,7 +7251,7 @@
         <v>EEA</v>
       </c>
       <c r="L16" s="17" t="str">
-        <f>IF(OR(ISBLANK(P30),ISBLANK(J16)),IF(OR(G16="ALI",G16="AIE"),"L",IF(ISBLANK(G16),"","A")),IF(G16="EE",IF(J16&gt;=3,IF(P30&gt;=5,"H","A"),IF(J16&gt;=2,IF(P30&gt;=16,"H",IF(P30&lt;=4,"L","A")),IF(P30&lt;=15,"L","A"))),IF(OR(G16="SE",G16="CE"),IF(J16&gt;=4,IF(P30&gt;=6,"H","A"),IF(J16&gt;=2,IF(P30&gt;=20,"H",IF(P30&lt;=5,"L","A")),IF(P30&lt;=19,"L","A"))),IF(OR(G16="ALI",G16="AIE"),IF(J16&gt;=6,IF(P30&gt;=20,"H","A"),IF(J16&gt;=2,IF(P30&gt;=51,"H",IF(P30&lt;=19,"L","A")),IF(P30&lt;=50,"L","A")))))))</f>
+        <f>IF(OR(ISBLANK(P32),ISBLANK(J16)),IF(OR(G16="ALI",G16="AIE"),"L",IF(ISBLANK(G16),"","A")),IF(G16="EE",IF(J16&gt;=3,IF(P32&gt;=5,"H","A"),IF(J16&gt;=2,IF(P32&gt;=16,"H",IF(P32&lt;=4,"L","A")),IF(P32&lt;=15,"L","A"))),IF(OR(G16="SE",G16="CE"),IF(J16&gt;=4,IF(P32&gt;=6,"H","A"),IF(J16&gt;=2,IF(P32&gt;=20,"H",IF(P32&lt;=5,"L","A")),IF(P32&lt;=19,"L","A"))),IF(OR(G16="ALI",G16="AIE"),IF(J16&gt;=6,IF(P32&gt;=20,"H","A"),IF(J16&gt;=2,IF(P32&gt;=51,"H",IF(P32&lt;=19,"L","A")),IF(P32&lt;=50,"L","A")))))))</f>
         <v>A</v>
       </c>
       <c r="M16" s="18" t="str">
@@ -7272,7 +7287,7 @@
     </row>
     <row r="17" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B17" s="14"/>
       <c r="C17" s="14"/>
@@ -7280,13 +7295,13 @@
       <c r="E17" s="14"/>
       <c r="F17" s="15"/>
       <c r="G17" s="16" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="H17" s="16" t="s">
-        <v>114</v>
+        <v>79</v>
       </c>
       <c r="I17" s="16">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J17" s="16">
         <v>2</v>
@@ -7297,26 +7312,24 @@
         <f t="shared" ref="M17" si="6">IF(L17="L","Baixa",IF(L17="A","Média",IF(L17="","","Alta")))</f>
         <v/>
       </c>
-      <c r="N17" s="19">
-        <v>4</v>
-      </c>
+      <c r="N17" s="19"/>
       <c r="O17" s="20">
         <f>IF(H17="I",N17*Contagem!$U$11,IF(H17="E",N17*Contagem!$U$13,IF(H17="A",N17*Contagem!$U$12,IF(H17="T",N17*Contagem!$U$14,""))))</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P17" s="16"/>
       <c r="Q17" s="83"/>
       <c r="R17" s="83"/>
       <c r="S17" s="14"/>
       <c r="T17" s="14" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="U17" s="14"/>
       <c r="V17" s="14"/>
     </row>
     <row r="18" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
-        <v>85</v>
+        <v>114</v>
       </c>
       <c r="B18" s="14"/>
       <c r="C18" s="14"/>
@@ -7324,59 +7337,35 @@
       <c r="E18" s="14"/>
       <c r="F18" s="15"/>
       <c r="G18" s="16" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="H18" s="16" t="s">
         <v>79</v>
       </c>
       <c r="I18" s="16">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J18" s="16">
         <v>2</v>
       </c>
-      <c r="K18" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v>EEA</v>
-      </c>
-      <c r="L18" s="17" t="str">
-        <f>IF(OR(ISBLANK(P31),ISBLANK(J18)),IF(OR(G18="ALI",G18="AIE"),"L",IF(ISBLANK(G18),"","A")),IF(G18="EE",IF(J18&gt;=3,IF(P31&gt;=5,"H","A"),IF(J18&gt;=2,IF(P31&gt;=16,"H",IF(P31&lt;=4,"L","A")),IF(P31&lt;=15,"L","A"))),IF(OR(G18="SE",G18="CE"),IF(J18&gt;=4,IF(P31&gt;=6,"H","A"),IF(J18&gt;=2,IF(P31&gt;=20,"H",IF(P31&lt;=5,"L","A")),IF(P31&lt;=19,"L","A"))),IF(OR(G18="ALI",G18="AIE"),IF(J18&gt;=6,IF(P31&gt;=20,"H","A"),IF(J18&gt;=2,IF(P31&gt;=51,"H",IF(P31&lt;=19,"L","A")),IF(P31&lt;=50,"L","A")))))))</f>
-        <v>A</v>
-      </c>
-      <c r="M18" s="18" t="str">
-        <f t="shared" si="2"/>
-        <v>Média</v>
-      </c>
-      <c r="N18" s="19">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="O18" s="20">
-        <f>IF(H18="I",N18*Contagem!$U$11,IF(H18="E",N18*Contagem!$U$13,IF(H18="A",N18*Contagem!$U$12,IF(H18="T",N18*Contagem!$U$14,""))))</f>
-        <v>4</v>
-      </c>
+      <c r="K18" s="16"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="18"/>
+      <c r="N18" s="19"/>
+      <c r="O18" s="20"/>
       <c r="P18" s="16"/>
-      <c r="Q18" s="83">
-        <f>IF(H18="I", Sumário!$F$55, IF(H18="A", Sumário!$F$56, Sumário!$F$57))</f>
-        <v>1</v>
-      </c>
-      <c r="R18" s="83" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="S18" s="14">
-        <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
+      <c r="Q18" s="83"/>
+      <c r="R18" s="83"/>
+      <c r="S18" s="14"/>
       <c r="T18" s="14" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="U18" s="14"/>
       <c r="V18" s="14"/>
     </row>
     <row r="19" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B19" s="14"/>
       <c r="C19" s="14"/>
@@ -7384,23 +7373,23 @@
       <c r="E19" s="14"/>
       <c r="F19" s="15"/>
       <c r="G19" s="16" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="H19" s="16" t="s">
         <v>79</v>
       </c>
       <c r="I19" s="16">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J19" s="16">
         <v>2</v>
       </c>
       <c r="K19" s="16" t="str">
         <f t="shared" si="0"/>
-        <v>CEA</v>
+        <v>EEA</v>
       </c>
       <c r="L19" s="17" t="str">
-        <f>IF(OR(ISBLANK(P32),ISBLANK(J19)),IF(OR(G19="ALI",G19="AIE"),"L",IF(ISBLANK(G19),"","A")),IF(G19="EE",IF(J19&gt;=3,IF(P32&gt;=5,"H","A"),IF(J19&gt;=2,IF(P32&gt;=16,"H",IF(P32&lt;=4,"L","A")),IF(P32&lt;=15,"L","A"))),IF(OR(G19="SE",G19="CE"),IF(J19&gt;=4,IF(P32&gt;=6,"H","A"),IF(J19&gt;=2,IF(P32&gt;=20,"H",IF(P32&lt;=5,"L","A")),IF(P32&lt;=19,"L","A"))),IF(OR(G19="ALI",G19="AIE"),IF(J19&gt;=6,IF(P32&gt;=20,"H","A"),IF(J19&gt;=2,IF(P32&gt;=51,"H",IF(P32&lt;=19,"L","A")),IF(P32&lt;=50,"L","A")))))))</f>
+        <f>IF(OR(ISBLANK(P33),ISBLANK(J19)),IF(OR(G19="ALI",G19="AIE"),"L",IF(ISBLANK(G19),"","A")),IF(G19="EE",IF(J19&gt;=3,IF(P33&gt;=5,"H","A"),IF(J19&gt;=2,IF(P33&gt;=16,"H",IF(P33&lt;=4,"L","A")),IF(P33&lt;=15,"L","A"))),IF(OR(G19="SE",G19="CE"),IF(J19&gt;=4,IF(P33&gt;=6,"H","A"),IF(J19&gt;=2,IF(P33&gt;=20,"H",IF(P33&lt;=5,"L","A")),IF(P33&lt;=19,"L","A"))),IF(OR(G19="ALI",G19="AIE"),IF(J19&gt;=6,IF(P33&gt;=20,"H","A"),IF(J19&gt;=2,IF(P33&gt;=51,"H",IF(P33&lt;=19,"L","A")),IF(P33&lt;=50,"L","A")))))))</f>
         <v>A</v>
       </c>
       <c r="M19" s="18" t="str">
@@ -7429,14 +7418,14 @@
         <v>4</v>
       </c>
       <c r="T19" s="14" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="U19" s="14"/>
       <c r="V19" s="14"/>
     </row>
     <row r="20" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B20" s="14"/>
       <c r="C20" s="14"/>
@@ -7460,7 +7449,7 @@
         <v>CEA</v>
       </c>
       <c r="L20" s="17" t="str">
-        <f>IF(OR(ISBLANK(P33),ISBLANK(J20)),IF(OR(G20="ALI",G20="AIE"),"L",IF(ISBLANK(G20),"","A")),IF(G20="EE",IF(J20&gt;=3,IF(P33&gt;=5,"H","A"),IF(J20&gt;=2,IF(P33&gt;=16,"H",IF(P33&lt;=4,"L","A")),IF(P33&lt;=15,"L","A"))),IF(OR(G20="SE",G20="CE"),IF(J20&gt;=4,IF(P33&gt;=6,"H","A"),IF(J20&gt;=2,IF(P33&gt;=20,"H",IF(P33&lt;=5,"L","A")),IF(P33&lt;=19,"L","A"))),IF(OR(G20="ALI",G20="AIE"),IF(J20&gt;=6,IF(P33&gt;=20,"H","A"),IF(J20&gt;=2,IF(P33&gt;=51,"H",IF(P33&lt;=19,"L","A")),IF(P33&lt;=50,"L","A")))))))</f>
+        <f>IF(OR(ISBLANK(P34),ISBLANK(J20)),IF(OR(G20="ALI",G20="AIE"),"L",IF(ISBLANK(G20),"","A")),IF(G20="EE",IF(J20&gt;=3,IF(P34&gt;=5,"H","A"),IF(J20&gt;=2,IF(P34&gt;=16,"H",IF(P34&lt;=4,"L","A")),IF(P34&lt;=15,"L","A"))),IF(OR(G20="SE",G20="CE"),IF(J20&gt;=4,IF(P34&gt;=6,"H","A"),IF(J20&gt;=2,IF(P34&gt;=20,"H",IF(P34&lt;=5,"L","A")),IF(P34&lt;=19,"L","A"))),IF(OR(G20="ALI",G20="AIE"),IF(J20&gt;=6,IF(P34&gt;=20,"H","A"),IF(J20&gt;=2,IF(P34&gt;=51,"H",IF(P34&lt;=19,"L","A")),IF(P34&lt;=50,"L","A")))))))</f>
         <v>A</v>
       </c>
       <c r="M20" s="18" t="str">
@@ -7489,14 +7478,14 @@
         <v>4</v>
       </c>
       <c r="T20" s="14" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="U20" s="14"/>
       <c r="V20" s="14"/>
     </row>
     <row r="21" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B21" s="14"/>
       <c r="C21" s="14"/>
@@ -7504,23 +7493,23 @@
       <c r="E21" s="14"/>
       <c r="F21" s="15"/>
       <c r="G21" s="16" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="H21" s="16" t="s">
         <v>79</v>
       </c>
       <c r="I21" s="16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J21" s="16">
         <v>2</v>
       </c>
       <c r="K21" s="16" t="str">
         <f t="shared" si="0"/>
-        <v>EEA</v>
+        <v>CEA</v>
       </c>
       <c r="L21" s="17" t="str">
-        <f>IF(OR(ISBLANK(P34),ISBLANK(J21)),IF(OR(G21="ALI",G21="AIE"),"L",IF(ISBLANK(G21),"","A")),IF(G21="EE",IF(J21&gt;=3,IF(P34&gt;=5,"H","A"),IF(J21&gt;=2,IF(P34&gt;=16,"H",IF(P34&lt;=4,"L","A")),IF(P34&lt;=15,"L","A"))),IF(OR(G21="SE",G21="CE"),IF(J21&gt;=4,IF(P34&gt;=6,"H","A"),IF(J21&gt;=2,IF(P34&gt;=20,"H",IF(P34&lt;=5,"L","A")),IF(P34&lt;=19,"L","A"))),IF(OR(G21="ALI",G21="AIE"),IF(J21&gt;=6,IF(P34&gt;=20,"H","A"),IF(J21&gt;=2,IF(P34&gt;=51,"H",IF(P34&lt;=19,"L","A")),IF(P34&lt;=50,"L","A")))))))</f>
+        <f>IF(OR(ISBLANK(P35),ISBLANK(J21)),IF(OR(G21="ALI",G21="AIE"),"L",IF(ISBLANK(G21),"","A")),IF(G21="EE",IF(J21&gt;=3,IF(P35&gt;=5,"H","A"),IF(J21&gt;=2,IF(P35&gt;=16,"H",IF(P35&lt;=4,"L","A")),IF(P35&lt;=15,"L","A"))),IF(OR(G21="SE",G21="CE"),IF(J21&gt;=4,IF(P35&gt;=6,"H","A"),IF(J21&gt;=2,IF(P35&gt;=20,"H",IF(P35&lt;=5,"L","A")),IF(P35&lt;=19,"L","A"))),IF(OR(G21="ALI",G21="AIE"),IF(J21&gt;=6,IF(P35&gt;=20,"H","A"),IF(J21&gt;=2,IF(P35&gt;=51,"H",IF(P35&lt;=19,"L","A")),IF(P35&lt;=50,"L","A")))))))</f>
         <v>A</v>
       </c>
       <c r="M21" s="18" t="str">
@@ -7549,126 +7538,126 @@
         <v>4</v>
       </c>
       <c r="T21" s="14" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="U21" s="14"/>
       <c r="V21" s="14"/>
     </row>
     <row r="22" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="111" t="s">
-        <v>89</v>
-      </c>
-      <c r="B22" s="112"/>
-      <c r="C22" s="112"/>
-      <c r="D22" s="112"/>
-      <c r="E22" s="112"/>
-      <c r="F22" s="113"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="16"/>
-      <c r="J22" s="16"/>
+      <c r="A22" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="H22" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="I22" s="16">
+        <v>2</v>
+      </c>
+      <c r="J22" s="16">
+        <v>2</v>
+      </c>
       <c r="K22" s="16" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>EEA</v>
       </c>
       <c r="L22" s="17" t="str">
-        <f>IF(OR(ISBLANK(I22),ISBLANK(J22)),IF(OR(G22="ALI",G22="AIE"),"L",IF(ISBLANK(G22),"","A")),IF(G22="EE",IF(J22&gt;=3,IF(I22&gt;=5,"H","A"),IF(J22&gt;=2,IF(I22&gt;=16,"H",IF(I22&lt;=4,"L","A")),IF(I22&lt;=15,"L","A"))),IF(OR(G22="SE",G22="CE"),IF(J22&gt;=4,IF(I22&gt;=6,"H","A"),IF(J22&gt;=2,IF(I22&gt;=20,"H",IF(I22&lt;=5,"L","A")),IF(I22&lt;=19,"L","A"))),IF(OR(G22="ALI",G22="AIE"),IF(J22&gt;=6,IF(I22&gt;=20,"H","A"),IF(J22&gt;=2,IF(I22&gt;=51,"H",IF(I22&lt;=19,"L","A")),IF(I22&lt;=50,"L","A")))))))</f>
-        <v/>
+        <f>IF(OR(ISBLANK(P36),ISBLANK(J22)),IF(OR(G22="ALI",G22="AIE"),"L",IF(ISBLANK(G22),"","A")),IF(G22="EE",IF(J22&gt;=3,IF(P36&gt;=5,"H","A"),IF(J22&gt;=2,IF(P36&gt;=16,"H",IF(P36&lt;=4,"L","A")),IF(P36&lt;=15,"L","A"))),IF(OR(G22="SE",G22="CE"),IF(J22&gt;=4,IF(P36&gt;=6,"H","A"),IF(J22&gt;=2,IF(P36&gt;=20,"H",IF(P36&lt;=5,"L","A")),IF(P36&lt;=19,"L","A"))),IF(OR(G22="ALI",G22="AIE"),IF(J22&gt;=6,IF(P36&gt;=20,"H","A"),IF(J22&gt;=2,IF(P36&gt;=51,"H",IF(P36&lt;=19,"L","A")),IF(P36&lt;=50,"L","A")))))))</f>
+        <v>A</v>
       </c>
       <c r="M22" s="18" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="N22" s="19" t="str">
+        <v>Média</v>
+      </c>
+      <c r="N22" s="19">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="O22" s="20" t="str">
+        <v>4</v>
+      </c>
+      <c r="O22" s="20">
         <f>IF(H22="I",N22*Contagem!$U$11,IF(H22="E",N22*Contagem!$U$13,IF(H22="A",N22*Contagem!$U$12,IF(H22="T",N22*Contagem!$U$14,""))))</f>
-        <v/>
+        <v>4</v>
       </c>
       <c r="P22" s="16"/>
       <c r="Q22" s="83">
         <f>IF(H22="I", Sumário!$F$55, IF(H22="A", Sumário!$F$56, Sumário!$F$57))</f>
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="R22" s="83" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S22" s="14" t="b">
+      <c r="S22" s="14">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="T22" s="88" t="s">
-        <v>107</v>
-      </c>
-      <c r="U22" s="89"/>
+        <v>4</v>
+      </c>
+      <c r="T22" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="U22" s="14"/>
       <c r="V22" s="14"/>
     </row>
     <row r="23" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="H23" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="I23" s="16">
-        <v>4</v>
-      </c>
-      <c r="J23" s="16">
-        <v>2</v>
-      </c>
+      <c r="A23" s="123" t="s">
+        <v>89</v>
+      </c>
+      <c r="B23" s="124"/>
+      <c r="C23" s="124"/>
+      <c r="D23" s="124"/>
+      <c r="E23" s="124"/>
+      <c r="F23" s="125"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="16"/>
       <c r="K23" s="16" t="str">
         <f t="shared" si="0"/>
-        <v>EEL</v>
+        <v/>
       </c>
       <c r="L23" s="17" t="str">
-        <f>IF(OR(ISBLANK(I16),ISBLANK(J23)),IF(OR(G23="ALI",G23="AIE"),"L",IF(ISBLANK(G23),"","A")),IF(G23="EE",IF(J23&gt;=3,IF(I16&gt;=5,"H","A"),IF(J23&gt;=2,IF(I16&gt;=16,"H",IF(I16&lt;=4,"L","A")),IF(I16&lt;=15,"L","A"))),IF(OR(G23="SE",G23="CE"),IF(J23&gt;=4,IF(I16&gt;=6,"H","A"),IF(J23&gt;=2,IF(I16&gt;=20,"H",IF(I16&lt;=5,"L","A")),IF(I16&lt;=19,"L","A"))),IF(OR(G23="ALI",G23="AIE"),IF(J23&gt;=6,IF(I16&gt;=20,"H","A"),IF(J23&gt;=2,IF(I16&gt;=51,"H",IF(I16&lt;=19,"L","A")),IF(I16&lt;=50,"L","A")))))))</f>
-        <v>L</v>
+        <f>IF(OR(ISBLANK(I23),ISBLANK(J23)),IF(OR(G23="ALI",G23="AIE"),"L",IF(ISBLANK(G23),"","A")),IF(G23="EE",IF(J23&gt;=3,IF(I23&gt;=5,"H","A"),IF(J23&gt;=2,IF(I23&gt;=16,"H",IF(I23&lt;=4,"L","A")),IF(I23&lt;=15,"L","A"))),IF(OR(G23="SE",G23="CE"),IF(J23&gt;=4,IF(I23&gt;=6,"H","A"),IF(J23&gt;=2,IF(I23&gt;=20,"H",IF(I23&lt;=5,"L","A")),IF(I23&lt;=19,"L","A"))),IF(OR(G23="ALI",G23="AIE"),IF(J23&gt;=6,IF(I23&gt;=20,"H","A"),IF(J23&gt;=2,IF(I23&gt;=51,"H",IF(I23&lt;=19,"L","A")),IF(I23&lt;=50,"L","A")))))))</f>
+        <v/>
       </c>
       <c r="M23" s="18" t="str">
         <f t="shared" si="2"/>
-        <v>Baixa</v>
-      </c>
-      <c r="N23" s="19">
+        <v/>
+      </c>
+      <c r="N23" s="19" t="str">
         <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="O23" s="20">
+        <v/>
+      </c>
+      <c r="O23" s="20" t="str">
         <f>IF(H23="I",N23*Contagem!$U$11,IF(H23="E",N23*Contagem!$U$13,IF(H23="A",N23*Contagem!$U$12,IF(H23="T",N23*Contagem!$U$14,""))))</f>
-        <v>3</v>
+        <v/>
       </c>
       <c r="P23" s="16"/>
       <c r="Q23" s="83">
         <f>IF(H23="I", Sumário!$F$55, IF(H23="A", Sumário!$F$56, Sumário!$F$57))</f>
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="R23" s="83" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S23" s="14">
+      <c r="S23" s="14" t="b">
         <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="T23" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="U23" s="14"/>
+        <v>0</v>
+      </c>
+      <c r="T23" s="88" t="s">
+        <v>107</v>
+      </c>
+      <c r="U23" s="89"/>
       <c r="V23" s="14"/>
     </row>
     <row r="24" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
-        <v>113</v>
+        <v>84</v>
       </c>
       <c r="B24" s="14"/>
       <c r="C24" s="14"/>
@@ -7679,21 +7668,28 @@
         <v>35</v>
       </c>
       <c r="H24" s="16" t="s">
-        <v>114</v>
+        <v>79</v>
       </c>
       <c r="I24" s="16">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J24" s="16">
         <v>2</v>
       </c>
-      <c r="K24" s="16"/>
-      <c r="L24" s="17"/>
+      <c r="K24" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>EEA</v>
+      </c>
+      <c r="L24" s="17" t="str">
+        <f>IF(OR(ISBLANK(I16),ISBLANK(J24)),IF(OR(G24="ALI",G24="AIE"),"L",IF(ISBLANK(G24),"","A")),IF(G24="EE",IF(J24&gt;=3,IF(I16&gt;=5,"H","A"),IF(J24&gt;=2,IF(I16&gt;=16,"H",IF(I16&lt;=4,"L","A")),IF(I16&lt;=15,"L","A"))),IF(OR(G24="SE",G24="CE"),IF(J24&gt;=4,IF(I16&gt;=6,"H","A"),IF(J24&gt;=2,IF(I16&gt;=20,"H",IF(I16&lt;=5,"L","A")),IF(I16&lt;=19,"L","A"))),IF(OR(G24="ALI",G24="AIE"),IF(J24&gt;=6,IF(I16&gt;=20,"H","A"),IF(J24&gt;=2,IF(I16&gt;=51,"H",IF(I16&lt;=19,"L","A")),IF(I16&lt;=50,"L","A")))))))</f>
+        <v>A</v>
+      </c>
       <c r="M24" s="18" t="str">
-        <f t="shared" ref="M24" si="7">IF(L24="L","Baixa",IF(L24="A","Média",IF(L24="","","Alta")))</f>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>Média</v>
       </c>
       <c r="N24" s="19">
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="O24" s="20">
@@ -7701,18 +7697,27 @@
         <v>4</v>
       </c>
       <c r="P24" s="16"/>
-      <c r="Q24" s="83"/>
-      <c r="R24" s="83"/>
-      <c r="S24" s="14"/>
+      <c r="Q24" s="83">
+        <f>IF(H24="I", Sumário!$F$55, IF(H24="A", Sumário!$F$56, Sumário!$F$57))</f>
+        <v>1</v>
+      </c>
+      <c r="R24" s="83" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S24" s="14">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
       <c r="T24" s="14" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="U24" s="14"/>
       <c r="V24" s="14"/>
     </row>
     <row r="25" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
-        <v>85</v>
+        <v>118</v>
       </c>
       <c r="B25" s="14"/>
       <c r="C25" s="14"/>
@@ -7720,59 +7725,41 @@
       <c r="E25" s="14"/>
       <c r="F25" s="15"/>
       <c r="G25" s="16" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="H25" s="16" t="s">
         <v>79</v>
       </c>
       <c r="I25" s="16">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J25" s="16">
         <v>2</v>
       </c>
-      <c r="K25" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v>EEL</v>
-      </c>
-      <c r="L25" s="17" t="str">
-        <f>IF(OR(ISBLANK(I18),ISBLANK(J25)),IF(OR(G25="ALI",G25="AIE"),"L",IF(ISBLANK(G25),"","A")),IF(G25="EE",IF(J25&gt;=3,IF(I18&gt;=5,"H","A"),IF(J25&gt;=2,IF(I18&gt;=16,"H",IF(I18&lt;=4,"L","A")),IF(I18&lt;=15,"L","A"))),IF(OR(G25="SE",G25="CE"),IF(J25&gt;=4,IF(I18&gt;=6,"H","A"),IF(J25&gt;=2,IF(I18&gt;=20,"H",IF(I18&lt;=5,"L","A")),IF(I18&lt;=19,"L","A"))),IF(OR(G25="ALI",G25="AIE"),IF(J25&gt;=6,IF(I18&gt;=20,"H","A"),IF(J25&gt;=2,IF(I18&gt;=51,"H",IF(I18&lt;=19,"L","A")),IF(I18&lt;=50,"L","A")))))))</f>
-        <v>L</v>
-      </c>
+      <c r="K25" s="16"/>
+      <c r="L25" s="17"/>
       <c r="M25" s="18" t="str">
-        <f t="shared" si="2"/>
-        <v>Baixa</v>
-      </c>
-      <c r="N25" s="19">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
+        <f t="shared" ref="M25" si="7">IF(L25="L","Baixa",IF(L25="A","Média",IF(L25="","","Alta")))</f>
+        <v/>
+      </c>
+      <c r="N25" s="19"/>
       <c r="O25" s="20">
         <f>IF(H25="I",N25*Contagem!$U$11,IF(H25="E",N25*Contagem!$U$13,IF(H25="A",N25*Contagem!$U$12,IF(H25="T",N25*Contagem!$U$14,""))))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P25" s="16"/>
-      <c r="Q25" s="83">
-        <f>IF(H25="I", Sumário!$F$55, IF(H25="A", Sumário!$F$56, Sumário!$F$57))</f>
-        <v>1</v>
-      </c>
-      <c r="R25" s="83" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="S25" s="14">
-        <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
+      <c r="Q25" s="83"/>
+      <c r="R25" s="83"/>
+      <c r="S25" s="14"/>
       <c r="T25" s="14" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="U25" s="14"/>
       <c r="V25" s="14"/>
     </row>
     <row r="26" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
-        <v>86</v>
+        <v>119</v>
       </c>
       <c r="B26" s="14"/>
       <c r="C26" s="14"/>
@@ -7791,48 +7778,24 @@
       <c r="J26" s="16">
         <v>2</v>
       </c>
-      <c r="K26" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v>CEL</v>
-      </c>
-      <c r="L26" s="17" t="str">
-        <f>IF(OR(ISBLANK(I19),ISBLANK(J26)),IF(OR(G26="ALI",G26="AIE"),"L",IF(ISBLANK(G26),"","A")),IF(G26="EE",IF(J26&gt;=3,IF(I19&gt;=5,"H","A"),IF(J26&gt;=2,IF(I19&gt;=16,"H",IF(I19&lt;=4,"L","A")),IF(I19&lt;=15,"L","A"))),IF(OR(G26="SE",G26="CE"),IF(J26&gt;=4,IF(I19&gt;=6,"H","A"),IF(J26&gt;=2,IF(I19&gt;=20,"H",IF(I19&lt;=5,"L","A")),IF(I19&lt;=19,"L","A"))),IF(OR(G26="ALI",G26="AIE"),IF(J26&gt;=6,IF(I19&gt;=20,"H","A"),IF(J26&gt;=2,IF(I19&gt;=51,"H",IF(I19&lt;=19,"L","A")),IF(I19&lt;=50,"L","A")))))))</f>
-        <v>L</v>
-      </c>
-      <c r="M26" s="18" t="str">
-        <f t="shared" si="2"/>
-        <v>Baixa</v>
-      </c>
-      <c r="N26" s="19">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="O26" s="20">
-        <f>IF(H26="I",N26*Contagem!$U$11,IF(H26="E",N26*Contagem!$U$13,IF(H26="A",N26*Contagem!$U$12,IF(H26="T",N26*Contagem!$U$14,""))))</f>
-        <v>3</v>
-      </c>
+      <c r="K26" s="16"/>
+      <c r="L26" s="17"/>
+      <c r="M26" s="18"/>
+      <c r="N26" s="19"/>
+      <c r="O26" s="20"/>
       <c r="P26" s="16"/>
-      <c r="Q26" s="83">
-        <f>IF(H26="I", Sumário!$F$55, IF(H26="A", Sumário!$F$56, Sumário!$F$57))</f>
-        <v>1</v>
-      </c>
-      <c r="R26" s="83" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="S26" s="14">
-        <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="T26" s="88" t="s">
-        <v>110</v>
+      <c r="Q26" s="83"/>
+      <c r="R26" s="83"/>
+      <c r="S26" s="14"/>
+      <c r="T26" s="14" t="s">
+        <v>120</v>
       </c>
       <c r="U26" s="14"/>
       <c r="V26" s="14"/>
     </row>
-    <row r="27" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B27" s="14"/>
       <c r="C27" s="14"/>
@@ -7840,36 +7803,36 @@
       <c r="E27" s="14"/>
       <c r="F27" s="15"/>
       <c r="G27" s="16" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="H27" s="16" t="s">
         <v>79</v>
       </c>
       <c r="I27" s="16">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J27" s="16">
         <v>2</v>
       </c>
       <c r="K27" s="16" t="str">
         <f t="shared" si="0"/>
-        <v>CEL</v>
+        <v>EEA</v>
       </c>
       <c r="L27" s="17" t="str">
-        <f>IF(OR(ISBLANK(I20),ISBLANK(J27)),IF(OR(G27="ALI",G27="AIE"),"L",IF(ISBLANK(G27),"","A")),IF(G27="EE",IF(J27&gt;=3,IF(I20&gt;=5,"H","A"),IF(J27&gt;=2,IF(I20&gt;=16,"H",IF(I20&lt;=4,"L","A")),IF(I20&lt;=15,"L","A"))),IF(OR(G27="SE",G27="CE"),IF(J27&gt;=4,IF(I20&gt;=6,"H","A"),IF(J27&gt;=2,IF(I20&gt;=20,"H",IF(I20&lt;=5,"L","A")),IF(I20&lt;=19,"L","A"))),IF(OR(G27="ALI",G27="AIE"),IF(J27&gt;=6,IF(I20&gt;=20,"H","A"),IF(J27&gt;=2,IF(I20&gt;=51,"H",IF(I20&lt;=19,"L","A")),IF(I20&lt;=50,"L","A")))))))</f>
-        <v>L</v>
+        <f>IF(OR(ISBLANK(I19),ISBLANK(J27)),IF(OR(G27="ALI",G27="AIE"),"L",IF(ISBLANK(G27),"","A")),IF(G27="EE",IF(J27&gt;=3,IF(I19&gt;=5,"H","A"),IF(J27&gt;=2,IF(I19&gt;=16,"H",IF(I19&lt;=4,"L","A")),IF(I19&lt;=15,"L","A"))),IF(OR(G27="SE",G27="CE"),IF(J27&gt;=4,IF(I19&gt;=6,"H","A"),IF(J27&gt;=2,IF(I19&gt;=20,"H",IF(I19&lt;=5,"L","A")),IF(I19&lt;=19,"L","A"))),IF(OR(G27="ALI",G27="AIE"),IF(J27&gt;=6,IF(I19&gt;=20,"H","A"),IF(J27&gt;=2,IF(I19&gt;=51,"H",IF(I19&lt;=19,"L","A")),IF(I19&lt;=50,"L","A")))))))</f>
+        <v>A</v>
       </c>
       <c r="M27" s="18" t="str">
         <f t="shared" si="2"/>
-        <v>Baixa</v>
+        <v>Média</v>
       </c>
       <c r="N27" s="19">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O27" s="20">
         <f>IF(H27="I",N27*Contagem!$U$11,IF(H27="E",N27*Contagem!$U$13,IF(H27="A",N27*Contagem!$U$12,IF(H27="T",N27*Contagem!$U$14,""))))</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P27" s="16"/>
       <c r="Q27" s="83">
@@ -7885,13 +7848,14 @@
         <v>4</v>
       </c>
       <c r="T27" s="14" t="s">
-        <v>109</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="U27" s="14"/>
       <c r="V27" s="14"/>
     </row>
     <row r="28" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="13" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B28" s="14"/>
       <c r="C28" s="14"/>
@@ -7899,23 +7863,23 @@
       <c r="E28" s="14"/>
       <c r="F28" s="15"/>
       <c r="G28" s="16" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="H28" s="16" t="s">
         <v>79</v>
       </c>
       <c r="I28" s="16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J28" s="16">
         <v>2</v>
       </c>
       <c r="K28" s="16" t="str">
         <f t="shared" si="0"/>
-        <v>EEL</v>
+        <v>CEL</v>
       </c>
       <c r="L28" s="17" t="str">
-        <f>IF(OR(ISBLANK(I21),ISBLANK(J28)),IF(OR(G28="ALI",G28="AIE"),"L",IF(ISBLANK(G28),"","A")),IF(G28="EE",IF(J28&gt;=3,IF(I21&gt;=5,"H","A"),IF(J28&gt;=2,IF(I21&gt;=16,"H",IF(I21&lt;=4,"L","A")),IF(I21&lt;=15,"L","A"))),IF(OR(G28="SE",G28="CE"),IF(J28&gt;=4,IF(I21&gt;=6,"H","A"),IF(J28&gt;=2,IF(I21&gt;=20,"H",IF(I21&lt;=5,"L","A")),IF(I21&lt;=19,"L","A"))),IF(OR(G28="ALI",G28="AIE"),IF(J28&gt;=6,IF(I21&gt;=20,"H","A"),IF(J28&gt;=2,IF(I21&gt;=51,"H",IF(I21&lt;=19,"L","A")),IF(I21&lt;=50,"L","A")))))))</f>
+        <f>IF(OR(ISBLANK(I20),ISBLANK(J28)),IF(OR(G28="ALI",G28="AIE"),"L",IF(ISBLANK(G28),"","A")),IF(G28="EE",IF(J28&gt;=3,IF(I20&gt;=5,"H","A"),IF(J28&gt;=2,IF(I20&gt;=16,"H",IF(I20&lt;=4,"L","A")),IF(I20&lt;=15,"L","A"))),IF(OR(G28="SE",G28="CE"),IF(J28&gt;=4,IF(I20&gt;=6,"H","A"),IF(J28&gt;=2,IF(I20&gt;=20,"H",IF(I20&lt;=5,"L","A")),IF(I20&lt;=19,"L","A"))),IF(OR(G28="ALI",G28="AIE"),IF(J28&gt;=6,IF(I20&gt;=20,"H","A"),IF(J28&gt;=2,IF(I20&gt;=51,"H",IF(I20&lt;=19,"L","A")),IF(I20&lt;=50,"L","A")))))))</f>
         <v>L</v>
       </c>
       <c r="M28" s="18" t="str">
@@ -7943,65 +7907,74 @@
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="T28" s="14" t="s">
-        <v>108</v>
+      <c r="T28" s="88" t="s">
+        <v>110</v>
       </c>
       <c r="U28" s="14"/>
       <c r="V28" s="14"/>
     </row>
-    <row r="29" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="13" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="B29" s="14"/>
       <c r="C29" s="14"/>
       <c r="D29" s="14"/>
       <c r="E29" s="14"/>
       <c r="F29" s="15"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="16"/>
-      <c r="I29" s="16"/>
-      <c r="J29" s="16"/>
+      <c r="G29" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="I29" s="16">
+        <v>1</v>
+      </c>
+      <c r="J29" s="16">
+        <v>2</v>
+      </c>
       <c r="K29" s="16" t="str">
-        <f>CONCATENATE(G29,L29)</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>CEL</v>
       </c>
       <c r="L29" s="17" t="str">
-        <f>IF(OR(ISBLANK(I29),ISBLANK(J29)),IF(OR(G29="ALI",G29="AIE"),"L",IF(ISBLANK(G29),"","A")),IF(G29="EE",IF(J29&gt;=3,IF(I29&gt;=5,"H","A"),IF(J29&gt;=2,IF(I29&gt;=16,"H",IF(I29&lt;=4,"L","A")),IF(I29&lt;=15,"L","A"))),IF(OR(G29="SE",G29="CE"),IF(J29&gt;=4,IF(I29&gt;=6,"H","A"),IF(J29&gt;=2,IF(I29&gt;=20,"H",IF(I29&lt;=5,"L","A")),IF(I29&lt;=19,"L","A"))),IF(OR(G29="ALI",G29="AIE"),IF(J29&gt;=6,IF(I29&gt;=20,"H","A"),IF(J29&gt;=2,IF(I29&gt;=51,"H",IF(I29&lt;=19,"L","A")),IF(I29&lt;=50,"L","A")))))))</f>
-        <v/>
+        <f>IF(OR(ISBLANK(I21),ISBLANK(J29)),IF(OR(G29="ALI",G29="AIE"),"L",IF(ISBLANK(G29),"","A")),IF(G29="EE",IF(J29&gt;=3,IF(I21&gt;=5,"H","A"),IF(J29&gt;=2,IF(I21&gt;=16,"H",IF(I21&lt;=4,"L","A")),IF(I21&lt;=15,"L","A"))),IF(OR(G29="SE",G29="CE"),IF(J29&gt;=4,IF(I21&gt;=6,"H","A"),IF(J29&gt;=2,IF(I21&gt;=20,"H",IF(I21&lt;=5,"L","A")),IF(I21&lt;=19,"L","A"))),IF(OR(G29="ALI",G29="AIE"),IF(J29&gt;=6,IF(I21&gt;=20,"H","A"),IF(J29&gt;=2,IF(I21&gt;=51,"H",IF(I21&lt;=19,"L","A")),IF(I21&lt;=50,"L","A")))))))</f>
+        <v>L</v>
       </c>
       <c r="M29" s="18" t="str">
-        <f>IF(L29="L","Baixa",IF(L29="A","Média",IF(L29="","","Alta")))</f>
-        <v/>
-      </c>
-      <c r="N29" s="19" t="str">
-        <f>IF(ISBLANK(G29),"",IF(G29="ALI",IF(L29="L",7,IF(L29="A",10,15)),IF(G29="AIE",IF(L29="L",5,IF(L29="A",7,10)),IF(G29="SE",IF(L29="L",4,IF(L29="A",5,7)),IF(OR(G29="EE",G29="CE"),IF(L29="L",3,IF(L29="A",4,6)))))))</f>
-        <v/>
-      </c>
-      <c r="O29" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v>Baixa</v>
+      </c>
+      <c r="N29" s="19">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="O29" s="20">
         <f>IF(H29="I",N29*Contagem!$U$11,IF(H29="E",N29*Contagem!$U$13,IF(H29="A",N29*Contagem!$U$12,IF(H29="T",N29*Contagem!$U$14,""))))</f>
-        <v/>
+        <v>3</v>
       </c>
       <c r="P29" s="16"/>
       <c r="Q29" s="83">
         <f>IF(H29="I", Sumário!$F$55, IF(H29="A", Sumário!$F$56, Sumário!$F$57))</f>
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="R29" s="83" t="b">
-        <f>IF(G29="ALI",35*Q29,IF(G29="AIE",15*Q29))</f>
-        <v>0</v>
-      </c>
-      <c r="S29" s="14" t="b">
-        <f>IF(OR(G29="EE",G29="CE"),IF(H29="I",4,(4*Q29)),IF(G29="SE",IF(H29="I",5, 5*Q29),IF(G29="ALI", IF(H29="I", 7, 7*Q29), IF(G29="AIE", IF(H29="I", 5, 5*Q29)))))</f>
-        <v>0</v>
-      </c>
-      <c r="T29" s="14"/>
-      <c r="U29" s="14"/>
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S29" s="14">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="T29" s="14" t="s">
+        <v>109</v>
+      </c>
       <c r="V29" s="14"/>
     </row>
     <row r="30" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="13" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="B30" s="14"/>
       <c r="C30" s="14"/>
@@ -8009,98 +7982,101 @@
       <c r="E30" s="14"/>
       <c r="F30" s="15"/>
       <c r="G30" s="16" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="H30" s="16" t="s">
         <v>79</v>
       </c>
       <c r="I30" s="16">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="J30" s="16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K30" s="16" t="str">
-        <f t="shared" ref="K30:K46" si="8">CONCATENATE(G30,L30)</f>
-        <v>ALIL</v>
+        <f t="shared" si="0"/>
+        <v>EEL</v>
       </c>
       <c r="L30" s="17" t="str">
-        <f t="shared" ref="L30:L46" si="9">IF(OR(ISBLANK(I30),ISBLANK(J30)),IF(OR(G30="ALI",G30="AIE"),"L",IF(ISBLANK(G30),"","A")),IF(G30="EE",IF(J30&gt;=3,IF(I30&gt;=5,"H","A"),IF(J30&gt;=2,IF(I30&gt;=16,"H",IF(I30&lt;=4,"L","A")),IF(I30&lt;=15,"L","A"))),IF(OR(G30="SE",G30="CE"),IF(J30&gt;=4,IF(I30&gt;=6,"H","A"),IF(J30&gt;=2,IF(I30&gt;=20,"H",IF(I30&lt;=5,"L","A")),IF(I30&lt;=19,"L","A"))),IF(OR(G30="ALI",G30="AIE"),IF(J30&gt;=6,IF(I30&gt;=20,"H","A"),IF(J30&gt;=2,IF(I30&gt;=51,"H",IF(I30&lt;=19,"L","A")),IF(I30&lt;=50,"L","A")))))))</f>
+        <f>IF(OR(ISBLANK(I22),ISBLANK(J30)),IF(OR(G30="ALI",G30="AIE"),"L",IF(ISBLANK(G30),"","A")),IF(G30="EE",IF(J30&gt;=3,IF(I22&gt;=5,"H","A"),IF(J30&gt;=2,IF(I22&gt;=16,"H",IF(I22&lt;=4,"L","A")),IF(I22&lt;=15,"L","A"))),IF(OR(G30="SE",G30="CE"),IF(J30&gt;=4,IF(I22&gt;=6,"H","A"),IF(J30&gt;=2,IF(I22&gt;=20,"H",IF(I22&lt;=5,"L","A")),IF(I22&lt;=19,"L","A"))),IF(OR(G30="ALI",G30="AIE"),IF(J30&gt;=6,IF(I22&gt;=20,"H","A"),IF(J30&gt;=2,IF(I22&gt;=51,"H",IF(I22&lt;=19,"L","A")),IF(I22&lt;=50,"L","A")))))))</f>
         <v>L</v>
       </c>
       <c r="M30" s="18" t="str">
-        <f t="shared" ref="M30:M46" si="10">IF(L30="L","Baixa",IF(L30="A","Média",IF(L30="","","Alta")))</f>
+        <f t="shared" si="2"/>
         <v>Baixa</v>
       </c>
       <c r="N30" s="19">
-        <f t="shared" ref="N30:N46" si="11">IF(ISBLANK(G30),"",IF(G30="ALI",IF(L30="L",7,IF(L30="A",10,15)),IF(G30="AIE",IF(L30="L",5,IF(L30="A",7,10)),IF(G30="SE",IF(L30="L",4,IF(L30="A",5,7)),IF(OR(G30="EE",G30="CE"),IF(L30="L",3,IF(L30="A",4,6)))))))</f>
-        <v>7</v>
+        <f t="shared" si="3"/>
+        <v>3</v>
       </c>
       <c r="O30" s="20">
         <f>IF(H30="I",N30*Contagem!$U$11,IF(H30="E",N30*Contagem!$U$13,IF(H30="A",N30*Contagem!$U$12,IF(H30="T",N30*Contagem!$U$14,""))))</f>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="P30" s="16"/>
-      <c r="Q30" s="83"/>
-      <c r="R30" s="83"/>
-      <c r="S30" s="14"/>
-      <c r="T30" s="14"/>
+      <c r="Q30" s="83">
+        <f>IF(H30="I", Sumário!$F$55, IF(H30="A", Sumário!$F$56, Sumário!$F$57))</f>
+        <v>1</v>
+      </c>
+      <c r="R30" s="83" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S30" s="14">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="T30" s="14" t="s">
+        <v>108</v>
+      </c>
       <c r="U30" s="14"/>
       <c r="V30" s="14"/>
     </row>
     <row r="31" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B31" s="14"/>
       <c r="C31" s="14"/>
       <c r="D31" s="14"/>
       <c r="E31" s="14"/>
       <c r="F31" s="15"/>
-      <c r="G31" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="H31" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="I31" s="16">
-        <v>17</v>
-      </c>
-      <c r="J31" s="16">
-        <v>2</v>
-      </c>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="16"/>
+      <c r="J31" s="16"/>
       <c r="K31" s="16" t="str">
-        <f t="shared" si="8"/>
-        <v>ALIL</v>
+        <f>CONCATENATE(G31,L31)</f>
+        <v/>
       </c>
       <c r="L31" s="17" t="str">
-        <f t="shared" si="9"/>
-        <v>L</v>
+        <f>IF(OR(ISBLANK(I31),ISBLANK(J31)),IF(OR(G31="ALI",G31="AIE"),"L",IF(ISBLANK(G31),"","A")),IF(G31="EE",IF(J31&gt;=3,IF(I31&gt;=5,"H","A"),IF(J31&gt;=2,IF(I31&gt;=16,"H",IF(I31&lt;=4,"L","A")),IF(I31&lt;=15,"L","A"))),IF(OR(G31="SE",G31="CE"),IF(J31&gt;=4,IF(I31&gt;=6,"H","A"),IF(J31&gt;=2,IF(I31&gt;=20,"H",IF(I31&lt;=5,"L","A")),IF(I31&lt;=19,"L","A"))),IF(OR(G31="ALI",G31="AIE"),IF(J31&gt;=6,IF(I31&gt;=20,"H","A"),IF(J31&gt;=2,IF(I31&gt;=51,"H",IF(I31&lt;=19,"L","A")),IF(I31&lt;=50,"L","A")))))))</f>
+        <v/>
       </c>
       <c r="M31" s="18" t="str">
-        <f t="shared" si="10"/>
-        <v>Baixa</v>
-      </c>
-      <c r="N31" s="19">
-        <f t="shared" si="11"/>
-        <v>7</v>
-      </c>
-      <c r="O31" s="20">
+        <f>IF(L31="L","Baixa",IF(L31="A","Média",IF(L31="","","Alta")))</f>
+        <v/>
+      </c>
+      <c r="N31" s="19" t="str">
+        <f>IF(ISBLANK(G31),"",IF(G31="ALI",IF(L31="L",7,IF(L31="A",10,15)),IF(G31="AIE",IF(L31="L",5,IF(L31="A",7,10)),IF(G31="SE",IF(L31="L",4,IF(L31="A",5,7)),IF(OR(G31="EE",G31="CE"),IF(L31="L",3,IF(L31="A",4,6)))))))</f>
+        <v/>
+      </c>
+      <c r="O31" s="20" t="str">
         <f>IF(H31="I",N31*Contagem!$U$11,IF(H31="E",N31*Contagem!$U$13,IF(H31="A",N31*Contagem!$U$12,IF(H31="T",N31*Contagem!$U$14,""))))</f>
-        <v>7</v>
+        <v/>
       </c>
       <c r="P31" s="16"/>
-      <c r="Q31" s="83" t="e">
-        <f>IF(#REF!="I", Sumário!$F$55, IF(#REF!="A", Sumário!$F$56, Sumário!$F$57))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="R31" s="83" t="e">
-        <f>IF(#REF!="ALI",35*Q31,IF(#REF!="AIE",15*Q31))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="S31" s="14" t="e">
-        <f>IF(OR(#REF!="EE",#REF!="CE"),IF(#REF!="I",4,(4*Q31)),IF(#REF!="SE",IF(#REF!="I",5, 5*Q31),IF(#REF!="ALI", IF(#REF!="I", 7, 7*Q31), IF(#REF!="AIE", IF(#REF!="I", 5, 5*Q31)))))</f>
-        <v>#REF!</v>
+      <c r="Q31" s="83">
+        <f>IF(H31="I", Sumário!$F$55, IF(H31="A", Sumário!$F$56, Sumário!$F$57))</f>
+        <v>0.4</v>
+      </c>
+      <c r="R31" s="83" t="b">
+        <f>IF(G31="ALI",35*Q31,IF(G31="AIE",15*Q31))</f>
+        <v>0</v>
+      </c>
+      <c r="S31" s="14" t="b">
+        <f>IF(OR(G31="EE",G31="CE"),IF(H31="I",4,(4*Q31)),IF(G31="SE",IF(H31="I",5, 5*Q31),IF(G31="ALI", IF(H31="I", 7, 7*Q31), IF(G31="AIE", IF(H31="I", 5, 5*Q31)))))</f>
+        <v>0</v>
       </c>
       <c r="T31" s="14"/>
       <c r="U31" s="14"/>
@@ -8108,7 +8084,7 @@
     </row>
     <row r="32" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B32" s="14"/>
       <c r="C32" s="14"/>
@@ -8122,78 +8098,79 @@
         <v>79</v>
       </c>
       <c r="I32" s="16">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J32" s="16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K32" s="16" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="K32:K48" si="8">CONCATENATE(G32,L32)</f>
         <v>ALIL</v>
       </c>
       <c r="L32" s="17" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="L32:L48" si="9">IF(OR(ISBLANK(I32),ISBLANK(J32)),IF(OR(G32="ALI",G32="AIE"),"L",IF(ISBLANK(G32),"","A")),IF(G32="EE",IF(J32&gt;=3,IF(I32&gt;=5,"H","A"),IF(J32&gt;=2,IF(I32&gt;=16,"H",IF(I32&lt;=4,"L","A")),IF(I32&lt;=15,"L","A"))),IF(OR(G32="SE",G32="CE"),IF(J32&gt;=4,IF(I32&gt;=6,"H","A"),IF(J32&gt;=2,IF(I32&gt;=20,"H",IF(I32&lt;=5,"L","A")),IF(I32&lt;=19,"L","A"))),IF(OR(G32="ALI",G32="AIE"),IF(J32&gt;=6,IF(I32&gt;=20,"H","A"),IF(J32&gt;=2,IF(I32&gt;=51,"H",IF(I32&lt;=19,"L","A")),IF(I32&lt;=50,"L","A")))))))</f>
         <v>L</v>
       </c>
-      <c r="M32" s="18" t="str">
-        <f t="shared" si="10"/>
+      <c r="M32" s="144" t="str">
+        <f t="shared" ref="M32:M48" si="10">IF(L32="L","Baixa",IF(L32="A","Média",IF(L32="","","Alta")))</f>
         <v>Baixa</v>
       </c>
       <c r="N32" s="19">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="N32:N48" si="11">IF(ISBLANK(G32),"",IF(G32="ALI",IF(L32="L",7,IF(L32="A",10,15)),IF(G32="AIE",IF(L32="L",5,IF(L32="A",7,10)),IF(G32="SE",IF(L32="L",4,IF(L32="A",5,7)),IF(OR(G32="EE",G32="CE"),IF(L32="L",3,IF(L32="A",4,6)))))))</f>
         <v>7</v>
       </c>
       <c r="O32" s="20">
         <f>IF(H32="I",N32*Contagem!$U$11,IF(H32="E",N32*Contagem!$U$13,IF(H32="A",N32*Contagem!$U$12,IF(H32="T",N32*Contagem!$U$14,""))))</f>
         <v>7</v>
       </c>
-      <c r="P32" s="142"/>
-      <c r="Q32" s="83" t="e">
-        <f>IF(#REF!="I", Sumário!$F$55, IF(#REF!="A", Sumário!$F$56, Sumário!$F$57))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="R32" s="83" t="e">
-        <f>IF(#REF!="ALI",35*Q32,IF(#REF!="AIE",15*Q32))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="S32" s="14" t="e">
-        <f>IF(OR(#REF!="EE",#REF!="CE"),IF(#REF!="I",4,(4*Q32)),IF(#REF!="SE",IF(#REF!="I",5, 5*Q32),IF(#REF!="ALI", IF(#REF!="I", 7, 7*Q32), IF(#REF!="AIE", IF(#REF!="I", 5, 5*Q32)))))</f>
-        <v>#REF!</v>
-      </c>
+      <c r="P32" s="16"/>
+      <c r="Q32" s="83"/>
+      <c r="R32" s="83"/>
+      <c r="S32" s="14"/>
       <c r="T32" s="14"/>
       <c r="U32" s="14"/>
       <c r="V32" s="14"/>
     </row>
     <row r="33" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="13"/>
+      <c r="A33" s="13" t="s">
+        <v>81</v>
+      </c>
       <c r="B33" s="14"/>
       <c r="C33" s="14"/>
       <c r="D33" s="14"/>
       <c r="E33" s="14"/>
       <c r="F33" s="15"/>
-      <c r="G33" s="16"/>
-      <c r="H33" s="16"/>
-      <c r="I33" s="16"/>
-      <c r="J33" s="16"/>
+      <c r="G33" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="H33" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="I33" s="16">
+        <v>17</v>
+      </c>
+      <c r="J33" s="16">
+        <v>2</v>
+      </c>
       <c r="K33" s="16" t="str">
         <f t="shared" si="8"/>
-        <v/>
+        <v>ALIL</v>
       </c>
       <c r="L33" s="17" t="str">
         <f t="shared" si="9"/>
-        <v/>
+        <v>L</v>
       </c>
       <c r="M33" s="18" t="str">
         <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="N33" s="19" t="str">
+        <v>Baixa</v>
+      </c>
+      <c r="N33" s="19">
         <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="O33" s="20" t="str">
+        <v>7</v>
+      </c>
+      <c r="O33" s="20">
         <f>IF(H33="I",N33*Contagem!$U$11,IF(H33="E",N33*Contagem!$U$13,IF(H33="A",N33*Contagem!$U$12,IF(H33="T",N33*Contagem!$U$14,""))))</f>
-        <v/>
+        <v>7</v>
       </c>
       <c r="P33" s="16"/>
       <c r="Q33" s="83" t="e">
@@ -8213,37 +8190,47 @@
       <c r="V33" s="14"/>
     </row>
     <row r="34" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="13"/>
+      <c r="A34" s="13" t="s">
+        <v>83</v>
+      </c>
       <c r="B34" s="14"/>
       <c r="C34" s="14"/>
       <c r="D34" s="14"/>
       <c r="E34" s="14"/>
       <c r="F34" s="15"/>
-      <c r="G34" s="16"/>
-      <c r="H34" s="16"/>
-      <c r="I34" s="16"/>
-      <c r="J34" s="16"/>
+      <c r="G34" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="H34" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="I34" s="16">
+        <v>17</v>
+      </c>
+      <c r="J34" s="16">
+        <v>2</v>
+      </c>
       <c r="K34" s="16" t="str">
         <f t="shared" si="8"/>
-        <v/>
+        <v>ALIL</v>
       </c>
       <c r="L34" s="17" t="str">
         <f t="shared" si="9"/>
-        <v/>
+        <v>L</v>
       </c>
       <c r="M34" s="18" t="str">
         <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="N34" s="19" t="str">
+        <v>Baixa</v>
+      </c>
+      <c r="N34" s="19">
         <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="O34" s="20" t="str">
+        <v>7</v>
+      </c>
+      <c r="O34" s="20">
         <f>IF(H34="I",N34*Contagem!$U$11,IF(H34="E",N34*Contagem!$U$13,IF(H34="A",N34*Contagem!$U$12,IF(H34="T",N34*Contagem!$U$14,""))))</f>
-        <v/>
-      </c>
-      <c r="P34" s="16"/>
+        <v>7</v>
+      </c>
+      <c r="P34" s="90"/>
       <c r="Q34" s="83" t="e">
         <f>IF(#REF!="I", Sumário!$F$55, IF(#REF!="A", Sumário!$F$56, Sumário!$F$57))</f>
         <v>#REF!</v>
@@ -8314,7 +8301,7 @@
       <c r="C36" s="14"/>
       <c r="D36" s="14"/>
       <c r="E36" s="14"/>
-      <c r="F36" s="15"/>
+      <c r="F36" s="143"/>
       <c r="G36" s="16"/>
       <c r="H36" s="16"/>
       <c r="I36" s="16"/>
@@ -8848,19 +8835,19 @@
       <c r="I47" s="16"/>
       <c r="J47" s="16"/>
       <c r="K47" s="16" t="str">
-        <f t="shared" ref="K47:K60" si="12">CONCATENATE(G47,L47)</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="L47" s="17" t="str">
-        <f t="shared" ref="L47:L60" si="13">IF(OR(ISBLANK(I47),ISBLANK(J47)),IF(OR(G47="ALI",G47="AIE"),"L",IF(ISBLANK(G47),"","A")),IF(G47="EE",IF(J47&gt;=3,IF(I47&gt;=5,"H","A"),IF(J47&gt;=2,IF(I47&gt;=16,"H",IF(I47&lt;=4,"L","A")),IF(I47&lt;=15,"L","A"))),IF(OR(G47="SE",G47="CE"),IF(J47&gt;=4,IF(I47&gt;=6,"H","A"),IF(J47&gt;=2,IF(I47&gt;=20,"H",IF(I47&lt;=5,"L","A")),IF(I47&lt;=19,"L","A"))),IF(OR(G47="ALI",G47="AIE"),IF(J47&gt;=6,IF(I47&gt;=20,"H","A"),IF(J47&gt;=2,IF(I47&gt;=51,"H",IF(I47&lt;=19,"L","A")),IF(I47&lt;=50,"L","A")))))))</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="M47" s="18" t="str">
-        <f t="shared" ref="M47:M60" si="14">IF(L47="L","Baixa",IF(L47="A","Média",IF(L47="","","Alta")))</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="N47" s="19" t="str">
-        <f t="shared" ref="N47:N60" si="15">IF(ISBLANK(G47),"",IF(G47="ALI",IF(L47="L",7,IF(L47="A",10,15)),IF(G47="AIE",IF(L47="L",5,IF(L47="A",7,10)),IF(G47="SE",IF(L47="L",4,IF(L47="A",5,7)),IF(OR(G47="EE",G47="CE"),IF(L47="L",3,IF(L47="A",4,6)))))))</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="O47" s="20" t="str">
@@ -8896,19 +8883,19 @@
       <c r="I48" s="16"/>
       <c r="J48" s="16"/>
       <c r="K48" s="16" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="L48" s="17" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="M48" s="18" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="N48" s="19" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="O48" s="20" t="str">
@@ -8944,19 +8931,19 @@
       <c r="I49" s="16"/>
       <c r="J49" s="16"/>
       <c r="K49" s="16" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="K49:K62" si="12">CONCATENATE(G49,L49)</f>
         <v/>
       </c>
       <c r="L49" s="17" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="L49:L62" si="13">IF(OR(ISBLANK(I49),ISBLANK(J49)),IF(OR(G49="ALI",G49="AIE"),"L",IF(ISBLANK(G49),"","A")),IF(G49="EE",IF(J49&gt;=3,IF(I49&gt;=5,"H","A"),IF(J49&gt;=2,IF(I49&gt;=16,"H",IF(I49&lt;=4,"L","A")),IF(I49&lt;=15,"L","A"))),IF(OR(G49="SE",G49="CE"),IF(J49&gt;=4,IF(I49&gt;=6,"H","A"),IF(J49&gt;=2,IF(I49&gt;=20,"H",IF(I49&lt;=5,"L","A")),IF(I49&lt;=19,"L","A"))),IF(OR(G49="ALI",G49="AIE"),IF(J49&gt;=6,IF(I49&gt;=20,"H","A"),IF(J49&gt;=2,IF(I49&gt;=51,"H",IF(I49&lt;=19,"L","A")),IF(I49&lt;=50,"L","A")))))))</f>
         <v/>
       </c>
       <c r="M49" s="18" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" ref="M49:M62" si="14">IF(L49="L","Baixa",IF(L49="A","Média",IF(L49="","","Alta")))</f>
         <v/>
       </c>
       <c r="N49" s="19" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" ref="N49:N62" si="15">IF(ISBLANK(G49),"",IF(G49="ALI",IF(L49="L",7,IF(L49="A",10,15)),IF(G49="AIE",IF(L49="L",5,IF(L49="A",7,10)),IF(G49="SE",IF(L49="L",4,IF(L49="A",5,7)),IF(OR(G49="EE",G49="CE"),IF(L49="L",3,IF(L49="A",4,6)))))))</f>
         <v/>
       </c>
       <c r="O49" s="20" t="str">
@@ -9509,6 +9496,36 @@
       <c r="V60" s="14"/>
     </row>
     <row r="61" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="13"/>
+      <c r="B61" s="14"/>
+      <c r="C61" s="14"/>
+      <c r="D61" s="14"/>
+      <c r="E61" s="14"/>
+      <c r="F61" s="15"/>
+      <c r="G61" s="16"/>
+      <c r="H61" s="16"/>
+      <c r="I61" s="16"/>
+      <c r="J61" s="16"/>
+      <c r="K61" s="16" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="L61" s="17" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="M61" s="18" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="N61" s="19" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="O61" s="20" t="str">
+        <f>IF(H61="I",N61*Contagem!$U$11,IF(H61="E",N61*Contagem!$U$13,IF(H61="A",N61*Contagem!$U$12,IF(H61="T",N61*Contagem!$U$14,""))))</f>
+        <v/>
+      </c>
       <c r="P61" s="16"/>
       <c r="Q61" s="83" t="e">
         <f>IF(#REF!="I", Sumário!$F$55, IF(#REF!="A", Sumário!$F$56, Sumário!$F$57))</f>
@@ -9527,6 +9544,36 @@
       <c r="V61" s="14"/>
     </row>
     <row r="62" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="13"/>
+      <c r="B62" s="14"/>
+      <c r="C62" s="14"/>
+      <c r="D62" s="14"/>
+      <c r="E62" s="14"/>
+      <c r="F62" s="15"/>
+      <c r="G62" s="16"/>
+      <c r="H62" s="16"/>
+      <c r="I62" s="16"/>
+      <c r="J62" s="16"/>
+      <c r="K62" s="16" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="L62" s="17" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="M62" s="18" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="N62" s="19" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="O62" s="20" t="str">
+        <f>IF(H62="I",N62*Contagem!$U$11,IF(H62="E",N62*Contagem!$U$13,IF(H62="A",N62*Contagem!$U$12,IF(H62="T",N62*Contagem!$U$14,""))))</f>
+        <v/>
+      </c>
       <c r="P62" s="16"/>
       <c r="Q62" s="83" t="e">
         <f>IF(#REF!="I", Sumário!$F$55, IF(#REF!="A", Sumário!$F$56, Sumário!$F$57))</f>
@@ -9870,17 +9917,17 @@
     </row>
     <row r="81" spans="16:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="P81" s="16"/>
-      <c r="Q81" s="83">
-        <f>IF(H30="I", Sumário!$F$55, IF(H30="A", Sumário!$F$56, Sumário!$F$57))</f>
-        <v>1</v>
-      </c>
-      <c r="R81" s="83">
-        <f t="shared" ref="R81:R111" si="16">IF(G30="ALI",35*Q81,IF(G30="AIE",15*Q81))</f>
-        <v>35</v>
-      </c>
-      <c r="S81" s="14">
-        <f t="shared" ref="S81:S111" si="17">IF(OR(G30="EE",G30="CE"),IF(H30="I",4,(4*Q81)),IF(G30="SE",IF(H30="I",5, 5*Q81),IF(G30="ALI", IF(H30="I", 7, 7*Q81), IF(G30="AIE", IF(H30="I", 5, 5*Q81)))))</f>
-        <v>7</v>
+      <c r="Q81" s="83" t="e">
+        <f>IF(#REF!="I", Sumário!$F$55, IF(#REF!="A", Sumário!$F$56, Sumário!$F$57))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="R81" s="83" t="e">
+        <f>IF(#REF!="ALI",35*Q81,IF(#REF!="AIE",15*Q81))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="S81" s="14" t="e">
+        <f>IF(OR(#REF!="EE",#REF!="CE"),IF(#REF!="I",4,(4*Q81)),IF(#REF!="SE",IF(#REF!="I",5, 5*Q81),IF(#REF!="ALI", IF(#REF!="I", 7, 7*Q81), IF(#REF!="AIE", IF(#REF!="I", 5, 5*Q81)))))</f>
+        <v>#REF!</v>
       </c>
       <c r="T81" s="14"/>
       <c r="U81" s="14"/>
@@ -9888,17 +9935,17 @@
     </row>
     <row r="82" spans="16:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="P82" s="16"/>
-      <c r="Q82" s="83">
-        <f>IF(H31="I", Sumário!$F$55, IF(H31="A", Sumário!$F$56, Sumário!$F$57))</f>
-        <v>1</v>
-      </c>
-      <c r="R82" s="83">
-        <f t="shared" si="16"/>
-        <v>35</v>
-      </c>
-      <c r="S82" s="14">
-        <f t="shared" si="17"/>
-        <v>7</v>
+      <c r="Q82" s="83" t="e">
+        <f>IF(#REF!="I", Sumário!$F$55, IF(#REF!="A", Sumário!$F$56, Sumário!$F$57))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="R82" s="83" t="e">
+        <f>IF(#REF!="ALI",35*Q82,IF(#REF!="AIE",15*Q82))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="S82" s="14" t="e">
+        <f>IF(OR(#REF!="EE",#REF!="CE"),IF(#REF!="I",4,(4*Q82)),IF(#REF!="SE",IF(#REF!="I",5, 5*Q82),IF(#REF!="ALI", IF(#REF!="I", 7, 7*Q82), IF(#REF!="AIE", IF(#REF!="I", 5, 5*Q82)))))</f>
+        <v>#REF!</v>
       </c>
       <c r="T82" s="14"/>
       <c r="U82" s="14"/>
@@ -9911,11 +9958,11 @@
         <v>1</v>
       </c>
       <c r="R83" s="83">
-        <f t="shared" si="16"/>
+        <f t="shared" ref="R83:R113" si="16">IF(G32="ALI",35*Q83,IF(G32="AIE",15*Q83))</f>
         <v>35</v>
       </c>
       <c r="S83" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" ref="S83:S113" si="17">IF(OR(G32="EE",G32="CE"),IF(H32="I",4,(4*Q83)),IF(G32="SE",IF(H32="I",5, 5*Q83),IF(G32="ALI", IF(H32="I", 7, 7*Q83), IF(G32="AIE", IF(H32="I", 5, 5*Q83)))))</f>
         <v>7</v>
       </c>
       <c r="T83" s="14"/>
@@ -9926,15 +9973,15 @@
       <c r="P84" s="16"/>
       <c r="Q84" s="83">
         <f>IF(H33="I", Sumário!$F$55, IF(H33="A", Sumário!$F$56, Sumário!$F$57))</f>
-        <v>0.4</v>
-      </c>
-      <c r="R84" s="83" t="b">
+        <v>1</v>
+      </c>
+      <c r="R84" s="83">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="S84" s="14" t="b">
+        <v>35</v>
+      </c>
+      <c r="S84" s="14">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="T84" s="14"/>
       <c r="U84" s="14"/>
@@ -9944,15 +9991,15 @@
       <c r="P85" s="16"/>
       <c r="Q85" s="83">
         <f>IF(H34="I", Sumário!$F$55, IF(H34="A", Sumário!$F$56, Sumário!$F$57))</f>
-        <v>0.4</v>
-      </c>
-      <c r="R85" s="83" t="b">
+        <v>1</v>
+      </c>
+      <c r="R85" s="83">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="S85" s="14" t="b">
+        <v>35</v>
+      </c>
+      <c r="S85" s="14">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="T85" s="14"/>
       <c r="U85" s="14"/>
@@ -10427,39 +10474,81 @@
       <c r="V111" s="14"/>
     </row>
     <row r="112" spans="16:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P112" s="16"/>
+      <c r="Q112" s="83">
+        <f>IF(H61="I", Sumário!$F$55, IF(H61="A", Sumário!$F$56, Sumário!$F$57))</f>
+        <v>0.4</v>
+      </c>
+      <c r="R112" s="83" t="b">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="S112" s="14" t="b">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="T112" s="14"/>
       <c r="U112" s="14"/>
       <c r="V112" s="14"/>
     </row>
-    <row r="113" spans="21:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="16:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P113" s="16"/>
+      <c r="Q113" s="83">
+        <f>IF(H62="I", Sumário!$F$55, IF(H62="A", Sumário!$F$56, Sumário!$F$57))</f>
+        <v>0.4</v>
+      </c>
+      <c r="R113" s="83" t="b">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="S113" s="14" t="b">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="T113" s="14"/>
       <c r="U113" s="14"/>
       <c r="V113" s="14"/>
     </row>
-    <row r="114" spans="21:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="16:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="U114" s="14"/>
       <c r="V114" s="14"/>
     </row>
-    <row r="115" spans="21:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="16:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="U115" s="14"/>
       <c r="V115" s="14"/>
     </row>
-    <row r="116" spans="21:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="16:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="U116" s="14"/>
       <c r="V116" s="14"/>
     </row>
-    <row r="117" spans="21:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="16:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="U117" s="14"/>
       <c r="V117" s="14"/>
     </row>
-    <row r="118" spans="21:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="16:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="U118" s="14"/>
       <c r="V118" s="14"/>
     </row>
-    <row r="119" spans="21:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="16:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="U119" s="14"/>
       <c r="V119" s="14"/>
     </row>
+    <row r="120" spans="16:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U120" s="14"/>
+      <c r="V120" s="14"/>
+    </row>
+    <row r="121" spans="16:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U121" s="14"/>
+      <c r="V121" s="14"/>
+    </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="F6:G6"/>
     <mergeCell ref="T7:U7"/>
     <mergeCell ref="H6:M6"/>
     <mergeCell ref="N6:O6"/>
@@ -10469,15 +10558,9 @@
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="G5:V5"/>
     <mergeCell ref="A7:F7"/>
-    <mergeCell ref="A8:F8"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="A22:F22"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="F6:G6"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
-  <conditionalFormatting sqref="H8:H60">
+  <conditionalFormatting sqref="H8:H62">
     <cfRule type="cellIs" dxfId="2" priority="10" stopIfTrue="1" operator="equal">
       <formula>"I"</formula>
     </cfRule>
@@ -10489,11 +10572,11 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations xWindow="525" yWindow="551" count="2">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Tipo da Função" prompt="ALI, AIE, EE, SE, CE" sqref="G8:G60">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Tipo da Função" prompt="ALI, AIE, EE, SE, CE" sqref="G8:G62">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Tipo da Manutenção na Função" prompt="I - Inclusão  _x000a_A - Alteração  _x000a_E - Exclusão  _x000a_T - Teste" sqref="H8:H60"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Tipo da Manutenção na Função" prompt="I - Inclusão  _x000a_A - Alteração  _x000a_E - Exclusão  _x000a_T - Teste" sqref="H8:H62"/>
   </dataValidations>
   <printOptions headings="1"/>
   <pageMargins left="0.39374999999999999" right="0.31527777777777777" top="0.23611111111111113" bottom="0.39375000000000004" header="0.51180555555555562" footer="0.23611111111111113"/>
@@ -10532,88 +10615,88 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="129" t="s">
+      <c r="A1" s="132" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="129"/>
-      <c r="C1" s="129"/>
-      <c r="D1" s="129"/>
-      <c r="E1" s="129"/>
-      <c r="F1" s="129"/>
-      <c r="G1" s="129"/>
-      <c r="H1" s="129"/>
-      <c r="I1" s="129"/>
-      <c r="J1" s="129"/>
-      <c r="K1" s="129"/>
-      <c r="L1" s="129"/>
+      <c r="B1" s="132"/>
+      <c r="C1" s="132"/>
+      <c r="D1" s="132"/>
+      <c r="E1" s="132"/>
+      <c r="F1" s="132"/>
+      <c r="G1" s="132"/>
+      <c r="H1" s="132"/>
+      <c r="I1" s="132"/>
+      <c r="J1" s="132"/>
+      <c r="K1" s="132"/>
+      <c r="L1" s="132"/>
     </row>
     <row r="2" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="129"/>
-      <c r="B2" s="129"/>
-      <c r="C2" s="129"/>
-      <c r="D2" s="129"/>
-      <c r="E2" s="129"/>
-      <c r="F2" s="129"/>
-      <c r="G2" s="129"/>
-      <c r="H2" s="129"/>
-      <c r="I2" s="129"/>
-      <c r="J2" s="129"/>
-      <c r="K2" s="129"/>
-      <c r="L2" s="129"/>
+      <c r="A2" s="132"/>
+      <c r="B2" s="132"/>
+      <c r="C2" s="132"/>
+      <c r="D2" s="132"/>
+      <c r="E2" s="132"/>
+      <c r="F2" s="132"/>
+      <c r="G2" s="132"/>
+      <c r="H2" s="132"/>
+      <c r="I2" s="132"/>
+      <c r="J2" s="132"/>
+      <c r="K2" s="132"/>
+      <c r="L2" s="132"/>
     </row>
     <row r="3" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="129"/>
-      <c r="B3" s="129"/>
-      <c r="C3" s="129"/>
-      <c r="D3" s="129"/>
-      <c r="E3" s="129"/>
-      <c r="F3" s="129"/>
-      <c r="G3" s="129"/>
-      <c r="H3" s="129"/>
-      <c r="I3" s="129"/>
-      <c r="J3" s="129"/>
-      <c r="K3" s="129"/>
-      <c r="L3" s="129"/>
+      <c r="A3" s="132"/>
+      <c r="B3" s="132"/>
+      <c r="C3" s="132"/>
+      <c r="D3" s="132"/>
+      <c r="E3" s="132"/>
+      <c r="F3" s="132"/>
+      <c r="G3" s="132"/>
+      <c r="H3" s="132"/>
+      <c r="I3" s="132"/>
+      <c r="J3" s="132"/>
+      <c r="K3" s="132"/>
+      <c r="L3" s="132"/>
     </row>
     <row r="4" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="130" t="str">
+      <c r="A4" s="133" t="str">
         <f>Contagem!A5&amp;" : "&amp;Contagem!F5</f>
         <v>Aplicação : Eits desafio</v>
       </c>
-      <c r="B4" s="130"/>
-      <c r="C4" s="130"/>
-      <c r="D4" s="130"/>
-      <c r="E4" s="130"/>
-      <c r="F4" s="131" t="str">
+      <c r="B4" s="133"/>
+      <c r="C4" s="133"/>
+      <c r="D4" s="133"/>
+      <c r="E4" s="133"/>
+      <c r="F4" s="134" t="str">
         <f>Contagem!A6&amp;" : "&amp;Contagem!F6</f>
         <v>Projeto : Eits desafio</v>
       </c>
-      <c r="G4" s="131"/>
-      <c r="H4" s="131"/>
-      <c r="I4" s="131"/>
-      <c r="J4" s="131"/>
-      <c r="K4" s="131"/>
-      <c r="L4" s="131"/>
+      <c r="G4" s="134"/>
+      <c r="H4" s="134"/>
+      <c r="I4" s="134"/>
+      <c r="J4" s="134"/>
+      <c r="K4" s="134"/>
+      <c r="L4" s="134"/>
     </row>
     <row r="5" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="132" t="str">
+      <c r="A5" s="135" t="str">
         <f>Contagem!A7&amp;" : "&amp;Contagem!F7</f>
         <v>Responsável : André Luiz</v>
       </c>
-      <c r="B5" s="132"/>
-      <c r="C5" s="132"/>
-      <c r="D5" s="132"/>
-      <c r="E5" s="132"/>
-      <c r="F5" s="131" t="str">
+      <c r="B5" s="135"/>
+      <c r="C5" s="135"/>
+      <c r="D5" s="135"/>
+      <c r="E5" s="135"/>
+      <c r="F5" s="134" t="str">
         <f>Contagem!A8&amp;" : "&amp;Contagem!F8</f>
         <v>Revisor : André Luiz</v>
       </c>
-      <c r="G5" s="131"/>
-      <c r="H5" s="131"/>
-      <c r="I5" s="131"/>
-      <c r="J5" s="131"/>
-      <c r="K5" s="131"/>
-      <c r="L5" s="131"/>
+      <c r="G5" s="134"/>
+      <c r="H5" s="134"/>
+      <c r="I5" s="134"/>
+      <c r="J5" s="134"/>
+      <c r="K5" s="134"/>
+      <c r="L5" s="134"/>
     </row>
     <row r="6" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="str">
@@ -10624,58 +10707,58 @@
       <c r="C6" s="21"/>
       <c r="D6" s="22"/>
       <c r="E6" s="22"/>
-      <c r="F6" s="134" t="str">
+      <c r="F6" s="128" t="str">
         <f>Contagem!R4&amp;" = "&amp;VALUE(Contagem!T4)</f>
         <v>R$/PF = 0</v>
       </c>
-      <c r="G6" s="134"/>
-      <c r="H6" s="134" t="str">
+      <c r="G6" s="128"/>
+      <c r="H6" s="128" t="str">
         <f>" Custo= "&amp;DOLLAR(Contagem!W4)</f>
         <v xml:space="preserve"> Custo= R$ 0,00</v>
       </c>
-      <c r="I6" s="134"/>
-      <c r="J6" s="134"/>
-      <c r="K6" s="133" t="str">
+      <c r="I6" s="128"/>
+      <c r="J6" s="128"/>
+      <c r="K6" s="136" t="str">
         <f>"PF  = "&amp;VALUE(Contagem!W5)</f>
-        <v>PF  = 79</v>
-      </c>
-      <c r="L6" s="133"/>
+        <v>PF  = 73</v>
+      </c>
+      <c r="L6" s="136"/>
     </row>
     <row r="7" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="135" t="s">
+      <c r="A7" s="137" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="135"/>
-      <c r="C7" s="136" t="s">
+      <c r="B7" s="137"/>
+      <c r="C7" s="138" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="136"/>
-      <c r="E7" s="136"/>
-      <c r="F7" s="136"/>
-      <c r="G7" s="128" t="s">
+      <c r="D7" s="138"/>
+      <c r="E7" s="138"/>
+      <c r="F7" s="138"/>
+      <c r="G7" s="131" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="128"/>
-      <c r="I7" s="127" t="s">
+      <c r="H7" s="131"/>
+      <c r="I7" s="130" t="s">
         <v>34</v>
       </c>
-      <c r="J7" s="127"/>
-      <c r="K7" s="127"/>
-      <c r="L7" s="127"/>
+      <c r="J7" s="130"/>
+      <c r="K7" s="130"/>
+      <c r="L7" s="130"/>
     </row>
     <row r="8" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="135"/>
-      <c r="B8" s="135"/>
-      <c r="C8" s="136"/>
-      <c r="D8" s="136"/>
-      <c r="E8" s="136"/>
-      <c r="F8" s="136"/>
-      <c r="G8" s="128"/>
-      <c r="H8" s="128"/>
-      <c r="I8" s="128"/>
-      <c r="J8" s="127"/>
-      <c r="K8" s="127"/>
-      <c r="L8" s="127"/>
+      <c r="A8" s="137"/>
+      <c r="B8" s="137"/>
+      <c r="C8" s="138"/>
+      <c r="D8" s="138"/>
+      <c r="E8" s="138"/>
+      <c r="F8" s="138"/>
+      <c r="G8" s="131"/>
+      <c r="H8" s="131"/>
+      <c r="I8" s="131"/>
+      <c r="J8" s="130"/>
+      <c r="K8" s="130"/>
+      <c r="L8" s="130"/>
     </row>
     <row r="9" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
@@ -10698,7 +10781,7 @@
       </c>
       <c r="C10" s="29">
         <f>COUNTIF(CF,"EEL")</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D10" s="30"/>
       <c r="E10" s="31" t="s">
@@ -10709,7 +10792,7 @@
       </c>
       <c r="G10" s="29">
         <f>C10*3</f>
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="H10" s="30"/>
       <c r="I10" s="32"/>
@@ -10722,7 +10805,7 @@
       <c r="B11" s="28"/>
       <c r="C11" s="29">
         <f>COUNTIF(CF,"EEA")</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D11" s="30"/>
       <c r="E11" s="31" t="s">
@@ -10733,7 +10816,7 @@
       </c>
       <c r="G11" s="29">
         <f>C11*4</f>
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="H11" s="30"/>
       <c r="I11" s="32"/>
@@ -10794,12 +10877,12 @@
       </c>
       <c r="G14" s="29">
         <f>SUM(G10:G12)</f>
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H14" s="30"/>
       <c r="I14" s="36">
         <f>IF($G$45&lt;&gt;0,G14/$G$45,"")</f>
-        <v>0.42253521126760563</v>
+        <v>0.43835616438356162</v>
       </c>
       <c r="J14" s="30"/>
       <c r="K14" s="30"/>
@@ -11086,7 +11169,7 @@
       <c r="H28" s="30"/>
       <c r="I28" s="42">
         <f>IF($G$45&lt;&gt;0,G28/$G$45,"")</f>
-        <v>0.28169014084507044</v>
+        <v>0.27397260273972601</v>
       </c>
       <c r="J28" s="30"/>
       <c r="K28" s="30"/>
@@ -11229,7 +11312,7 @@
       <c r="H35" s="30"/>
       <c r="I35" s="43">
         <f>IF($G$45&lt;&gt;0,G35/$G$45,"")</f>
-        <v>0.29577464788732394</v>
+        <v>0.28767123287671231</v>
       </c>
       <c r="J35" s="30"/>
       <c r="K35" s="30"/>
@@ -11417,7 +11500,7 @@
       <c r="F45" s="30"/>
       <c r="G45" s="29">
         <f>SUM(G14+G21+G28+G35+G42)</f>
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H45" s="30"/>
       <c r="I45" s="30"/>
@@ -11478,7 +11561,7 @@
       <c r="L48" s="33"/>
     </row>
     <row r="49" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="126" t="s">
+      <c r="A49" s="129" t="s">
         <v>63</v>
       </c>
       <c r="B49" s="77" t="s">
@@ -11489,8 +11572,8 @@
       <c r="E49" s="78"/>
       <c r="F49" s="78"/>
       <c r="G49" s="84">
-        <f>SUM(Funções!O8:O60)</f>
-        <v>79</v>
+        <f>SUM(Funções!O8:O62)</f>
+        <v>73</v>
       </c>
       <c r="H49" s="30"/>
       <c r="I49" s="30"/>
@@ -11499,7 +11582,7 @@
       <c r="L49" s="33"/>
     </row>
     <row r="50" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="126"/>
+      <c r="A50" s="129"/>
       <c r="B50" s="79" t="s">
         <v>75</v>
       </c>
@@ -11508,7 +11591,7 @@
       <c r="E50" s="30"/>
       <c r="F50" s="30"/>
       <c r="G50" s="29" t="e">
-        <f>SUM(Funções!S8:S111)</f>
+        <f>SUM(Funções!S8:S113)</f>
         <v>#REF!</v>
       </c>
       <c r="H50" s="30"/>
@@ -11517,7 +11600,7 @@
       <c r="L50" s="33"/>
     </row>
     <row r="51" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="126"/>
+      <c r="A51" s="129"/>
       <c r="B51" s="80" t="s">
         <v>76</v>
       </c>
@@ -11526,7 +11609,7 @@
       <c r="E51" s="81"/>
       <c r="F51" s="81"/>
       <c r="G51" s="29" t="e">
-        <f>SUM(Funções!R8:R111)</f>
+        <f>SUM(Funções!R8:R113)</f>
         <v>#REF!</v>
       </c>
       <c r="H51" s="30"/>
@@ -11586,14 +11669,14 @@
     </row>
     <row r="55" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="27"/>
-      <c r="B55" s="137" t="s">
+      <c r="B55" s="127" t="s">
         <v>52</v>
       </c>
-      <c r="C55" s="137"/>
-      <c r="D55" s="137"/>
+      <c r="C55" s="127"/>
+      <c r="D55" s="127"/>
       <c r="E55" s="5">
-        <f>SUMIF(Funções!$H$8:$H$60,"I",Funções!$N$8:$N$60)</f>
-        <v>79</v>
+        <f>SUMIF(Funções!$H$8:$H$62,"I",Funções!$N$8:$N$62)</f>
+        <v>73</v>
       </c>
       <c r="F55" s="5">
         <f>Contagem!U11</f>
@@ -11601,7 +11684,7 @@
       </c>
       <c r="G55" s="46">
         <f>F55*E55</f>
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="H55" s="47"/>
       <c r="I55" s="47"/>
@@ -11613,13 +11696,13 @@
     </row>
     <row r="56" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="27"/>
-      <c r="B56" s="137" t="s">
+      <c r="B56" s="127" t="s">
         <v>54</v>
       </c>
-      <c r="C56" s="137"/>
-      <c r="D56" s="137"/>
+      <c r="C56" s="127"/>
+      <c r="D56" s="127"/>
       <c r="E56" s="5">
-        <f>SUMIF(Funções!$H$8:$H$60,"A",Funções!$N$8:$N$60)</f>
+        <f>SUMIF(Funções!$H$8:$H$62,"A",Funções!$N$8:$N$62)</f>
         <v>0</v>
       </c>
       <c r="F56" s="5">
@@ -11635,19 +11718,19 @@
       <c r="J56" s="47"/>
       <c r="K56" s="49">
         <f>SUM(G55:G58)</f>
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="L56" s="33"/>
     </row>
     <row r="57" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="27"/>
-      <c r="B57" s="137" t="s">
+      <c r="B57" s="127" t="s">
         <v>55</v>
       </c>
-      <c r="C57" s="137"/>
-      <c r="D57" s="137"/>
+      <c r="C57" s="127"/>
+      <c r="D57" s="127"/>
       <c r="E57" s="5">
-        <f>SUMIF(Funções!$H$8:$H$60,"E",Funções!$N$8:$N$60)</f>
+        <f>SUMIF(Funções!$H$8:$H$62,"E",Funções!$N$8:$N$62)</f>
         <v>0</v>
       </c>
       <c r="F57" s="5">
@@ -11666,13 +11749,13 @@
     </row>
     <row r="58" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="27"/>
-      <c r="B58" s="137" t="s">
+      <c r="B58" s="127" t="s">
         <v>56</v>
       </c>
-      <c r="C58" s="137"/>
-      <c r="D58" s="137"/>
+      <c r="C58" s="127"/>
+      <c r="D58" s="127"/>
       <c r="E58" s="5">
-        <f>SUMIF(Funções!$H$8:$H$60,"T",Funções!$N$8:$N$60)</f>
+        <f>SUMIF(Funções!$H$8:$H$62,"T",Funções!$N$8:$N$62)</f>
         <v>0</v>
       </c>
       <c r="F58" s="5">
@@ -11725,11 +11808,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="F6:G6"/>
     <mergeCell ref="A49:A51"/>
     <mergeCell ref="I7:J8"/>
     <mergeCell ref="K7:L8"/>
@@ -11744,6 +11822,11 @@
     <mergeCell ref="C7:F8"/>
     <mergeCell ref="G7:G8"/>
     <mergeCell ref="H7:H8"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="F6:G6"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.74791666666666667" right="0.74791666666666667" top="1.3097222222222222" bottom="0.98402777777777783" header="0.51180555555555562" footer="0.49236111111111114"/>
@@ -11771,18 +11854,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="138" t="s">
+      <c r="A1" s="139" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="139"/>
+      <c r="B1" s="140"/>
     </row>
     <row r="2" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="120"/>
-      <c r="B2" s="140"/>
+      <c r="A2" s="113"/>
+      <c r="B2" s="141"/>
     </row>
     <row r="3" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="122"/>
-      <c r="B3" s="141"/>
+      <c r="A3" s="115"/>
+      <c r="B3" s="142"/>
     </row>
     <row r="4" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="74" t="s">
@@ -11797,7 +11880,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="73">
-        <f ca="1">SUMIF(Funções!$P$8:$P$294, "=1",Funções!$O$8:$O$243)</f>
+        <f ca="1">SUMIF(Funções!$P$8:$P$296, "=1",Funções!$O$8:$O$245)</f>
         <v>0</v>
       </c>
     </row>
@@ -11806,7 +11889,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="73">
-        <f ca="1">SUMIF(Funções!$P$8:$P$294, "=2",Funções!$O$8:$O$243)</f>
+        <f ca="1">SUMIF(Funções!$P$8:$P$296, "=2",Funções!$O$8:$O$245)</f>
         <v>0</v>
       </c>
     </row>
@@ -11815,7 +11898,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="73">
-        <f ca="1">SUMIF(Funções!$P$8:$P$294, "=3",Funções!$O$8:$O$243)</f>
+        <f ca="1">SUMIF(Funções!$P$8:$P$296, "=3",Funções!$O$8:$O$245)</f>
         <v>0</v>
       </c>
       <c r="E7" s="75"/>
@@ -11825,7 +11908,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="73">
-        <f ca="1">SUMIF(Funções!$P$8:$P$294, "=4",Funções!$O$8:$O$243)</f>
+        <f ca="1">SUMIF(Funções!$P$8:$P$296, "=4",Funções!$O$8:$O$245)</f>
         <v>0</v>
       </c>
       <c r="F8" s="75"/>
@@ -11835,7 +11918,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="73">
-        <f ca="1">SUMIF(Funções!$P$8:$P$294, "=5",Funções!$O$8:$O$243)</f>
+        <f ca="1">SUMIF(Funções!$P$8:$P$296, "=5",Funções!$O$8:$O$245)</f>
         <v>0</v>
       </c>
     </row>
@@ -11844,7 +11927,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="73">
-        <f ca="1">SUMIF(Funções!$P$8:$P$294, "=6",Funções!$O$8:$O$243)</f>
+        <f ca="1">SUMIF(Funções!$P$8:$P$296, "=6",Funções!$O$8:$O$245)</f>
         <v>0</v>
       </c>
     </row>
@@ -11853,7 +11936,7 @@
         <v>7</v>
       </c>
       <c r="B11" s="73">
-        <f ca="1">SUMIF(Funções!$P$8:$P$294, "=7",Funções!$O$8:$O$243)</f>
+        <f ca="1">SUMIF(Funções!$P$8:$P$296, "=7",Funções!$O$8:$O$245)</f>
         <v>0</v>
       </c>
       <c r="F11" s="75"/>
@@ -11863,7 +11946,7 @@
         <v>8</v>
       </c>
       <c r="B12" s="73">
-        <f ca="1">SUMIF(Funções!$P$8:$P$294, "=8",Funções!$O$8:$O$243)</f>
+        <f ca="1">SUMIF(Funções!$P$8:$P$296, "=8",Funções!$O$8:$O$245)</f>
         <v>0</v>
       </c>
     </row>
@@ -11872,7 +11955,7 @@
         <v>9</v>
       </c>
       <c r="B13" s="73">
-        <f ca="1">SUMIF(Funções!$P$8:$P$294, "=9",Funções!$O$8:$O$243)</f>
+        <f ca="1">SUMIF(Funções!$P$8:$P$296, "=9",Funções!$O$8:$O$245)</f>
         <v>0</v>
       </c>
     </row>
@@ -11881,7 +11964,7 @@
         <v>10</v>
       </c>
       <c r="B14" s="73">
-        <f ca="1">SUMIF(Funções!$P$8:$P$294, "=10",Funções!$O$8:$O$243)</f>
+        <f ca="1">SUMIF(Funções!$P$8:$P$296, "=10",Funções!$O$8:$O$245)</f>
         <v>0</v>
       </c>
     </row>
@@ -11890,7 +11973,7 @@
         <v>11</v>
       </c>
       <c r="B15" s="73">
-        <f ca="1">SUMIF(Funções!$P$8:$P$294, "=11",Funções!$O$8:$O$243)</f>
+        <f ca="1">SUMIF(Funções!$P$8:$P$296, "=11",Funções!$O$8:$O$245)</f>
         <v>0</v>
       </c>
     </row>
@@ -11899,7 +11982,7 @@
         <v>12</v>
       </c>
       <c r="B16" s="73">
-        <f ca="1">SUMIF(Funções!$P$8:$P$294, "=12",Funções!$O$8:$O$243)</f>
+        <f ca="1">SUMIF(Funções!$P$8:$P$296, "=12",Funções!$O$8:$O$245)</f>
         <v>0</v>
       </c>
     </row>
@@ -11908,7 +11991,7 @@
         <v>13</v>
       </c>
       <c r="B17" s="73">
-        <f ca="1">SUMIF(Funções!$P$8:$P$294, "=13",Funções!$O$8:$O$243)</f>
+        <f ca="1">SUMIF(Funções!$P$8:$P$296, "=13",Funções!$O$8:$O$245)</f>
         <v>0</v>
       </c>
     </row>
@@ -11917,7 +12000,7 @@
         <v>14</v>
       </c>
       <c r="B18" s="73">
-        <f ca="1">SUMIF(Funções!$P$8:$P$294, "=14",Funções!$O$8:$O$243)</f>
+        <f ca="1">SUMIF(Funções!$P$8:$P$296, "=14",Funções!$O$8:$O$245)</f>
         <v>0</v>
       </c>
     </row>
@@ -11926,7 +12009,7 @@
         <v>15</v>
       </c>
       <c r="B19" s="73">
-        <f ca="1">SUMIF(Funções!$P$8:$P$294, "=15",Funções!$O$8:$O$243)</f>
+        <f ca="1">SUMIF(Funções!$P$8:$P$296, "=15",Funções!$O$8:$O$245)</f>
         <v>0</v>
       </c>
     </row>
